--- a/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9723653530185659</v>
+        <v>0.9723653530185649</v>
       </c>
       <c r="D2">
-        <v>0.9938301491726002</v>
+        <v>0.9938301491725989</v>
       </c>
       <c r="E2">
-        <v>0.9820507230355777</v>
+        <v>0.9820507230355767</v>
       </c>
       <c r="F2">
-        <v>0.9809979135626692</v>
+        <v>0.9809979135626681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033387977141548</v>
+        <v>1.033387977141547</v>
       </c>
       <c r="J2">
-        <v>0.9954052424730113</v>
+        <v>0.9954052424730102</v>
       </c>
       <c r="K2">
-        <v>1.005376114358319</v>
+        <v>1.005376114358318</v>
       </c>
       <c r="L2">
-        <v>0.9937659161502145</v>
+        <v>0.9937659161502134</v>
       </c>
       <c r="M2">
-        <v>0.9927284827974308</v>
+        <v>0.9927284827974294</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9863934296522358</v>
+        <v>0.986393429652238</v>
       </c>
       <c r="D3">
-        <v>1.004797994472784</v>
+        <v>1.004797994472786</v>
       </c>
       <c r="E3">
-        <v>0.995560599253559</v>
+        <v>0.9955605992535612</v>
       </c>
       <c r="F3">
-        <v>0.9950340627611177</v>
+        <v>0.9950340627611204</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038446687005478</v>
+        <v>1.038446687005479</v>
       </c>
       <c r="J3">
-        <v>1.007262023829266</v>
+        <v>1.007262023829269</v>
       </c>
       <c r="K3">
-        <v>1.015369849970853</v>
+        <v>1.015369849970855</v>
       </c>
       <c r="L3">
-        <v>1.00625059996681</v>
+        <v>1.006250599966812</v>
       </c>
       <c r="M3">
-        <v>1.005730880508573</v>
+        <v>1.005730880508575</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9949520656849156</v>
+        <v>0.9949520656849141</v>
       </c>
       <c r="D4">
         <v>1.011487775376263</v>
       </c>
       <c r="E4">
-        <v>1.003810364391262</v>
+        <v>1.003810364391261</v>
       </c>
       <c r="F4">
-        <v>1.003607827227796</v>
+        <v>1.003607827227794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041509603584321</v>
+        <v>1.04150960358432</v>
       </c>
       <c r="J4">
-        <v>1.014485785545117</v>
+        <v>1.014485785545116</v>
       </c>
       <c r="K4">
-        <v>1.021449502377869</v>
+        <v>1.021449502377868</v>
       </c>
       <c r="L4">
-        <v>1.013863018186014</v>
+        <v>1.013863018186012</v>
       </c>
       <c r="M4">
-        <v>1.013662903111236</v>
+        <v>1.013662903111235</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9984392935832942</v>
+        <v>0.9984392935832958</v>
       </c>
       <c r="D5">
-        <v>1.014212808897262</v>
+        <v>1.014212808897263</v>
       </c>
       <c r="E5">
-        <v>1.007173314199178</v>
+        <v>1.00717331419918</v>
       </c>
       <c r="F5">
-        <v>1.007103514106549</v>
+        <v>1.00710351410655</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042751864913904</v>
+        <v>1.042751864913905</v>
       </c>
       <c r="J5">
-        <v>1.017426572227471</v>
+        <v>1.017426572227473</v>
       </c>
       <c r="K5">
-        <v>1.023922294958419</v>
+        <v>1.02392229495842</v>
       </c>
       <c r="L5">
-        <v>1.016963479748116</v>
+        <v>1.016963479748118</v>
       </c>
       <c r="M5">
-        <v>1.016894486609144</v>
+        <v>1.016894486609145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.999018658547097</v>
+        <v>0.9990186585471024</v>
       </c>
       <c r="D6">
-        <v>1.014665492951268</v>
+        <v>1.014665492951272</v>
       </c>
       <c r="E6">
-        <v>1.007732119657536</v>
+        <v>1.007732119657541</v>
       </c>
       <c r="F6">
-        <v>1.007684415574423</v>
+        <v>1.007684415574428</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042957913023483</v>
+        <v>1.042957913023486</v>
       </c>
       <c r="J6">
-        <v>1.017914999231184</v>
+        <v>1.017914999231189</v>
       </c>
       <c r="K6">
-        <v>1.024332861368359</v>
+        <v>1.024332861368363</v>
       </c>
       <c r="L6">
-        <v>1.017478511986161</v>
+        <v>1.017478511986167</v>
       </c>
       <c r="M6">
-        <v>1.017431356266142</v>
+        <v>1.017431356266147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9949990818434374</v>
+        <v>0.9949990818434394</v>
       </c>
       <c r="D7">
-        <v>1.011524518588923</v>
+        <v>1.011524518588924</v>
       </c>
       <c r="E7">
-        <v>1.003855698942935</v>
+        <v>1.003855698942937</v>
       </c>
       <c r="F7">
-        <v>1.003654948486215</v>
+        <v>1.003654948486217</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041526375157525</v>
       </c>
       <c r="J7">
-        <v>1.01452544463065</v>
+        <v>1.014525444630652</v>
       </c>
       <c r="K7">
-        <v>1.02148285909479</v>
+        <v>1.021482859094791</v>
       </c>
       <c r="L7">
-        <v>1.013904824856006</v>
+        <v>1.013904824856008</v>
       </c>
       <c r="M7">
-        <v>1.013706474040829</v>
+        <v>1.013706474040831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9772223887304717</v>
+        <v>0.9772223887304673</v>
       </c>
       <c r="D8">
-        <v>0.9976277993653515</v>
+        <v>0.9976277993653477</v>
       </c>
       <c r="E8">
-        <v>0.9867266489495303</v>
+        <v>0.9867266489495259</v>
       </c>
       <c r="F8">
-        <v>0.9858554430923909</v>
+        <v>0.9858554430923865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03514446278339</v>
+        <v>1.035144462783388</v>
       </c>
       <c r="J8">
-        <v>0.9995126049029681</v>
+        <v>0.999512604902964</v>
       </c>
       <c r="K8">
-        <v>1.00883999978838</v>
+        <v>1.008839999788376</v>
       </c>
       <c r="L8">
-        <v>0.9980894695471945</v>
+        <v>0.99808946954719</v>
       </c>
       <c r="M8">
-        <v>0.9972304825954647</v>
+        <v>0.9972304825954604</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9411558419320967</v>
+        <v>0.9411558419320969</v>
       </c>
       <c r="D9">
-        <v>0.9694367453280114</v>
+        <v>0.9694367453280116</v>
       </c>
       <c r="E9">
-        <v>0.9520486612149826</v>
+        <v>0.9520486612149824</v>
       </c>
       <c r="F9">
-        <v>0.9498409940762421</v>
+        <v>0.9498409940762422</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.021999263966552</v>
       </c>
       <c r="J9">
-        <v>0.968972509729808</v>
+        <v>0.9689725097298083</v>
       </c>
       <c r="K9">
-        <v>0.9830459495965262</v>
+        <v>0.9830459495965266</v>
       </c>
       <c r="L9">
-        <v>0.9659707730517604</v>
+        <v>0.9659707730517607</v>
       </c>
       <c r="M9">
-        <v>0.96380390282416</v>
+        <v>0.9638039028241601</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9124173069690736</v>
+        <v>0.9124173069690751</v>
       </c>
       <c r="D10">
-        <v>0.9470143656056388</v>
+        <v>0.9470143656056398</v>
       </c>
       <c r="E10">
-        <v>0.9244919400907945</v>
+        <v>0.924491940090796</v>
       </c>
       <c r="F10">
-        <v>0.9212330019164645</v>
+        <v>0.9212330019164658</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011398343166397</v>
+        <v>1.011398343166398</v>
       </c>
       <c r="J10">
-        <v>0.9445950782457677</v>
+        <v>0.9445950782457689</v>
       </c>
       <c r="K10">
-        <v>0.962411059047266</v>
+        <v>0.9624110590472671</v>
       </c>
       <c r="L10">
-        <v>0.9403728780026781</v>
+        <v>0.9403728780026793</v>
       </c>
       <c r="M10">
-        <v>0.9371866223791872</v>
+        <v>0.9371866223791886</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8983134363435767</v>
+        <v>0.8983134363435757</v>
       </c>
       <c r="D11">
-        <v>0.9360336759387378</v>
+        <v>0.9360336759387367</v>
       </c>
       <c r="E11">
-        <v>0.9109941799358982</v>
+        <v>0.9109941799358975</v>
       </c>
       <c r="F11">
-        <v>0.9072213970794082</v>
+        <v>0.9072213970794075</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.006169995954595</v>
       </c>
       <c r="J11">
-        <v>0.9326268145016416</v>
+        <v>0.9326268145016406</v>
       </c>
       <c r="K11">
-        <v>0.9522718816578624</v>
+        <v>0.9522718816578614</v>
       </c>
       <c r="L11">
-        <v>0.9278153768243036</v>
+        <v>0.9278153768243029</v>
       </c>
       <c r="M11">
-        <v>0.9241341900178514</v>
+        <v>0.9241341900178505</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8927511366726334</v>
+        <v>0.8927511366726325</v>
       </c>
       <c r="D12">
-        <v>0.9317083923409019</v>
+        <v>0.9317083923409005</v>
       </c>
       <c r="E12">
-        <v>0.9056758747866069</v>
+        <v>0.9056758747866058</v>
       </c>
       <c r="F12">
-        <v>0.9017005905947569</v>
+        <v>0.9017005905947555</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004104782340651</v>
+        <v>1.00410478234065</v>
       </c>
       <c r="J12">
-        <v>0.9279068087212097</v>
+        <v>0.9279068087212087</v>
       </c>
       <c r="K12">
-        <v>0.9482723314735442</v>
+        <v>0.9482723314735431</v>
       </c>
       <c r="L12">
-        <v>0.9228645317059525</v>
+        <v>0.9228645317059516</v>
       </c>
       <c r="M12">
-        <v>0.9189889337479132</v>
+        <v>0.918988933747912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8939604910990753</v>
+        <v>0.8939604910990759</v>
       </c>
       <c r="D13">
-        <v>0.932648521418292</v>
+        <v>0.9326485214182919</v>
       </c>
       <c r="E13">
-        <v>0.9068319368210571</v>
+        <v>0.9068319368210573</v>
       </c>
       <c r="F13">
-        <v>0.9029006771948184</v>
+        <v>0.9029006771948187</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.004553933534613</v>
       </c>
       <c r="J13">
-        <v>0.9289330136407445</v>
+        <v>0.928933013640745</v>
       </c>
       <c r="K13">
-        <v>0.9491419303178888</v>
+        <v>0.949141930317889</v>
       </c>
       <c r="L13">
-        <v>0.9239408548802333</v>
+        <v>0.9239408548802334</v>
       </c>
       <c r="M13">
-        <v>0.9201074913564925</v>
+        <v>0.9201074913564928</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8978608097709556</v>
+        <v>0.8978608097709569</v>
       </c>
       <c r="D14">
-        <v>0.9356815918941126</v>
+        <v>0.9356815918941135</v>
       </c>
       <c r="E14">
-        <v>0.9105613017982256</v>
+        <v>0.9105613017982271</v>
       </c>
       <c r="F14">
-        <v>0.9067720388119254</v>
+        <v>0.9067720388119264</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.006002001731049</v>
+        <v>1.00600200173105</v>
       </c>
       <c r="J14">
-        <v>0.9322427222388182</v>
+        <v>0.9322427222388193</v>
       </c>
       <c r="K14">
-        <v>0.9519464319839882</v>
+        <v>0.9519464319839892</v>
       </c>
       <c r="L14">
-        <v>0.9274124688174888</v>
+        <v>0.9274124688174898</v>
       </c>
       <c r="M14">
-        <v>0.923715446595827</v>
+        <v>0.923715446595828</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9002182501387995</v>
+        <v>0.9002182501387991</v>
       </c>
       <c r="D15">
-        <v>0.9375155944361455</v>
+        <v>0.9375155944361451</v>
       </c>
       <c r="E15">
-        <v>0.9128160901972898</v>
+        <v>0.9128160901972888</v>
       </c>
       <c r="F15">
-        <v>0.9091126664094469</v>
+        <v>0.9091126664094462</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.006876849974355</v>
       </c>
       <c r="J15">
-        <v>0.9342432188101014</v>
+        <v>0.9342432188101009</v>
       </c>
       <c r="K15">
-        <v>0.953641462788816</v>
+        <v>0.9536414627888155</v>
       </c>
       <c r="L15">
-        <v>0.9295110266939396</v>
+        <v>0.9295110266939389</v>
       </c>
       <c r="M15">
-        <v>0.9258965119260639</v>
+        <v>0.925896511926063</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9133127665185317</v>
+        <v>0.9133127665185293</v>
       </c>
       <c r="D16">
-        <v>0.9477121293282433</v>
+        <v>0.9477121293282413</v>
       </c>
       <c r="E16">
-        <v>0.9253495133671311</v>
+        <v>0.9253495133671283</v>
       </c>
       <c r="F16">
-        <v>0.9221232291390147</v>
+        <v>0.9221232291390118</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011729823425896</v>
+        <v>1.011729823425895</v>
       </c>
       <c r="J16">
-        <v>0.9453549083726436</v>
+        <v>0.9453549083726409</v>
       </c>
       <c r="K16">
-        <v>0.9630546254279481</v>
+        <v>0.963054625427946</v>
       </c>
       <c r="L16">
-        <v>0.9411703191928349</v>
+        <v>0.9411703191928322</v>
       </c>
       <c r="M16">
-        <v>0.938015591988245</v>
+        <v>0.9380155919882425</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9210393535652541</v>
+        <v>0.9210393535652501</v>
       </c>
       <c r="D17">
-        <v>0.95373552904554</v>
+        <v>0.953735529045537</v>
       </c>
       <c r="E17">
-        <v>0.9327520844026735</v>
+        <v>0.9327520844026697</v>
       </c>
       <c r="F17">
-        <v>0.9298077715502997</v>
+        <v>0.9298077715502961</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.014587311791993</v>
+        <v>1.014587311791991</v>
       </c>
       <c r="J17">
-        <v>0.9519107503919974</v>
+        <v>0.9519107503919938</v>
       </c>
       <c r="K17">
-        <v>0.9686064676235913</v>
+        <v>0.9686064676235884</v>
       </c>
       <c r="L17">
-        <v>0.9480517474182634</v>
+        <v>0.9480517474182597</v>
       </c>
       <c r="M17">
-        <v>0.9451696419006499</v>
+        <v>0.9451696419006462</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9253922504402651</v>
+        <v>0.9253922504402655</v>
       </c>
       <c r="D18">
-        <v>0.9571308670740297</v>
+        <v>0.9571308670740303</v>
       </c>
       <c r="E18">
-        <v>0.9369246955602769</v>
+        <v>0.9369246955602771</v>
       </c>
       <c r="F18">
-        <v>0.9341394339962721</v>
+        <v>0.934139433996272</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.016194776335713</v>
       </c>
       <c r="J18">
-        <v>0.9556036156961351</v>
+        <v>0.9556036156961356</v>
       </c>
       <c r="K18">
-        <v>0.9717330150241159</v>
+        <v>0.9717330150241161</v>
       </c>
       <c r="L18">
-        <v>0.9519288986269665</v>
+        <v>0.9519288986269669</v>
       </c>
       <c r="M18">
-        <v>0.9492008579763624</v>
+        <v>0.9492008579763622</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.926852128442441</v>
+        <v>0.9268521284424417</v>
       </c>
       <c r="D19">
-        <v>0.9582698909909558</v>
+        <v>0.9582698909909566</v>
       </c>
       <c r="E19">
-        <v>0.9383244684758061</v>
+        <v>0.9383244684758067</v>
       </c>
       <c r="F19">
-        <v>0.9355925868654862</v>
+        <v>0.9355925868654872</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.016733477007409</v>
       </c>
       <c r="J19">
-        <v>0.9568420349421853</v>
+        <v>0.9568420349421859</v>
       </c>
       <c r="K19">
-        <v>0.9727813782392154</v>
+        <v>0.9727813782392158</v>
       </c>
       <c r="L19">
-        <v>0.9532292680403757</v>
+        <v>0.9532292680403763</v>
       </c>
       <c r="M19">
-        <v>0.9505529795208812</v>
+        <v>0.9505529795208822</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.920226715184866</v>
+        <v>0.9202267151848658</v>
       </c>
       <c r="D20">
-        <v>0.9531018069772255</v>
+        <v>0.9531018069772252</v>
       </c>
       <c r="E20">
-        <v>0.9319732821883312</v>
+        <v>0.9319732821883304</v>
       </c>
       <c r="F20">
-        <v>0.928999293322775</v>
+        <v>0.9289992933227744</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.014287020010395</v>
       </c>
       <c r="J20">
-        <v>0.9512212897902276</v>
+        <v>0.9512212897902272</v>
       </c>
       <c r="K20">
-        <v>0.9680226738534001</v>
+        <v>0.9680226738533997</v>
       </c>
       <c r="L20">
-        <v>0.9473279527187785</v>
+        <v>0.947327952718778</v>
       </c>
       <c r="M20">
-        <v>0.944417124316542</v>
+        <v>0.9444171243165415</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8967219658850023</v>
+        <v>0.8967219658850016</v>
       </c>
       <c r="D21">
-        <v>0.9347958122931412</v>
+        <v>0.9347958122931408</v>
       </c>
       <c r="E21">
-        <v>0.9094722295308614</v>
+        <v>0.9094722295308604</v>
       </c>
       <c r="F21">
-        <v>0.9056415029356207</v>
+        <v>0.9056415029356194</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.005579266001613</v>
       </c>
       <c r="J21">
-        <v>0.9312763199992466</v>
+        <v>0.9312763199992459</v>
       </c>
       <c r="K21">
-        <v>0.9511275657763527</v>
+        <v>0.9511275657763522</v>
       </c>
       <c r="L21">
-        <v>0.9263987495739634</v>
+        <v>0.9263987495739624</v>
       </c>
       <c r="M21">
-        <v>0.9226618965059695</v>
+        <v>0.9226618965059684</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8800039982933053</v>
+        <v>0.8800039982933066</v>
       </c>
       <c r="D22">
-        <v>0.9218088752188287</v>
+        <v>0.9218088752188298</v>
       </c>
       <c r="E22">
-        <v>0.893498844977984</v>
+        <v>0.8934988449779853</v>
       </c>
       <c r="F22">
-        <v>0.8890595041970377</v>
+        <v>0.8890595041970387</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9993667970023188</v>
+        <v>0.9993667970023192</v>
       </c>
       <c r="J22">
-        <v>0.9170912695932544</v>
+        <v>0.9170912695932553</v>
       </c>
       <c r="K22">
-        <v>0.9391065569938016</v>
+        <v>0.9391065569938025</v>
       </c>
       <c r="L22">
-        <v>0.9115230060306908</v>
+        <v>0.9115230060306919</v>
       </c>
       <c r="M22">
-        <v>0.9072033016709877</v>
+        <v>0.9072033016709888</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8890857806595257</v>
+        <v>0.8890857806595273</v>
       </c>
       <c r="D23">
-        <v>0.9288599742937858</v>
+        <v>0.9288599742937874</v>
       </c>
       <c r="E23">
-        <v>0.902172872808532</v>
+        <v>0.9021728728085335</v>
       </c>
       <c r="F23">
-        <v>0.8980641618421118</v>
+        <v>0.8980641618421138</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.002743066608796</v>
+        <v>1.002743066608797</v>
       </c>
       <c r="J23">
-        <v>0.924796636369402</v>
+        <v>0.9247966363694036</v>
       </c>
       <c r="K23">
-        <v>0.9456367001066095</v>
+        <v>0.9456367001066108</v>
       </c>
       <c r="L23">
-        <v>0.9196026937121426</v>
+        <v>0.9196026937121443</v>
       </c>
       <c r="M23">
-        <v>0.9155992017573519</v>
+        <v>0.9155992017573538</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9205943819272491</v>
+        <v>0.9205943819272457</v>
       </c>
       <c r="D24">
-        <v>0.9533885195382964</v>
+        <v>0.9533885195382936</v>
       </c>
       <c r="E24">
-        <v>0.9323256332373087</v>
+        <v>0.9323256332373051</v>
       </c>
       <c r="F24">
-        <v>0.9293650702323746</v>
+        <v>0.9293650702323709</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.014422890179327</v>
+        <v>1.014422890179326</v>
       </c>
       <c r="J24">
-        <v>0.9515332280218503</v>
+        <v>0.9515332280218469</v>
       </c>
       <c r="K24">
-        <v>0.9682868068269377</v>
+        <v>0.9682868068269347</v>
       </c>
       <c r="L24">
-        <v>0.9476554222316083</v>
+        <v>0.947655422231605</v>
       </c>
       <c r="M24">
-        <v>0.9447575875890539</v>
+        <v>0.9447575875890505</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9511692470650648</v>
+        <v>0.9511692470650627</v>
       </c>
       <c r="D25">
-        <v>0.9772601973493763</v>
+        <v>0.9772601973493749</v>
       </c>
       <c r="E25">
-        <v>0.9616662914166311</v>
+        <v>0.9616662914166294</v>
       </c>
       <c r="F25">
-        <v>0.9598272179458427</v>
+        <v>0.959827217945841</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.025670228704653</v>
       </c>
       <c r="J25">
-        <v>0.9774596239022589</v>
+        <v>0.9774596239022568</v>
       </c>
       <c r="K25">
-        <v>0.9902220841186422</v>
+        <v>0.9902220841186405</v>
       </c>
       <c r="L25">
-        <v>0.9748903421574422</v>
+        <v>0.9748903421574404</v>
       </c>
       <c r="M25">
-        <v>0.9730829133273007</v>
+        <v>0.973082913327299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9723653530185649</v>
+        <v>0.9723653530185659</v>
       </c>
       <c r="D2">
-        <v>0.9938301491725989</v>
+        <v>0.9938301491726002</v>
       </c>
       <c r="E2">
-        <v>0.9820507230355767</v>
+        <v>0.9820507230355777</v>
       </c>
       <c r="F2">
-        <v>0.9809979135626681</v>
+        <v>0.9809979135626692</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033387977141547</v>
+        <v>1.033387977141548</v>
       </c>
       <c r="J2">
-        <v>0.9954052424730102</v>
+        <v>0.9954052424730113</v>
       </c>
       <c r="K2">
-        <v>1.005376114358318</v>
+        <v>1.005376114358319</v>
       </c>
       <c r="L2">
-        <v>0.9937659161502134</v>
+        <v>0.9937659161502145</v>
       </c>
       <c r="M2">
-        <v>0.9927284827974294</v>
+        <v>0.9927284827974308</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.986393429652238</v>
+        <v>0.9863934296522358</v>
       </c>
       <c r="D3">
-        <v>1.004797994472786</v>
+        <v>1.004797994472784</v>
       </c>
       <c r="E3">
-        <v>0.9955605992535612</v>
+        <v>0.995560599253559</v>
       </c>
       <c r="F3">
-        <v>0.9950340627611204</v>
+        <v>0.9950340627611177</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038446687005479</v>
+        <v>1.038446687005478</v>
       </c>
       <c r="J3">
-        <v>1.007262023829269</v>
+        <v>1.007262023829266</v>
       </c>
       <c r="K3">
-        <v>1.015369849970855</v>
+        <v>1.015369849970853</v>
       </c>
       <c r="L3">
-        <v>1.006250599966812</v>
+        <v>1.00625059996681</v>
       </c>
       <c r="M3">
-        <v>1.005730880508575</v>
+        <v>1.005730880508573</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9949520656849141</v>
+        <v>0.9949520656849156</v>
       </c>
       <c r="D4">
         <v>1.011487775376263</v>
       </c>
       <c r="E4">
-        <v>1.003810364391261</v>
+        <v>1.003810364391262</v>
       </c>
       <c r="F4">
-        <v>1.003607827227794</v>
+        <v>1.003607827227796</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04150960358432</v>
+        <v>1.041509603584321</v>
       </c>
       <c r="J4">
-        <v>1.014485785545116</v>
+        <v>1.014485785545117</v>
       </c>
       <c r="K4">
-        <v>1.021449502377868</v>
+        <v>1.021449502377869</v>
       </c>
       <c r="L4">
-        <v>1.013863018186012</v>
+        <v>1.013863018186014</v>
       </c>
       <c r="M4">
-        <v>1.013662903111235</v>
+        <v>1.013662903111236</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9984392935832958</v>
+        <v>0.9984392935832942</v>
       </c>
       <c r="D5">
-        <v>1.014212808897263</v>
+        <v>1.014212808897262</v>
       </c>
       <c r="E5">
-        <v>1.00717331419918</v>
+        <v>1.007173314199178</v>
       </c>
       <c r="F5">
-        <v>1.00710351410655</v>
+        <v>1.007103514106549</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042751864913905</v>
+        <v>1.042751864913904</v>
       </c>
       <c r="J5">
-        <v>1.017426572227473</v>
+        <v>1.017426572227471</v>
       </c>
       <c r="K5">
-        <v>1.02392229495842</v>
+        <v>1.023922294958419</v>
       </c>
       <c r="L5">
-        <v>1.016963479748118</v>
+        <v>1.016963479748116</v>
       </c>
       <c r="M5">
-        <v>1.016894486609145</v>
+        <v>1.016894486609144</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990186585471024</v>
+        <v>0.999018658547097</v>
       </c>
       <c r="D6">
-        <v>1.014665492951272</v>
+        <v>1.014665492951268</v>
       </c>
       <c r="E6">
-        <v>1.007732119657541</v>
+        <v>1.007732119657536</v>
       </c>
       <c r="F6">
-        <v>1.007684415574428</v>
+        <v>1.007684415574423</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042957913023486</v>
+        <v>1.042957913023483</v>
       </c>
       <c r="J6">
-        <v>1.017914999231189</v>
+        <v>1.017914999231184</v>
       </c>
       <c r="K6">
-        <v>1.024332861368363</v>
+        <v>1.024332861368359</v>
       </c>
       <c r="L6">
-        <v>1.017478511986167</v>
+        <v>1.017478511986161</v>
       </c>
       <c r="M6">
-        <v>1.017431356266147</v>
+        <v>1.017431356266142</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9949990818434394</v>
+        <v>0.9949990818434374</v>
       </c>
       <c r="D7">
-        <v>1.011524518588924</v>
+        <v>1.011524518588923</v>
       </c>
       <c r="E7">
-        <v>1.003855698942937</v>
+        <v>1.003855698942935</v>
       </c>
       <c r="F7">
-        <v>1.003654948486217</v>
+        <v>1.003654948486215</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041526375157525</v>
       </c>
       <c r="J7">
-        <v>1.014525444630652</v>
+        <v>1.01452544463065</v>
       </c>
       <c r="K7">
-        <v>1.021482859094791</v>
+        <v>1.02148285909479</v>
       </c>
       <c r="L7">
-        <v>1.013904824856008</v>
+        <v>1.013904824856006</v>
       </c>
       <c r="M7">
-        <v>1.013706474040831</v>
+        <v>1.013706474040829</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9772223887304673</v>
+        <v>0.9772223887304717</v>
       </c>
       <c r="D8">
-        <v>0.9976277993653477</v>
+        <v>0.9976277993653515</v>
       </c>
       <c r="E8">
-        <v>0.9867266489495259</v>
+        <v>0.9867266489495303</v>
       </c>
       <c r="F8">
-        <v>0.9858554430923865</v>
+        <v>0.9858554430923909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035144462783388</v>
+        <v>1.03514446278339</v>
       </c>
       <c r="J8">
-        <v>0.999512604902964</v>
+        <v>0.9995126049029681</v>
       </c>
       <c r="K8">
-        <v>1.008839999788376</v>
+        <v>1.00883999978838</v>
       </c>
       <c r="L8">
-        <v>0.99808946954719</v>
+        <v>0.9980894695471945</v>
       </c>
       <c r="M8">
-        <v>0.9972304825954604</v>
+        <v>0.9972304825954647</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9411558419320969</v>
+        <v>0.9411558419320967</v>
       </c>
       <c r="D9">
-        <v>0.9694367453280116</v>
+        <v>0.9694367453280114</v>
       </c>
       <c r="E9">
-        <v>0.9520486612149824</v>
+        <v>0.9520486612149826</v>
       </c>
       <c r="F9">
-        <v>0.9498409940762422</v>
+        <v>0.9498409940762421</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.021999263966552</v>
       </c>
       <c r="J9">
-        <v>0.9689725097298083</v>
+        <v>0.968972509729808</v>
       </c>
       <c r="K9">
-        <v>0.9830459495965266</v>
+        <v>0.9830459495965262</v>
       </c>
       <c r="L9">
-        <v>0.9659707730517607</v>
+        <v>0.9659707730517604</v>
       </c>
       <c r="M9">
-        <v>0.9638039028241601</v>
+        <v>0.96380390282416</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9124173069690751</v>
+        <v>0.9124173069690736</v>
       </c>
       <c r="D10">
-        <v>0.9470143656056398</v>
+        <v>0.9470143656056388</v>
       </c>
       <c r="E10">
-        <v>0.924491940090796</v>
+        <v>0.9244919400907945</v>
       </c>
       <c r="F10">
-        <v>0.9212330019164658</v>
+        <v>0.9212330019164645</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011398343166398</v>
+        <v>1.011398343166397</v>
       </c>
       <c r="J10">
-        <v>0.9445950782457689</v>
+        <v>0.9445950782457677</v>
       </c>
       <c r="K10">
-        <v>0.9624110590472671</v>
+        <v>0.962411059047266</v>
       </c>
       <c r="L10">
-        <v>0.9403728780026793</v>
+        <v>0.9403728780026781</v>
       </c>
       <c r="M10">
-        <v>0.9371866223791886</v>
+        <v>0.9371866223791872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8983134363435757</v>
+        <v>0.8983134363435767</v>
       </c>
       <c r="D11">
-        <v>0.9360336759387367</v>
+        <v>0.9360336759387378</v>
       </c>
       <c r="E11">
-        <v>0.9109941799358975</v>
+        <v>0.9109941799358982</v>
       </c>
       <c r="F11">
-        <v>0.9072213970794075</v>
+        <v>0.9072213970794082</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.006169995954595</v>
       </c>
       <c r="J11">
-        <v>0.9326268145016406</v>
+        <v>0.9326268145016416</v>
       </c>
       <c r="K11">
-        <v>0.9522718816578614</v>
+        <v>0.9522718816578624</v>
       </c>
       <c r="L11">
-        <v>0.9278153768243029</v>
+        <v>0.9278153768243036</v>
       </c>
       <c r="M11">
-        <v>0.9241341900178505</v>
+        <v>0.9241341900178514</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8927511366726325</v>
+        <v>0.8927511366726334</v>
       </c>
       <c r="D12">
-        <v>0.9317083923409005</v>
+        <v>0.9317083923409019</v>
       </c>
       <c r="E12">
-        <v>0.9056758747866058</v>
+        <v>0.9056758747866069</v>
       </c>
       <c r="F12">
-        <v>0.9017005905947555</v>
+        <v>0.9017005905947569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.00410478234065</v>
+        <v>1.004104782340651</v>
       </c>
       <c r="J12">
-        <v>0.9279068087212087</v>
+        <v>0.9279068087212097</v>
       </c>
       <c r="K12">
-        <v>0.9482723314735431</v>
+        <v>0.9482723314735442</v>
       </c>
       <c r="L12">
-        <v>0.9228645317059516</v>
+        <v>0.9228645317059525</v>
       </c>
       <c r="M12">
-        <v>0.918988933747912</v>
+        <v>0.9189889337479132</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8939604910990759</v>
+        <v>0.8939604910990753</v>
       </c>
       <c r="D13">
-        <v>0.9326485214182919</v>
+        <v>0.932648521418292</v>
       </c>
       <c r="E13">
-        <v>0.9068319368210573</v>
+        <v>0.9068319368210571</v>
       </c>
       <c r="F13">
-        <v>0.9029006771948187</v>
+        <v>0.9029006771948184</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.004553933534613</v>
       </c>
       <c r="J13">
-        <v>0.928933013640745</v>
+        <v>0.9289330136407445</v>
       </c>
       <c r="K13">
-        <v>0.949141930317889</v>
+        <v>0.9491419303178888</v>
       </c>
       <c r="L13">
-        <v>0.9239408548802334</v>
+        <v>0.9239408548802333</v>
       </c>
       <c r="M13">
-        <v>0.9201074913564928</v>
+        <v>0.9201074913564925</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8978608097709569</v>
+        <v>0.8978608097709556</v>
       </c>
       <c r="D14">
-        <v>0.9356815918941135</v>
+        <v>0.9356815918941126</v>
       </c>
       <c r="E14">
-        <v>0.9105613017982271</v>
+        <v>0.9105613017982256</v>
       </c>
       <c r="F14">
-        <v>0.9067720388119264</v>
+        <v>0.9067720388119254</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.00600200173105</v>
+        <v>1.006002001731049</v>
       </c>
       <c r="J14">
-        <v>0.9322427222388193</v>
+        <v>0.9322427222388182</v>
       </c>
       <c r="K14">
-        <v>0.9519464319839892</v>
+        <v>0.9519464319839882</v>
       </c>
       <c r="L14">
-        <v>0.9274124688174898</v>
+        <v>0.9274124688174888</v>
       </c>
       <c r="M14">
-        <v>0.923715446595828</v>
+        <v>0.923715446595827</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9002182501387991</v>
+        <v>0.9002182501387995</v>
       </c>
       <c r="D15">
-        <v>0.9375155944361451</v>
+        <v>0.9375155944361455</v>
       </c>
       <c r="E15">
-        <v>0.9128160901972888</v>
+        <v>0.9128160901972898</v>
       </c>
       <c r="F15">
-        <v>0.9091126664094462</v>
+        <v>0.9091126664094469</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.006876849974355</v>
       </c>
       <c r="J15">
-        <v>0.9342432188101009</v>
+        <v>0.9342432188101014</v>
       </c>
       <c r="K15">
-        <v>0.9536414627888155</v>
+        <v>0.953641462788816</v>
       </c>
       <c r="L15">
-        <v>0.9295110266939389</v>
+        <v>0.9295110266939396</v>
       </c>
       <c r="M15">
-        <v>0.925896511926063</v>
+        <v>0.9258965119260639</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9133127665185293</v>
+        <v>0.9133127665185317</v>
       </c>
       <c r="D16">
-        <v>0.9477121293282413</v>
+        <v>0.9477121293282433</v>
       </c>
       <c r="E16">
-        <v>0.9253495133671283</v>
+        <v>0.9253495133671311</v>
       </c>
       <c r="F16">
-        <v>0.9221232291390118</v>
+        <v>0.9221232291390147</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011729823425895</v>
+        <v>1.011729823425896</v>
       </c>
       <c r="J16">
-        <v>0.9453549083726409</v>
+        <v>0.9453549083726436</v>
       </c>
       <c r="K16">
-        <v>0.963054625427946</v>
+        <v>0.9630546254279481</v>
       </c>
       <c r="L16">
-        <v>0.9411703191928322</v>
+        <v>0.9411703191928349</v>
       </c>
       <c r="M16">
-        <v>0.9380155919882425</v>
+        <v>0.938015591988245</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9210393535652501</v>
+        <v>0.9210393535652541</v>
       </c>
       <c r="D17">
-        <v>0.953735529045537</v>
+        <v>0.95373552904554</v>
       </c>
       <c r="E17">
-        <v>0.9327520844026697</v>
+        <v>0.9327520844026735</v>
       </c>
       <c r="F17">
-        <v>0.9298077715502961</v>
+        <v>0.9298077715502997</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.014587311791991</v>
+        <v>1.014587311791993</v>
       </c>
       <c r="J17">
-        <v>0.9519107503919938</v>
+        <v>0.9519107503919974</v>
       </c>
       <c r="K17">
-        <v>0.9686064676235884</v>
+        <v>0.9686064676235913</v>
       </c>
       <c r="L17">
-        <v>0.9480517474182597</v>
+        <v>0.9480517474182634</v>
       </c>
       <c r="M17">
-        <v>0.9451696419006462</v>
+        <v>0.9451696419006499</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9253922504402655</v>
+        <v>0.9253922504402651</v>
       </c>
       <c r="D18">
-        <v>0.9571308670740303</v>
+        <v>0.9571308670740297</v>
       </c>
       <c r="E18">
-        <v>0.9369246955602771</v>
+        <v>0.9369246955602769</v>
       </c>
       <c r="F18">
-        <v>0.934139433996272</v>
+        <v>0.9341394339962721</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.016194776335713</v>
       </c>
       <c r="J18">
-        <v>0.9556036156961356</v>
+        <v>0.9556036156961351</v>
       </c>
       <c r="K18">
-        <v>0.9717330150241161</v>
+        <v>0.9717330150241159</v>
       </c>
       <c r="L18">
-        <v>0.9519288986269669</v>
+        <v>0.9519288986269665</v>
       </c>
       <c r="M18">
-        <v>0.9492008579763622</v>
+        <v>0.9492008579763624</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9268521284424417</v>
+        <v>0.926852128442441</v>
       </c>
       <c r="D19">
-        <v>0.9582698909909566</v>
+        <v>0.9582698909909558</v>
       </c>
       <c r="E19">
-        <v>0.9383244684758067</v>
+        <v>0.9383244684758061</v>
       </c>
       <c r="F19">
-        <v>0.9355925868654872</v>
+        <v>0.9355925868654862</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.016733477007409</v>
       </c>
       <c r="J19">
-        <v>0.9568420349421859</v>
+        <v>0.9568420349421853</v>
       </c>
       <c r="K19">
-        <v>0.9727813782392158</v>
+        <v>0.9727813782392154</v>
       </c>
       <c r="L19">
-        <v>0.9532292680403763</v>
+        <v>0.9532292680403757</v>
       </c>
       <c r="M19">
-        <v>0.9505529795208822</v>
+        <v>0.9505529795208812</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9202267151848658</v>
+        <v>0.920226715184866</v>
       </c>
       <c r="D20">
-        <v>0.9531018069772252</v>
+        <v>0.9531018069772255</v>
       </c>
       <c r="E20">
-        <v>0.9319732821883304</v>
+        <v>0.9319732821883312</v>
       </c>
       <c r="F20">
-        <v>0.9289992933227744</v>
+        <v>0.928999293322775</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.014287020010395</v>
       </c>
       <c r="J20">
-        <v>0.9512212897902272</v>
+        <v>0.9512212897902276</v>
       </c>
       <c r="K20">
-        <v>0.9680226738533997</v>
+        <v>0.9680226738534001</v>
       </c>
       <c r="L20">
-        <v>0.947327952718778</v>
+        <v>0.9473279527187785</v>
       </c>
       <c r="M20">
-        <v>0.9444171243165415</v>
+        <v>0.944417124316542</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8967219658850016</v>
+        <v>0.8967219658850023</v>
       </c>
       <c r="D21">
-        <v>0.9347958122931408</v>
+        <v>0.9347958122931412</v>
       </c>
       <c r="E21">
-        <v>0.9094722295308604</v>
+        <v>0.9094722295308614</v>
       </c>
       <c r="F21">
-        <v>0.9056415029356194</v>
+        <v>0.9056415029356207</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.005579266001613</v>
       </c>
       <c r="J21">
-        <v>0.9312763199992459</v>
+        <v>0.9312763199992466</v>
       </c>
       <c r="K21">
-        <v>0.9511275657763522</v>
+        <v>0.9511275657763527</v>
       </c>
       <c r="L21">
-        <v>0.9263987495739624</v>
+        <v>0.9263987495739634</v>
       </c>
       <c r="M21">
-        <v>0.9226618965059684</v>
+        <v>0.9226618965059695</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8800039982933066</v>
+        <v>0.8800039982933053</v>
       </c>
       <c r="D22">
-        <v>0.9218088752188298</v>
+        <v>0.9218088752188287</v>
       </c>
       <c r="E22">
-        <v>0.8934988449779853</v>
+        <v>0.893498844977984</v>
       </c>
       <c r="F22">
-        <v>0.8890595041970387</v>
+        <v>0.8890595041970377</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9993667970023192</v>
+        <v>0.9993667970023188</v>
       </c>
       <c r="J22">
-        <v>0.9170912695932553</v>
+        <v>0.9170912695932544</v>
       </c>
       <c r="K22">
-        <v>0.9391065569938025</v>
+        <v>0.9391065569938016</v>
       </c>
       <c r="L22">
-        <v>0.9115230060306919</v>
+        <v>0.9115230060306908</v>
       </c>
       <c r="M22">
-        <v>0.9072033016709888</v>
+        <v>0.9072033016709877</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8890857806595273</v>
+        <v>0.8890857806595257</v>
       </c>
       <c r="D23">
-        <v>0.9288599742937874</v>
+        <v>0.9288599742937858</v>
       </c>
       <c r="E23">
-        <v>0.9021728728085335</v>
+        <v>0.902172872808532</v>
       </c>
       <c r="F23">
-        <v>0.8980641618421138</v>
+        <v>0.8980641618421118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.002743066608797</v>
+        <v>1.002743066608796</v>
       </c>
       <c r="J23">
-        <v>0.9247966363694036</v>
+        <v>0.924796636369402</v>
       </c>
       <c r="K23">
-        <v>0.9456367001066108</v>
+        <v>0.9456367001066095</v>
       </c>
       <c r="L23">
-        <v>0.9196026937121443</v>
+        <v>0.9196026937121426</v>
       </c>
       <c r="M23">
-        <v>0.9155992017573538</v>
+        <v>0.9155992017573519</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9205943819272457</v>
+        <v>0.9205943819272491</v>
       </c>
       <c r="D24">
-        <v>0.9533885195382936</v>
+        <v>0.9533885195382964</v>
       </c>
       <c r="E24">
-        <v>0.9323256332373051</v>
+        <v>0.9323256332373087</v>
       </c>
       <c r="F24">
-        <v>0.9293650702323709</v>
+        <v>0.9293650702323746</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.014422890179326</v>
+        <v>1.014422890179327</v>
       </c>
       <c r="J24">
-        <v>0.9515332280218469</v>
+        <v>0.9515332280218503</v>
       </c>
       <c r="K24">
-        <v>0.9682868068269347</v>
+        <v>0.9682868068269377</v>
       </c>
       <c r="L24">
-        <v>0.947655422231605</v>
+        <v>0.9476554222316083</v>
       </c>
       <c r="M24">
-        <v>0.9447575875890505</v>
+        <v>0.9447575875890539</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9511692470650627</v>
+        <v>0.9511692470650648</v>
       </c>
       <c r="D25">
-        <v>0.9772601973493749</v>
+        <v>0.9772601973493763</v>
       </c>
       <c r="E25">
-        <v>0.9616662914166294</v>
+        <v>0.9616662914166311</v>
       </c>
       <c r="F25">
-        <v>0.959827217945841</v>
+        <v>0.9598272179458427</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.025670228704653</v>
       </c>
       <c r="J25">
-        <v>0.9774596239022568</v>
+        <v>0.9774596239022589</v>
       </c>
       <c r="K25">
-        <v>0.9902220841186405</v>
+        <v>0.9902220841186422</v>
       </c>
       <c r="L25">
-        <v>0.9748903421574404</v>
+        <v>0.9748903421574422</v>
       </c>
       <c r="M25">
-        <v>0.973082913327299</v>
+        <v>0.9730829133273007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9723653530185659</v>
+        <v>0.9759310296104641</v>
       </c>
       <c r="D2">
-        <v>0.9938301491726002</v>
+        <v>0.99655892245005</v>
       </c>
       <c r="E2">
-        <v>0.9820507230355777</v>
+        <v>0.9855767263728107</v>
       </c>
       <c r="F2">
-        <v>0.9809979135626692</v>
+        <v>0.9843693518278394</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033387977141548</v>
+        <v>1.034771989161464</v>
       </c>
       <c r="J2">
-        <v>0.9954052424730113</v>
+        <v>0.9988562701947515</v>
       </c>
       <c r="K2">
-        <v>1.005376114358319</v>
+        <v>1.008066406037822</v>
       </c>
       <c r="L2">
-        <v>0.9937659161502145</v>
+        <v>0.9972407259586221</v>
       </c>
       <c r="M2">
-        <v>0.9927284827974308</v>
+        <v>0.9960508287637985</v>
+      </c>
+      <c r="N2">
+        <v>1.000274760668844</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9863934296522358</v>
+        <v>0.9898975793099561</v>
       </c>
       <c r="D3">
-        <v>1.004797994472784</v>
+        <v>1.007481911574542</v>
       </c>
       <c r="E3">
-        <v>0.995560599253559</v>
+        <v>0.9990303557387969</v>
       </c>
       <c r="F3">
-        <v>0.9950340627611177</v>
+        <v>0.9983441318302534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038446687005478</v>
+        <v>1.039809862881244</v>
       </c>
       <c r="J3">
-        <v>1.007262023829266</v>
+        <v>1.010667487125582</v>
       </c>
       <c r="K3">
-        <v>1.015369849970853</v>
+        <v>1.018019946727965</v>
       </c>
       <c r="L3">
-        <v>1.00625059996681</v>
+        <v>1.009675658397244</v>
       </c>
       <c r="M3">
-        <v>1.005730880508573</v>
+        <v>1.008998243735519</v>
+      </c>
+      <c r="N3">
+        <v>1.012102750882482</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9949520656849156</v>
+        <v>0.998422909305523</v>
       </c>
       <c r="D4">
-        <v>1.011487775376263</v>
+        <v>1.014147518074506</v>
       </c>
       <c r="E4">
-        <v>1.003810364391262</v>
+        <v>1.007249752911767</v>
       </c>
       <c r="F4">
-        <v>1.003607827227796</v>
+        <v>1.006884548815899</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041509603584321</v>
+        <v>1.042861686211654</v>
       </c>
       <c r="J4">
-        <v>1.014485785545117</v>
+        <v>1.017867043440239</v>
       </c>
       <c r="K4">
-        <v>1.021449502377869</v>
+        <v>1.024078141761718</v>
       </c>
       <c r="L4">
-        <v>1.013863018186014</v>
+        <v>1.017261460239986</v>
       </c>
       <c r="M4">
-        <v>1.013662903111236</v>
+        <v>1.016900587507503</v>
+      </c>
+      <c r="N4">
+        <v>1.019312531392906</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9984392935832942</v>
+        <v>1.001897426960125</v>
       </c>
       <c r="D5">
-        <v>1.014212808897262</v>
+        <v>1.016863353732591</v>
       </c>
       <c r="E5">
-        <v>1.007173314199178</v>
+        <v>1.010601132452766</v>
       </c>
       <c r="F5">
-        <v>1.007103514106549</v>
+        <v>1.010367480426527</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042751864913904</v>
+        <v>1.044099760072073</v>
       </c>
       <c r="J5">
-        <v>1.017426572227471</v>
+        <v>1.020798700710915</v>
       </c>
       <c r="K5">
-        <v>1.023922294958419</v>
+        <v>1.02654281872373</v>
       </c>
       <c r="L5">
-        <v>1.016963479748116</v>
+        <v>1.020351838556859</v>
       </c>
       <c r="M5">
-        <v>1.016894486609144</v>
+        <v>1.020120865727041</v>
+      </c>
+      <c r="N5">
+        <v>1.022248351953172</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.999018658547097</v>
+        <v>1.002474727078988</v>
       </c>
       <c r="D6">
-        <v>1.014665492951268</v>
+        <v>1.017314545233897</v>
       </c>
       <c r="E6">
-        <v>1.007732119657536</v>
+        <v>1.011158059363337</v>
       </c>
       <c r="F6">
-        <v>1.007684415574423</v>
+        <v>1.010946308032923</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042957913023483</v>
+        <v>1.044305130672725</v>
       </c>
       <c r="J6">
-        <v>1.017914999231184</v>
+        <v>1.021285650933838</v>
       </c>
       <c r="K6">
-        <v>1.024332861368359</v>
+        <v>1.026952071062145</v>
       </c>
       <c r="L6">
-        <v>1.017478511986161</v>
+        <v>1.020865237078177</v>
       </c>
       <c r="M6">
-        <v>1.017431356266142</v>
+        <v>1.020655900027583</v>
+      </c>
+      <c r="N6">
+        <v>1.022735993701265</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9949990818434374</v>
+        <v>0.998469750855026</v>
       </c>
       <c r="D7">
-        <v>1.011524518588923</v>
+        <v>1.014184134815024</v>
       </c>
       <c r="E7">
-        <v>1.003855698942935</v>
+        <v>1.00729492843895</v>
       </c>
       <c r="F7">
-        <v>1.003654948486215</v>
+        <v>1.006931494964602</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041526375157525</v>
+        <v>1.042878400069298</v>
       </c>
       <c r="J7">
-        <v>1.01452544463065</v>
+        <v>1.017906576671361</v>
       </c>
       <c r="K7">
-        <v>1.02148285909479</v>
+        <v>1.024111386689983</v>
       </c>
       <c r="L7">
-        <v>1.013904824856006</v>
+        <v>1.017303128088946</v>
       </c>
       <c r="M7">
-        <v>1.013706474040829</v>
+        <v>1.016944003043643</v>
+      </c>
+      <c r="N7">
+        <v>1.019352120765751</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9772223887304717</v>
+        <v>0.9807657405615771</v>
       </c>
       <c r="D8">
-        <v>0.9976277993653515</v>
+        <v>1.000340273024581</v>
       </c>
       <c r="E8">
-        <v>0.9867266489495303</v>
+        <v>0.9902322244503771</v>
       </c>
       <c r="F8">
-        <v>0.9858554430923909</v>
+        <v>0.9892046443614146</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03514446278339</v>
+        <v>1.036520872023104</v>
       </c>
       <c r="J8">
-        <v>0.9995126049029681</v>
+        <v>1.002946990594837</v>
       </c>
       <c r="K8">
-        <v>1.00883999978838</v>
+        <v>1.011515637067592</v>
       </c>
       <c r="L8">
-        <v>0.9980894695471945</v>
+        <v>1.001546152525982</v>
       </c>
       <c r="M8">
-        <v>0.9972304825954647</v>
+        <v>1.000532858870274</v>
+      </c>
+      <c r="N8">
+        <v>1.004371290361109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9411558419320967</v>
+        <v>0.9448945587120359</v>
       </c>
       <c r="D9">
-        <v>0.9694367453280114</v>
+        <v>0.9722923755637218</v>
       </c>
       <c r="E9">
-        <v>0.9520486612149826</v>
+        <v>0.9557334992792997</v>
       </c>
       <c r="F9">
-        <v>0.9498409940762421</v>
+        <v>0.9533839526113057</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021999263966552</v>
+        <v>1.023443229844197</v>
       </c>
       <c r="J9">
-        <v>0.968972509729808</v>
+        <v>0.9725554306203723</v>
       </c>
       <c r="K9">
-        <v>0.9830459495965262</v>
+        <v>0.9858515768103705</v>
       </c>
       <c r="L9">
-        <v>0.9659707730517604</v>
+        <v>0.9695880630474404</v>
       </c>
       <c r="M9">
-        <v>0.96380390282416</v>
+        <v>0.9672815081754603</v>
+      </c>
+      <c r="N9">
+        <v>0.9739365708855203</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9124173069690736</v>
+        <v>0.916371868449093</v>
       </c>
       <c r="D10">
-        <v>0.9470143656056388</v>
+        <v>0.9500287568870612</v>
       </c>
       <c r="E10">
-        <v>0.9244919400907945</v>
+        <v>0.9283756272196914</v>
       </c>
       <c r="F10">
-        <v>0.9212330019164645</v>
+        <v>0.9249885807915422</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011398343166397</v>
+        <v>1.012918411621954</v>
       </c>
       <c r="J10">
-        <v>0.9445950782457677</v>
+        <v>0.9483468601940633</v>
       </c>
       <c r="K10">
-        <v>0.962411059047266</v>
+        <v>0.9653629386447365</v>
       </c>
       <c r="L10">
-        <v>0.9403728780026781</v>
+        <v>0.9441708348644287</v>
       </c>
       <c r="M10">
-        <v>0.9371866223791872</v>
+        <v>0.9408585022069069</v>
+      </c>
+      <c r="N10">
+        <v>0.9496936215124441</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8983134363435767</v>
+        <v>0.9023999655886928</v>
       </c>
       <c r="D11">
-        <v>0.9360336759387378</v>
+        <v>0.9391452007222433</v>
       </c>
       <c r="E11">
-        <v>0.9109941799358982</v>
+        <v>0.9149996610164859</v>
       </c>
       <c r="F11">
-        <v>0.9072213970794082</v>
+        <v>0.9111065170261495</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.006169995954595</v>
+        <v>1.007736934559236</v>
       </c>
       <c r="J11">
-        <v>0.9326268145016416</v>
+        <v>0.9364832217477909</v>
       </c>
       <c r="K11">
-        <v>0.9522718816578624</v>
+        <v>0.9553138513348817</v>
       </c>
       <c r="L11">
-        <v>0.9278153768243036</v>
+        <v>0.931724721437013</v>
       </c>
       <c r="M11">
-        <v>0.9241341900178514</v>
+        <v>0.9279250022063141</v>
+      </c>
+      <c r="N11">
+        <v>0.9378131353387996</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8927511366726334</v>
+        <v>0.8968954445018994</v>
       </c>
       <c r="D12">
-        <v>0.9317083923409019</v>
+        <v>0.9348624440869002</v>
       </c>
       <c r="E12">
-        <v>0.9056758747866069</v>
+        <v>0.9097347147619707</v>
       </c>
       <c r="F12">
-        <v>0.9017005905947569</v>
+        <v>0.9056423453421505</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004104782340651</v>
+        <v>1.00569229111948</v>
       </c>
       <c r="J12">
-        <v>0.9279068087212097</v>
+        <v>0.9318092576630247</v>
       </c>
       <c r="K12">
-        <v>0.9482723314735442</v>
+        <v>0.9513538483200112</v>
       </c>
       <c r="L12">
-        <v>0.9228645317059525</v>
+        <v>0.9268228003039686</v>
       </c>
       <c r="M12">
-        <v>0.9189889337479132</v>
+        <v>0.9228318381285578</v>
+      </c>
+      <c r="N12">
+        <v>0.9331325336889221</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8939604910990753</v>
+        <v>0.8980919379636083</v>
       </c>
       <c r="D13">
-        <v>0.932648521418292</v>
+        <v>0.9357931072941726</v>
       </c>
       <c r="E13">
-        <v>0.9068319368210571</v>
+        <v>0.9108788980586603</v>
       </c>
       <c r="F13">
-        <v>0.9029006771948184</v>
+        <v>0.9068298294103978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004553933534613</v>
+        <v>1.006136861453932</v>
       </c>
       <c r="J13">
-        <v>0.9289330136407445</v>
+        <v>0.9328252033173989</v>
       </c>
       <c r="K13">
-        <v>0.9491419303178888</v>
+        <v>0.9522146397320083</v>
       </c>
       <c r="L13">
-        <v>0.9239408548802333</v>
+        <v>0.9278882262928347</v>
       </c>
       <c r="M13">
-        <v>0.9201074913564925</v>
+        <v>0.9239387996419018</v>
+      </c>
+      <c r="N13">
+        <v>0.934149922102656</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8978608097709556</v>
+        <v>0.9019519117021823</v>
       </c>
       <c r="D14">
-        <v>0.9356815918941126</v>
+        <v>0.9387964824064511</v>
       </c>
       <c r="E14">
-        <v>0.9105613017982256</v>
+        <v>0.9145710051062591</v>
       </c>
       <c r="F14">
-        <v>0.9067720388119254</v>
+        <v>0.9106616425788826</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.006002001731049</v>
+        <v>1.007570567353527</v>
       </c>
       <c r="J14">
-        <v>0.9322427222388182</v>
+        <v>0.93610276860791</v>
       </c>
       <c r="K14">
-        <v>0.9519464319839882</v>
+        <v>0.9549915294725596</v>
       </c>
       <c r="L14">
-        <v>0.9274124688174888</v>
+        <v>0.931325682240866</v>
       </c>
       <c r="M14">
-        <v>0.923715446595827</v>
+        <v>0.9275103810561249</v>
+      </c>
+      <c r="N14">
+        <v>0.9374321419118214</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9002182501387995</v>
+        <v>0.9042857781624228</v>
       </c>
       <c r="D15">
-        <v>0.9375155944361455</v>
+        <v>0.9406131332738413</v>
       </c>
       <c r="E15">
-        <v>0.9128160901972898</v>
+        <v>0.9168040276763743</v>
       </c>
       <c r="F15">
-        <v>0.9091126664094469</v>
+        <v>0.9129791512168716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.006876849974355</v>
+        <v>1.008437029581433</v>
       </c>
       <c r="J15">
-        <v>0.9342432188101014</v>
+        <v>0.9380845132509064</v>
       </c>
       <c r="K15">
-        <v>0.953641462788816</v>
+        <v>0.9566704392099752</v>
       </c>
       <c r="L15">
-        <v>0.9295110266939396</v>
+        <v>0.93340430100273</v>
       </c>
       <c r="M15">
-        <v>0.9258965119260639</v>
+        <v>0.9296701953119515</v>
+      </c>
+      <c r="N15">
+        <v>0.9394167008595203</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9133127665185317</v>
+        <v>0.9172595936777526</v>
       </c>
       <c r="D16">
-        <v>0.9477121293282433</v>
+        <v>0.9507208283650131</v>
       </c>
       <c r="E16">
-        <v>0.9253495133671311</v>
+        <v>0.929226066517415</v>
       </c>
       <c r="F16">
-        <v>0.9221232291390147</v>
+        <v>0.9258712068241995</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011729823425896</v>
+        <v>1.01324715096792</v>
       </c>
       <c r="J16">
-        <v>0.9453549083726436</v>
+        <v>0.9491005852820149</v>
       </c>
       <c r="K16">
-        <v>0.9630546254279481</v>
+        <v>0.9660012373908939</v>
       </c>
       <c r="L16">
-        <v>0.9411703191928349</v>
+        <v>0.9449617657730066</v>
       </c>
       <c r="M16">
-        <v>0.938015591988245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9416805040981198</v>
+      </c>
+      <c r="N16">
+        <v>0.9504484169764741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9210393535652541</v>
+        <v>0.9249223522136877</v>
       </c>
       <c r="D17">
-        <v>0.95373552904554</v>
+        <v>0.9566972577063729</v>
       </c>
       <c r="E17">
-        <v>0.9327520844026735</v>
+        <v>0.936569784341142</v>
       </c>
       <c r="F17">
-        <v>0.9298077715502997</v>
+        <v>0.9334929751692701</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.014587311791993</v>
+        <v>1.016082051855285</v>
       </c>
       <c r="J17">
-        <v>0.9519107503919974</v>
+        <v>0.9556061782865578</v>
       </c>
       <c r="K17">
-        <v>0.9686064676235913</v>
+        <v>0.9715096718273695</v>
       </c>
       <c r="L17">
-        <v>0.9480517474182634</v>
+        <v>0.9517895565772955</v>
       </c>
       <c r="M17">
-        <v>0.9451696419006499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9487770664041398</v>
+      </c>
+      <c r="N17">
+        <v>0.9569632486692853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9253922504402651</v>
+        <v>0.9292414702857472</v>
       </c>
       <c r="D18">
-        <v>0.9571308670740297</v>
+        <v>0.960067744275938</v>
       </c>
       <c r="E18">
-        <v>0.9369246955602769</v>
+        <v>0.9407112664713465</v>
       </c>
       <c r="F18">
-        <v>0.9341394339962721</v>
+        <v>0.9377913822435031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016194776335713</v>
+        <v>1.017677589429357</v>
       </c>
       <c r="J18">
-        <v>0.9556036156961351</v>
+        <v>0.9592725571378857</v>
       </c>
       <c r="K18">
-        <v>0.9717330150241159</v>
+        <v>0.9746132993150219</v>
       </c>
       <c r="L18">
-        <v>0.9519288986269665</v>
+        <v>0.9556383933471633</v>
       </c>
       <c r="M18">
-        <v>0.9492008579763624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9527778713584519</v>
+      </c>
+      <c r="N18">
+        <v>0.9606348341991215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.926852128442441</v>
+        <v>0.9306903531040284</v>
       </c>
       <c r="D19">
-        <v>0.9582698909909558</v>
+        <v>0.9611986800957905</v>
       </c>
       <c r="E19">
-        <v>0.9383244684758061</v>
+        <v>0.942100909521876</v>
       </c>
       <c r="F19">
-        <v>0.9355925868654862</v>
+        <v>0.939233704685251</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.016733477007409</v>
+        <v>1.018212412362649</v>
       </c>
       <c r="J19">
-        <v>0.9568420349421853</v>
+        <v>0.9605023723545322</v>
       </c>
       <c r="K19">
-        <v>0.9727813782392154</v>
+        <v>0.9756542107416727</v>
       </c>
       <c r="L19">
-        <v>0.9532292680403757</v>
+        <v>0.9569295580003371</v>
       </c>
       <c r="M19">
-        <v>0.9505529795208812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9541200959916837</v>
+      </c>
+      <c r="N19">
+        <v>0.9618663958944376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.920226715184866</v>
+        <v>0.9241161892654223</v>
       </c>
       <c r="D20">
-        <v>0.9531018069772255</v>
+        <v>0.9560683002316861</v>
       </c>
       <c r="E20">
-        <v>0.9319732821883312</v>
+        <v>0.9357969509997733</v>
       </c>
       <c r="F20">
-        <v>0.928999293322775</v>
+        <v>0.9326908691748922</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.014287020010395</v>
+        <v>1.015784048741781</v>
       </c>
       <c r="J20">
-        <v>0.9512212897902276</v>
+        <v>0.9549218039739901</v>
       </c>
       <c r="K20">
-        <v>0.9680226738534001</v>
+        <v>0.9709302762032541</v>
       </c>
       <c r="L20">
-        <v>0.9473279527187785</v>
+        <v>0.9510711957059331</v>
       </c>
       <c r="M20">
-        <v>0.944417124316542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9480303796868452</v>
+      </c>
+      <c r="N20">
+        <v>0.9562779024666951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8967219658850023</v>
+        <v>0.9008246723518013</v>
       </c>
       <c r="D21">
-        <v>0.9347958122931412</v>
+        <v>0.9379192442844118</v>
       </c>
       <c r="E21">
-        <v>0.9094722295308614</v>
+        <v>0.913492648524314</v>
       </c>
       <c r="F21">
-        <v>0.9056415029356207</v>
+        <v>0.9095424844064728</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005579266001613</v>
+        <v>1.007151961415267</v>
       </c>
       <c r="J21">
-        <v>0.9312763199992466</v>
+        <v>0.9351456054362558</v>
       </c>
       <c r="K21">
-        <v>0.9511275657763527</v>
+        <v>0.9541806026177995</v>
       </c>
       <c r="L21">
-        <v>0.9263987495739634</v>
+        <v>0.9303217837132618</v>
       </c>
       <c r="M21">
-        <v>0.9226618965059695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9264672927554845</v>
+      </c>
+      <c r="N21">
+        <v>0.9364736194586754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8800039982933053</v>
+        <v>0.8842948530938016</v>
       </c>
       <c r="D22">
-        <v>0.9218088752188287</v>
+        <v>0.9250707722566628</v>
       </c>
       <c r="E22">
-        <v>0.893498844977984</v>
+        <v>0.8976930928623866</v>
       </c>
       <c r="F22">
-        <v>0.8890595041970377</v>
+        <v>0.8931447224494642</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9993667970023188</v>
+        <v>1.001006573878137</v>
       </c>
       <c r="J22">
-        <v>0.9170912695932544</v>
+        <v>0.9211110024100259</v>
       </c>
       <c r="K22">
-        <v>0.9391065569938016</v>
+        <v>0.94228858866168</v>
       </c>
       <c r="L22">
-        <v>0.9115230060306908</v>
+        <v>0.9156056974136153</v>
       </c>
       <c r="M22">
-        <v>0.9072033016709877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9111783674762773</v>
+      </c>
+      <c r="N22">
+        <v>0.9224190856863568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1282,81 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8890857806595257</v>
+        <v>0.8932701250958466</v>
       </c>
       <c r="D23">
-        <v>0.9288599742937858</v>
+        <v>0.9320434924570998</v>
       </c>
       <c r="E23">
-        <v>0.902172872808532</v>
+        <v>0.9062686969279407</v>
       </c>
       <c r="F23">
-        <v>0.8980641618421118</v>
+        <v>0.9020451353832653</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.002743066608796</v>
+        <v>1.004344842827927</v>
       </c>
       <c r="J23">
-        <v>0.924796636369402</v>
+        <v>0.9287310598391255</v>
       </c>
       <c r="K23">
-        <v>0.9456367001066095</v>
+        <v>0.9487456502727736</v>
       </c>
       <c r="L23">
-        <v>0.9196026937121426</v>
+        <v>0.9235949101440684</v>
       </c>
       <c r="M23">
-        <v>0.9155992017573519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9194782079739613</v>
+      </c>
+      <c r="N23">
+        <v>0.9300499644710386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9205943819272491</v>
+        <v>0.9244809195676668</v>
       </c>
       <c r="D24">
-        <v>0.9533885195382964</v>
+        <v>0.9563528521540938</v>
       </c>
       <c r="E24">
-        <v>0.9323256332373087</v>
+        <v>0.9361465952661384</v>
       </c>
       <c r="F24">
-        <v>0.9293650702323746</v>
+        <v>0.9330537565529534</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.014422890179327</v>
+        <v>1.015918880973575</v>
       </c>
       <c r="J24">
-        <v>0.9515332280218503</v>
+        <v>0.9552314353664743</v>
       </c>
       <c r="K24">
-        <v>0.9682868068269377</v>
+        <v>0.9711924145648085</v>
       </c>
       <c r="L24">
-        <v>0.9476554222316083</v>
+        <v>0.9513962008911352</v>
       </c>
       <c r="M24">
-        <v>0.9447575875890539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9483681987741147</v>
+      </c>
+      <c r="N24">
+        <v>0.9565879735712719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9511692470650648</v>
+        <v>0.9548463955505599</v>
       </c>
       <c r="D25">
-        <v>0.9772601973493763</v>
+        <v>0.980070617271069</v>
       </c>
       <c r="E25">
-        <v>0.9616662914166311</v>
+        <v>0.9652945338875596</v>
       </c>
       <c r="F25">
-        <v>0.9598272179458427</v>
+        <v>0.963309291059211</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025670228704653</v>
+        <v>1.027092703498415</v>
       </c>
       <c r="J25">
-        <v>0.9774596239022589</v>
+        <v>0.9809951367033115</v>
       </c>
       <c r="K25">
-        <v>0.9902220841186422</v>
+        <v>0.992986395877139</v>
       </c>
       <c r="L25">
-        <v>0.9748903421574422</v>
+        <v>0.9784566105854242</v>
       </c>
       <c r="M25">
-        <v>0.9730829133273007</v>
+        <v>0.9765052029901997</v>
+      </c>
+      <c r="N25">
+        <v>0.982388262319145</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9759310296104641</v>
+        <v>1.008564790483996</v>
       </c>
       <c r="D2">
-        <v>0.99655892245005</v>
+        <v>1.025416031677653</v>
       </c>
       <c r="E2">
-        <v>0.9855767263728107</v>
+        <v>1.016683627987442</v>
       </c>
       <c r="F2">
-        <v>0.9843693518278394</v>
+        <v>1.026303654728955</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034771989161464</v>
+        <v>1.042971814320981</v>
       </c>
       <c r="J2">
-        <v>0.9988562701947515</v>
+        <v>1.030492313447124</v>
       </c>
       <c r="K2">
-        <v>1.008066406037822</v>
+        <v>1.036532282190189</v>
       </c>
       <c r="L2">
-        <v>0.9972407259586221</v>
+        <v>1.027915325289573</v>
       </c>
       <c r="M2">
-        <v>0.9960508287637985</v>
+        <v>1.037408308209637</v>
       </c>
       <c r="N2">
-        <v>1.000274760668844</v>
+        <v>1.031955730731339</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9898975793099561</v>
+        <v>1.019966919861404</v>
       </c>
       <c r="D3">
-        <v>1.007481911574542</v>
+        <v>1.034664880419313</v>
       </c>
       <c r="E3">
-        <v>0.9990303557387969</v>
+        <v>1.027553799368789</v>
       </c>
       <c r="F3">
-        <v>0.9983441318302534</v>
+        <v>1.036635786271422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039809862881244</v>
+        <v>1.046994354005942</v>
       </c>
       <c r="J3">
-        <v>1.010667487125582</v>
+        <v>1.039927680310743</v>
       </c>
       <c r="K3">
-        <v>1.018019946727965</v>
+        <v>1.044872627933711</v>
       </c>
       <c r="L3">
-        <v>1.009675658397244</v>
+        <v>1.037845856792852</v>
       </c>
       <c r="M3">
-        <v>1.008998243735519</v>
+        <v>1.046820419777541</v>
       </c>
       <c r="N3">
-        <v>1.012102750882482</v>
+        <v>1.041404496898157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.998422909305523</v>
+        <v>1.027026357607002</v>
       </c>
       <c r="D4">
-        <v>1.014147518074506</v>
+        <v>1.040392934759678</v>
       </c>
       <c r="E4">
-        <v>1.007249752911767</v>
+        <v>1.034290225827133</v>
       </c>
       <c r="F4">
-        <v>1.006884548815899</v>
+        <v>1.043040078212433</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042861686211654</v>
+        <v>1.049468005452647</v>
       </c>
       <c r="J4">
-        <v>1.017867043440239</v>
+        <v>1.04576311214779</v>
       </c>
       <c r="K4">
-        <v>1.024078141761718</v>
+        <v>1.050027120694323</v>
       </c>
       <c r="L4">
-        <v>1.017261460239986</v>
+        <v>1.043991689506125</v>
       </c>
       <c r="M4">
-        <v>1.016900587507503</v>
+        <v>1.0526453818454</v>
       </c>
       <c r="N4">
-        <v>1.019312531392906</v>
+        <v>1.047248215717745</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001897426960125</v>
+        <v>1.029924180112942</v>
       </c>
       <c r="D5">
-        <v>1.016863353732591</v>
+        <v>1.042744461393108</v>
       </c>
       <c r="E5">
-        <v>1.010601132452766</v>
+        <v>1.037056853522227</v>
       </c>
       <c r="F5">
-        <v>1.010367480426527</v>
+        <v>1.04567053522032</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044099760072073</v>
+        <v>1.050479246825752</v>
       </c>
       <c r="J5">
-        <v>1.020798700710915</v>
+        <v>1.048156870539031</v>
       </c>
       <c r="K5">
-        <v>1.02654281872373</v>
+        <v>1.052140610760935</v>
       </c>
       <c r="L5">
-        <v>1.020351838556859</v>
+        <v>1.046513777919373</v>
       </c>
       <c r="M5">
-        <v>1.020120865727041</v>
+        <v>1.055035732979197</v>
       </c>
       <c r="N5">
-        <v>1.022248351953172</v>
+        <v>1.04964537352047</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002474727078988</v>
+        <v>1.030406801908981</v>
       </c>
       <c r="D6">
-        <v>1.017314545233897</v>
+        <v>1.043136107157514</v>
       </c>
       <c r="E6">
-        <v>1.011158059363337</v>
+        <v>1.037517704236709</v>
       </c>
       <c r="F6">
-        <v>1.010946308032923</v>
+        <v>1.046108715166925</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044305130672725</v>
+        <v>1.050647416811788</v>
       </c>
       <c r="J6">
-        <v>1.021285650933838</v>
+        <v>1.048555443891392</v>
       </c>
       <c r="K6">
-        <v>1.026952071062145</v>
+        <v>1.052492461303476</v>
       </c>
       <c r="L6">
-        <v>1.020865237078177</v>
+        <v>1.046933777828474</v>
       </c>
       <c r="M6">
-        <v>1.020655900027583</v>
+        <v>1.055433789869941</v>
       </c>
       <c r="N6">
-        <v>1.022735993701265</v>
+        <v>1.050044512892708</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.998469750855026</v>
+        <v>1.027065345676931</v>
       </c>
       <c r="D7">
-        <v>1.014184134815024</v>
+        <v>1.040424572192269</v>
       </c>
       <c r="E7">
-        <v>1.00729492843895</v>
+        <v>1.034327443372938</v>
       </c>
       <c r="F7">
-        <v>1.006931494964602</v>
+        <v>1.043075463104939</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042878400069298</v>
+        <v>1.049481627651776</v>
       </c>
       <c r="J7">
-        <v>1.017906576671361</v>
+        <v>1.045795324979999</v>
       </c>
       <c r="K7">
-        <v>1.024111386689983</v>
+        <v>1.050055565745365</v>
       </c>
       <c r="L7">
-        <v>1.017303128088946</v>
+        <v>1.044025625303172</v>
       </c>
       <c r="M7">
-        <v>1.016944003043643</v>
+        <v>1.052677545365865</v>
       </c>
       <c r="N7">
-        <v>1.019352120765751</v>
+        <v>1.047280474295871</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9807657405615771</v>
+        <v>1.012488203667761</v>
       </c>
       <c r="D8">
-        <v>1.000340273024581</v>
+        <v>1.028597995852782</v>
       </c>
       <c r="E8">
-        <v>0.9902322244503771</v>
+        <v>1.020422563758306</v>
       </c>
       <c r="F8">
-        <v>0.9892046443614146</v>
+        <v>1.029857198281616</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036520872023104</v>
+        <v>1.044359454116828</v>
       </c>
       <c r="J8">
-        <v>1.002946990594837</v>
+        <v>1.033740249114214</v>
       </c>
       <c r="K8">
-        <v>1.011515637067592</v>
+        <v>1.039404036753399</v>
       </c>
       <c r="L8">
-        <v>1.001546152525982</v>
+        <v>1.03133282572711</v>
       </c>
       <c r="M8">
-        <v>1.000532858870274</v>
+        <v>1.04064737022815</v>
       </c>
       <c r="N8">
-        <v>1.004371290361109</v>
+        <v>1.035208278839621</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9448945587120359</v>
+        <v>0.9840251420947683</v>
       </c>
       <c r="D9">
-        <v>0.9722923755637218</v>
+        <v>1.00553239249873</v>
       </c>
       <c r="E9">
-        <v>0.9557334992792997</v>
+        <v>0.9933324646946501</v>
       </c>
       <c r="F9">
-        <v>0.9533839526113057</v>
+        <v>1.004120003614132</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023443229844197</v>
+        <v>1.034223866353686</v>
       </c>
       <c r="J9">
-        <v>0.9725554306203723</v>
+        <v>1.010154905571311</v>
       </c>
       <c r="K9">
-        <v>0.9858515768103705</v>
+        <v>1.018536343697868</v>
       </c>
       <c r="L9">
-        <v>0.9695880630474404</v>
+        <v>1.006534652286855</v>
       </c>
       <c r="M9">
-        <v>0.9672815081754603</v>
+        <v>1.017146588435561</v>
       </c>
       <c r="N9">
-        <v>0.9739365708855203</v>
+        <v>1.01158944140361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.916371868449093</v>
+        <v>0.962597024254551</v>
       </c>
       <c r="D10">
-        <v>0.9500287568870612</v>
+        <v>0.9882070812743292</v>
       </c>
       <c r="E10">
-        <v>0.9283756272196914</v>
+        <v>0.9729924238682335</v>
       </c>
       <c r="F10">
-        <v>0.9249885807915422</v>
+        <v>0.9848140333897227</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012918411621954</v>
+        <v>1.026512718323419</v>
       </c>
       <c r="J10">
-        <v>0.9483468601940633</v>
+        <v>0.9923774466344374</v>
       </c>
       <c r="K10">
-        <v>0.9653629386447365</v>
+        <v>1.002792575796847</v>
       </c>
       <c r="L10">
-        <v>0.9441708348644287</v>
+        <v>0.9878670523960406</v>
       </c>
       <c r="M10">
-        <v>0.9408585022069069</v>
+        <v>0.9994629973405904</v>
       </c>
       <c r="N10">
-        <v>0.9496936215124441</v>
+        <v>0.9937867364359425</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9023999655886928</v>
+        <v>0.9525586855703263</v>
       </c>
       <c r="D11">
-        <v>0.9391452007222433</v>
+        <v>0.9801063927375815</v>
       </c>
       <c r="E11">
-        <v>0.9149996610164859</v>
+        <v>0.9634806011414933</v>
       </c>
       <c r="F11">
-        <v>0.9111065170261495</v>
+        <v>0.975792473001096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.007736934559236</v>
+        <v>1.02288465386031</v>
       </c>
       <c r="J11">
-        <v>0.9364832217477909</v>
+        <v>0.9840475056598145</v>
       </c>
       <c r="K11">
-        <v>0.9553138513348817</v>
+        <v>0.9954134843808708</v>
       </c>
       <c r="L11">
-        <v>0.931724721437013</v>
+        <v>0.979125723140888</v>
       </c>
       <c r="M11">
-        <v>0.9279250022063141</v>
+        <v>0.9911858173970032</v>
       </c>
       <c r="N11">
-        <v>0.9378131353387996</v>
+        <v>0.985444965989678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8968954445018994</v>
+        <v>0.9486956864900767</v>
       </c>
       <c r="D12">
-        <v>0.9348624440869002</v>
+        <v>0.9769920822998498</v>
       </c>
       <c r="E12">
-        <v>0.9097347147619707</v>
+        <v>0.9598231585317459</v>
       </c>
       <c r="F12">
-        <v>0.9056423453421505</v>
+        <v>0.9723248070578192</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.00569229111948</v>
+        <v>1.021486527668972</v>
       </c>
       <c r="J12">
-        <v>0.9318092576630247</v>
+        <v>0.980842038304885</v>
       </c>
       <c r="K12">
-        <v>0.9513538483200112</v>
+        <v>0.9925737635278463</v>
       </c>
       <c r="L12">
-        <v>0.9268228003039686</v>
+        <v>0.9757628009601023</v>
       </c>
       <c r="M12">
-        <v>0.9228318381285578</v>
+        <v>0.9880021466031048</v>
       </c>
       <c r="N12">
-        <v>0.9331325336889221</v>
+        <v>0.9822349465034325</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8980919379636083</v>
+        <v>0.9495307739796004</v>
       </c>
       <c r="D13">
-        <v>0.9357931072941726</v>
+        <v>0.9776651720652531</v>
       </c>
       <c r="E13">
-        <v>0.9108788980586603</v>
+        <v>0.9606136695728931</v>
       </c>
       <c r="F13">
-        <v>0.9068298294103978</v>
+        <v>0.9730742385449758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.006136861453932</v>
+        <v>1.021788849736594</v>
       </c>
       <c r="J13">
-        <v>0.9328252033173989</v>
+        <v>0.981534971890229</v>
       </c>
       <c r="K13">
-        <v>0.9522146397320083</v>
+        <v>0.9931876367274519</v>
       </c>
       <c r="L13">
-        <v>0.9278882262928347</v>
+        <v>0.9764897336481935</v>
       </c>
       <c r="M13">
-        <v>0.9239387996419018</v>
+        <v>0.9886902979184459</v>
       </c>
       <c r="N13">
-        <v>0.934149922102656</v>
+        <v>0.9829288641339478</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9019519117021823</v>
+        <v>0.9522422447377452</v>
       </c>
       <c r="D14">
-        <v>0.9387964824064511</v>
+        <v>0.979851215714349</v>
       </c>
       <c r="E14">
-        <v>0.9145710051062591</v>
+        <v>0.9631809366214976</v>
       </c>
       <c r="F14">
-        <v>0.9106616425788826</v>
+        <v>0.9755083302399813</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.007570567353527</v>
+        <v>1.022770162066439</v>
       </c>
       <c r="J14">
-        <v>0.93610276860791</v>
+        <v>0.9837849226633646</v>
       </c>
       <c r="K14">
-        <v>0.9549915294725596</v>
+        <v>0.9951808643568978</v>
       </c>
       <c r="L14">
-        <v>0.931325682240866</v>
+        <v>0.9788502247218315</v>
       </c>
       <c r="M14">
-        <v>0.9275103810561249</v>
+        <v>0.9909249886586545</v>
       </c>
       <c r="N14">
-        <v>0.9374321419118214</v>
+        <v>0.9851820100952543</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9042857781624228</v>
+        <v>0.9538943793013348</v>
       </c>
       <c r="D15">
-        <v>0.9406131332738413</v>
+        <v>0.9811836193873823</v>
       </c>
       <c r="E15">
-        <v>0.9168040276763743</v>
+        <v>0.9647456035886726</v>
       </c>
       <c r="F15">
-        <v>0.9129791512168716</v>
+        <v>0.9769920046458338</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.008437029581433</v>
+        <v>1.023367846179952</v>
       </c>
       <c r="J15">
-        <v>0.9380845132509064</v>
+        <v>0.9851558723731911</v>
       </c>
       <c r="K15">
-        <v>0.9566704392099752</v>
+        <v>0.9963953718232618</v>
       </c>
       <c r="L15">
-        <v>0.93340430100273</v>
+        <v>0.9802886404229297</v>
       </c>
       <c r="M15">
-        <v>0.9296701953119515</v>
+        <v>0.9922868407669667</v>
       </c>
       <c r="N15">
-        <v>0.9394167008595203</v>
+        <v>0.9865549067109193</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9172595936777526</v>
+        <v>0.9632456230032229</v>
       </c>
       <c r="D16">
-        <v>0.9507208283650131</v>
+        <v>0.9887308560488445</v>
       </c>
       <c r="E16">
-        <v>0.929226066517415</v>
+        <v>0.9736073779638066</v>
       </c>
       <c r="F16">
-        <v>0.9258712068241995</v>
+        <v>0.9853974477653709</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01324715096792</v>
+        <v>1.026746846954475</v>
       </c>
       <c r="J16">
-        <v>0.9491005852820149</v>
+        <v>0.9929156538908994</v>
       </c>
       <c r="K16">
-        <v>0.9660012373908939</v>
+        <v>1.003269317652955</v>
       </c>
       <c r="L16">
-        <v>0.9449617657730066</v>
+        <v>0.9884319558672637</v>
       </c>
       <c r="M16">
-        <v>0.9416805040981198</v>
+        <v>0.999997988140602</v>
       </c>
       <c r="N16">
-        <v>0.9504484169764741</v>
+        <v>0.994325708008442</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9249223522136877</v>
+        <v>0.9688953035420396</v>
       </c>
       <c r="D17">
-        <v>0.9566972577063729</v>
+        <v>0.9932950389492358</v>
       </c>
       <c r="E17">
-        <v>0.936569784341142</v>
+        <v>0.9789658906444527</v>
       </c>
       <c r="F17">
-        <v>0.9334929751692701</v>
+        <v>0.9904818984275772</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016082051855285</v>
+        <v>1.028784550828682</v>
       </c>
       <c r="J17">
-        <v>0.9556061782865578</v>
+        <v>0.9976035925906219</v>
       </c>
       <c r="K17">
-        <v>0.9715096718273695</v>
+        <v>1.007421660715618</v>
       </c>
       <c r="L17">
-        <v>0.9517895565772955</v>
+        <v>0.9933530570264258</v>
       </c>
       <c r="M17">
-        <v>0.9487770664041398</v>
+        <v>1.004658898309568</v>
       </c>
       <c r="N17">
-        <v>0.9569632486692853</v>
+        <v>0.9990203041188321</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9292414702857472</v>
+        <v>0.9721189515962387</v>
       </c>
       <c r="D18">
-        <v>0.960067744275938</v>
+        <v>0.995900700390329</v>
       </c>
       <c r="E18">
-        <v>0.9407112664713465</v>
+        <v>0.9820249147168036</v>
       </c>
       <c r="F18">
-        <v>0.9377913822435031</v>
+        <v>0.9933850650601859</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017677589429357</v>
+        <v>1.029945775009509</v>
       </c>
       <c r="J18">
-        <v>0.9592725571378857</v>
+        <v>1.000278287273631</v>
       </c>
       <c r="K18">
-        <v>0.9746132993150219</v>
+        <v>1.009790570248657</v>
       </c>
       <c r="L18">
-        <v>0.9556383933471633</v>
+        <v>0.9961613067805759</v>
       </c>
       <c r="M18">
-        <v>0.9527778713584519</v>
+        <v>1.007318966236926</v>
       </c>
       <c r="N18">
-        <v>0.9606348341991215</v>
+        <v>1.001698797175083</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9306903531040284</v>
+        <v>0.9732064991956673</v>
       </c>
       <c r="D19">
-        <v>0.9611986800957905</v>
+        <v>0.9967799784905603</v>
       </c>
       <c r="E19">
-        <v>0.942100909521876</v>
+        <v>0.983057169979669</v>
       </c>
       <c r="F19">
-        <v>0.939233704685251</v>
+        <v>0.9943648215674785</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018212412362649</v>
+        <v>1.030337272877519</v>
       </c>
       <c r="J19">
-        <v>0.9605023723545322</v>
+        <v>1.001180594759569</v>
       </c>
       <c r="K19">
-        <v>0.9756542107416727</v>
+        <v>1.010589682889382</v>
       </c>
       <c r="L19">
-        <v>0.9569295580003371</v>
+        <v>0.9971087581316322</v>
       </c>
       <c r="M19">
-        <v>0.9541200959916837</v>
+        <v>1.008216469700675</v>
       </c>
       <c r="N19">
-        <v>0.9618663958944376</v>
+        <v>1.002602386041147</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241161892654223</v>
+        <v>0.9682966933996653</v>
       </c>
       <c r="D20">
-        <v>0.9560683002316861</v>
+        <v>0.9928112934382988</v>
       </c>
       <c r="E20">
-        <v>0.9357969509997733</v>
+        <v>0.9783979706496959</v>
       </c>
       <c r="F20">
-        <v>0.9326908691748922</v>
+        <v>0.9899429609447499</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015784048741781</v>
+        <v>1.028568797222609</v>
       </c>
       <c r="J20">
-        <v>0.9549218039739901</v>
+        <v>0.997106901407697</v>
       </c>
       <c r="K20">
-        <v>0.9709302762032541</v>
+        <v>1.006981736443007</v>
       </c>
       <c r="L20">
-        <v>0.9510711957059331</v>
+        <v>0.9928316073743154</v>
       </c>
       <c r="M20">
-        <v>0.9480303796868452</v>
+        <v>1.004164986878215</v>
       </c>
       <c r="N20">
-        <v>0.9562779024666951</v>
+        <v>0.9985229075774561</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9008246723518013</v>
+        <v>0.9514476808933363</v>
       </c>
       <c r="D21">
-        <v>0.9379192442844118</v>
+        <v>0.9792105327713035</v>
       </c>
       <c r="E21">
-        <v>0.913492648524314</v>
+        <v>0.962428545746026</v>
       </c>
       <c r="F21">
-        <v>0.9095424844064728</v>
+        <v>0.9747949322578604</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.007151961415267</v>
+        <v>1.02248265023461</v>
       </c>
       <c r="J21">
-        <v>0.9351456054362558</v>
+        <v>0.9831255955924859</v>
       </c>
       <c r="K21">
-        <v>0.9541806026177995</v>
+        <v>0.9945967703246159</v>
       </c>
       <c r="L21">
-        <v>0.9303217837132618</v>
+        <v>0.9781584815828291</v>
       </c>
       <c r="M21">
-        <v>0.9264672927554845</v>
+        <v>0.9902700909773209</v>
       </c>
       <c r="N21">
-        <v>0.9364736194586754</v>
+        <v>0.9845217467043095</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8842948530938016</v>
+        <v>0.9400625698173218</v>
       </c>
       <c r="D22">
-        <v>0.9250707722566628</v>
+        <v>0.9700387157418158</v>
       </c>
       <c r="E22">
-        <v>0.8976930928623866</v>
+        <v>0.9516554542536071</v>
       </c>
       <c r="F22">
-        <v>0.8931447224494642</v>
+        <v>0.9645836043837202</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.001006573878137</v>
+        <v>1.018358852759007</v>
       </c>
       <c r="J22">
-        <v>0.9211110024100259</v>
+        <v>0.9736790751501916</v>
       </c>
       <c r="K22">
-        <v>0.94228858866168</v>
+        <v>0.9862280307875123</v>
       </c>
       <c r="L22">
-        <v>0.9156056974136153</v>
+        <v>0.9682495668005802</v>
       </c>
       <c r="M22">
-        <v>0.9111783674762773</v>
+        <v>0.9808909021732601</v>
       </c>
       <c r="N22">
-        <v>0.9224190856863568</v>
+        <v>0.9750618111194559</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8932701250958466</v>
+        <v>0.9461813154354227</v>
       </c>
       <c r="D23">
-        <v>0.9320434924570998</v>
+        <v>0.9749659788255809</v>
       </c>
       <c r="E23">
-        <v>0.9062686969279407</v>
+        <v>0.9574434723785522</v>
       </c>
       <c r="F23">
-        <v>0.9020451353832653</v>
+        <v>0.9700689921681626</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.004344842827927</v>
+        <v>1.020576012681996</v>
       </c>
       <c r="J23">
-        <v>0.9287310598391255</v>
+        <v>0.9787557280316527</v>
       </c>
       <c r="K23">
-        <v>0.9487456502727736</v>
+        <v>0.9907254833404495</v>
       </c>
       <c r="L23">
-        <v>0.9235949101440684</v>
+        <v>0.9735742495268424</v>
       </c>
       <c r="M23">
-        <v>0.9194782079739613</v>
+        <v>0.9859304699220632</v>
       </c>
       <c r="N23">
-        <v>0.9300499644710386</v>
+        <v>0.9801456734303088</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244809195676668</v>
+        <v>0.9685673997097822</v>
       </c>
       <c r="D24">
-        <v>0.9563528521540938</v>
+        <v>0.9930300508442962</v>
       </c>
       <c r="E24">
-        <v>0.9361465952661384</v>
+        <v>0.9786547934257583</v>
       </c>
       <c r="F24">
-        <v>0.9330537565529534</v>
+        <v>0.9901866755086161</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015918880973575</v>
+        <v>1.028666370945329</v>
       </c>
       <c r="J24">
-        <v>0.9552314353664743</v>
+        <v>0.9973315180737047</v>
       </c>
       <c r="K24">
-        <v>0.9711924145648085</v>
+        <v>1.007180682277671</v>
       </c>
       <c r="L24">
-        <v>0.9513962008911352</v>
+        <v>0.9930674188271336</v>
       </c>
       <c r="M24">
-        <v>0.9483681987741147</v>
+        <v>1.004388344003191</v>
       </c>
       <c r="N24">
-        <v>0.9565879735712719</v>
+        <v>0.9987478432248934</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9548463955505599</v>
+        <v>0.9917656964711066</v>
       </c>
       <c r="D25">
-        <v>0.980070617271069</v>
+        <v>1.011800223832668</v>
       </c>
       <c r="E25">
-        <v>0.9652945338875596</v>
+        <v>1.000691618163813</v>
       </c>
       <c r="F25">
-        <v>0.963309291059211</v>
+        <v>1.011109217017005</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027092703498415</v>
+        <v>1.036994579294137</v>
       </c>
       <c r="J25">
-        <v>0.9809951367033115</v>
+        <v>1.016573391399139</v>
       </c>
       <c r="K25">
-        <v>0.992986395877139</v>
+        <v>1.024218077227487</v>
       </c>
       <c r="L25">
-        <v>0.9784566105854242</v>
+        <v>1.013279207130369</v>
       </c>
       <c r="M25">
-        <v>0.9765052029901997</v>
+        <v>1.023537490198727</v>
       </c>
       <c r="N25">
-        <v>0.982388262319145</v>
+        <v>1.018017042217524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008564790483996</v>
+        <v>0.997638945726654</v>
       </c>
       <c r="D2">
-        <v>1.025416031677653</v>
+        <v>1.019865407409877</v>
       </c>
       <c r="E2">
-        <v>1.016683627987442</v>
+        <v>1.005830513319727</v>
       </c>
       <c r="F2">
-        <v>1.026303654728955</v>
+        <v>1.019448361006781</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042971814320981</v>
+        <v>1.046598229364678</v>
       </c>
       <c r="J2">
-        <v>1.030492313447124</v>
+        <v>1.019890505585813</v>
       </c>
       <c r="K2">
-        <v>1.036532282190189</v>
+        <v>1.03105475270964</v>
       </c>
       <c r="L2">
-        <v>1.027915325289573</v>
+        <v>1.017209213097643</v>
       </c>
       <c r="M2">
-        <v>1.037408308209637</v>
+        <v>1.030643238630326</v>
       </c>
       <c r="N2">
-        <v>1.031955730731339</v>
+        <v>1.008709353592372</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019966919861404</v>
+        <v>1.00570136964449</v>
       </c>
       <c r="D3">
-        <v>1.034664880419313</v>
+        <v>1.02631966145274</v>
       </c>
       <c r="E3">
-        <v>1.027553799368789</v>
+        <v>1.013364907928772</v>
       </c>
       <c r="F3">
-        <v>1.036635786271422</v>
+        <v>1.026807956845701</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046994354005942</v>
+        <v>1.049380859330467</v>
       </c>
       <c r="J3">
-        <v>1.039927680310743</v>
+        <v>1.026037807101181</v>
       </c>
       <c r="K3">
-        <v>1.044872627933711</v>
+        <v>1.036626498564453</v>
       </c>
       <c r="L3">
-        <v>1.037845856792852</v>
+        <v>1.023829591204361</v>
       </c>
       <c r="M3">
-        <v>1.046820419777541</v>
+        <v>1.037108941000568</v>
       </c>
       <c r="N3">
-        <v>1.041404496898157</v>
+        <v>1.010954316179802</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027026357607002</v>
+        <v>1.010748798015798</v>
       </c>
       <c r="D4">
-        <v>1.040392934759678</v>
+        <v>1.030362276823593</v>
       </c>
       <c r="E4">
-        <v>1.034290225827133</v>
+        <v>1.018087780885591</v>
       </c>
       <c r="F4">
-        <v>1.043040078212433</v>
+        <v>1.031421836682438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049468005452647</v>
+        <v>1.051106712072252</v>
       </c>
       <c r="J4">
-        <v>1.04576311214779</v>
+        <v>1.029881488424671</v>
       </c>
       <c r="K4">
-        <v>1.050027120694323</v>
+        <v>1.040107562083198</v>
       </c>
       <c r="L4">
-        <v>1.043991689506125</v>
+        <v>1.027972695771941</v>
       </c>
       <c r="M4">
-        <v>1.0526453818454</v>
+        <v>1.041155260657589</v>
       </c>
       <c r="N4">
-        <v>1.047248215717745</v>
+        <v>1.012355332491849</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029924180112942</v>
+        <v>1.012832627525051</v>
       </c>
       <c r="D5">
-        <v>1.042744461393108</v>
+        <v>1.032031615197999</v>
       </c>
       <c r="E5">
-        <v>1.037056853522227</v>
+        <v>1.020038981051354</v>
       </c>
       <c r="F5">
-        <v>1.04567053522032</v>
+        <v>1.033328110090525</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050479246825752</v>
+        <v>1.051815266402329</v>
       </c>
       <c r="J5">
-        <v>1.048156870539031</v>
+        <v>1.031467127758463</v>
       </c>
       <c r="K5">
-        <v>1.052140610760935</v>
+        <v>1.041542920737468</v>
       </c>
       <c r="L5">
-        <v>1.046513777919373</v>
+        <v>1.029682730651573</v>
       </c>
       <c r="M5">
-        <v>1.055035732979197</v>
+        <v>1.042825323368353</v>
       </c>
       <c r="N5">
-        <v>1.04964537352047</v>
+        <v>1.01293261997886</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030406801908981</v>
+        <v>1.013180344466696</v>
       </c>
       <c r="D6">
-        <v>1.043136107157514</v>
+        <v>1.032310185133235</v>
       </c>
       <c r="E6">
-        <v>1.037517704236709</v>
+        <v>1.020364644874066</v>
       </c>
       <c r="F6">
-        <v>1.046108715166925</v>
+        <v>1.033646280467663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050647416811788</v>
+        <v>1.051933263559325</v>
       </c>
       <c r="J6">
-        <v>1.048555443891392</v>
+        <v>1.031731640517747</v>
       </c>
       <c r="K6">
-        <v>1.052492461303476</v>
+        <v>1.041782322581842</v>
       </c>
       <c r="L6">
-        <v>1.046933777828474</v>
+        <v>1.029968046336094</v>
       </c>
       <c r="M6">
-        <v>1.055433789869941</v>
+        <v>1.043103967536055</v>
       </c>
       <c r="N6">
-        <v>1.050044512892708</v>
+        <v>1.01302888106848</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027065345676931</v>
+        <v>1.010776788897192</v>
       </c>
       <c r="D7">
-        <v>1.040424572192269</v>
+        <v>1.030384698876917</v>
       </c>
       <c r="E7">
-        <v>1.034327443372938</v>
+        <v>1.018113984934964</v>
       </c>
       <c r="F7">
-        <v>1.043075463104939</v>
+        <v>1.031447437018637</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049481627651776</v>
+        <v>1.051116245471132</v>
       </c>
       <c r="J7">
-        <v>1.045795324979999</v>
+        <v>1.029902792342035</v>
       </c>
       <c r="K7">
-        <v>1.050055565745365</v>
+        <v>1.040126849670015</v>
       </c>
       <c r="L7">
-        <v>1.044025625303172</v>
+        <v>1.027995667542145</v>
       </c>
       <c r="M7">
-        <v>1.052677545365865</v>
+        <v>1.041177695595656</v>
       </c>
       <c r="N7">
-        <v>1.047280474295871</v>
+        <v>1.012363091380122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012488203667761</v>
+        <v>1.000400337380111</v>
       </c>
       <c r="D8">
-        <v>1.028597995852782</v>
+        <v>1.022075499922273</v>
       </c>
       <c r="E8">
-        <v>1.020422563758306</v>
+        <v>1.008409730960734</v>
       </c>
       <c r="F8">
-        <v>1.029857198281616</v>
+        <v>1.02196759512594</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044359454116828</v>
+        <v>1.047554659574955</v>
       </c>
       <c r="J8">
-        <v>1.033740249114214</v>
+        <v>1.021996933071822</v>
       </c>
       <c r="K8">
-        <v>1.039404036753399</v>
+        <v>1.032964522037159</v>
       </c>
       <c r="L8">
-        <v>1.03133282572711</v>
+        <v>1.019476979448902</v>
       </c>
       <c r="M8">
-        <v>1.04064737022815</v>
+        <v>1.032858001172387</v>
       </c>
       <c r="N8">
-        <v>1.035208278839621</v>
+        <v>1.00947915501793</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9840251420947683</v>
+        <v>0.9806927785449787</v>
       </c>
       <c r="D9">
-        <v>1.00553239249873</v>
+        <v>1.006317010128928</v>
       </c>
       <c r="E9">
-        <v>0.9933324646946501</v>
+        <v>0.9900322675845813</v>
       </c>
       <c r="F9">
-        <v>1.004120003614132</v>
+        <v>1.004021734363206</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034223866353686</v>
+        <v>1.040661835458503</v>
       </c>
       <c r="J9">
-        <v>1.010154905571311</v>
+        <v>1.006946243384239</v>
       </c>
       <c r="K9">
-        <v>1.018536343697868</v>
+        <v>1.019308422967806</v>
       </c>
       <c r="L9">
-        <v>1.006534652286855</v>
+        <v>1.003289161320629</v>
       </c>
       <c r="M9">
-        <v>1.017146588435561</v>
+        <v>1.017049896994866</v>
       </c>
       <c r="N9">
-        <v>1.01158944140361</v>
+        <v>1.003968686856112</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.962597024254551</v>
+        <v>0.9663973438154584</v>
       </c>
       <c r="D10">
-        <v>0.9882070812743292</v>
+        <v>0.9949125562997211</v>
       </c>
       <c r="E10">
-        <v>0.9729924238682335</v>
+        <v>0.9767451370417602</v>
       </c>
       <c r="F10">
-        <v>0.9848140333897227</v>
+        <v>0.991054266583662</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026512718323419</v>
+        <v>1.035580171751104</v>
       </c>
       <c r="J10">
-        <v>0.9923774466344374</v>
+        <v>0.9960106482970196</v>
       </c>
       <c r="K10">
-        <v>1.002792575796847</v>
+        <v>1.009374277693081</v>
       </c>
       <c r="L10">
-        <v>0.9878670523960406</v>
+        <v>0.9915473546285375</v>
       </c>
       <c r="M10">
-        <v>0.9994629973405904</v>
+        <v>1.005586939573157</v>
       </c>
       <c r="N10">
-        <v>0.9937867364359425</v>
+        <v>0.9999537073233191</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9525586855703263</v>
+        <v>0.9598787255662652</v>
       </c>
       <c r="D11">
-        <v>0.9801063927375815</v>
+        <v>0.9897213357112389</v>
       </c>
       <c r="E11">
-        <v>0.9634806011414933</v>
+        <v>0.9706984890821135</v>
       </c>
       <c r="F11">
-        <v>0.975792473001096</v>
+        <v>0.9851557169175453</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02288465386031</v>
+        <v>1.033245099800707</v>
       </c>
       <c r="J11">
-        <v>0.9840475056598145</v>
+        <v>0.9910213853759582</v>
       </c>
       <c r="K11">
-        <v>0.9954134843808708</v>
+        <v>1.004839731189103</v>
       </c>
       <c r="L11">
-        <v>0.979125723140888</v>
+        <v>0.9861949842661853</v>
       </c>
       <c r="M11">
-        <v>0.9911858173970032</v>
+        <v>1.000363111318145</v>
       </c>
       <c r="N11">
-        <v>0.985444965989678</v>
+        <v>0.9981199322103981</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9486956864900767</v>
+        <v>0.9574025670946996</v>
       </c>
       <c r="D12">
-        <v>0.9769920822998498</v>
+        <v>0.9877510546578425</v>
       </c>
       <c r="E12">
-        <v>0.9598231585317459</v>
+        <v>0.9684036282588159</v>
       </c>
       <c r="F12">
-        <v>0.9723248070578192</v>
+        <v>0.9829175392635385</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021486527668972</v>
+        <v>1.032355569512736</v>
       </c>
       <c r="J12">
-        <v>0.980842038304885</v>
+        <v>0.9891259195190291</v>
       </c>
       <c r="K12">
-        <v>0.9925737635278463</v>
+        <v>1.003116748745361</v>
       </c>
       <c r="L12">
-        <v>0.9757628009601023</v>
+        <v>0.9841622765150049</v>
       </c>
       <c r="M12">
-        <v>0.9880021466031048</v>
+        <v>0.9983794968902689</v>
       </c>
       <c r="N12">
-        <v>0.9822349465034325</v>
+        <v>0.9974230319799302</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9495307739796004</v>
+        <v>0.9579362912707051</v>
       </c>
       <c r="D13">
-        <v>0.9776651720652531</v>
+        <v>0.9881756598994118</v>
       </c>
       <c r="E13">
-        <v>0.9606136695728931</v>
+        <v>0.9688981804714346</v>
       </c>
       <c r="F13">
-        <v>0.9730742385449758</v>
+        <v>0.9833998531174148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021788849736594</v>
+        <v>1.032547415038692</v>
       </c>
       <c r="J13">
-        <v>0.981534971890229</v>
+        <v>0.9895344865309421</v>
       </c>
       <c r="K13">
-        <v>0.9931876367274519</v>
+        <v>1.003488148024189</v>
       </c>
       <c r="L13">
-        <v>0.9764897336481935</v>
+        <v>0.9846003941807056</v>
       </c>
       <c r="M13">
-        <v>0.9886902979184459</v>
+        <v>0.9988070197638595</v>
       </c>
       <c r="N13">
-        <v>0.9829288641339478</v>
+        <v>0.9975732579628013</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9522422447377452</v>
+        <v>0.9596751993303473</v>
       </c>
       <c r="D14">
-        <v>0.979851215714349</v>
+        <v>0.9895593545171359</v>
       </c>
       <c r="E14">
-        <v>0.9631809366214976</v>
+        <v>0.9705098225277519</v>
       </c>
       <c r="F14">
-        <v>0.9755083302399813</v>
+        <v>0.9849717002862403</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022770162066439</v>
+        <v>1.033172035752909</v>
       </c>
       <c r="J14">
-        <v>0.9837849226633646</v>
+        <v>0.990865592808802</v>
       </c>
       <c r="K14">
-        <v>0.9951808643568978</v>
+        <v>1.004698120458907</v>
       </c>
       <c r="L14">
-        <v>0.9788502247218315</v>
+        <v>0.9860278972033806</v>
       </c>
       <c r="M14">
-        <v>0.9909249886586545</v>
+        <v>1.000200053722003</v>
       </c>
       <c r="N14">
-        <v>0.9851820100952543</v>
+        <v>0.998062656739926</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9538943793013348</v>
+        <v>0.9607391506506183</v>
       </c>
       <c r="D15">
-        <v>0.9811836193873823</v>
+        <v>0.9904061943122733</v>
       </c>
       <c r="E15">
-        <v>0.9647456035886726</v>
+        <v>0.9714961764894927</v>
       </c>
       <c r="F15">
-        <v>0.9769920046458338</v>
+        <v>0.9859337641555228</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023367846179952</v>
+        <v>1.033553882739328</v>
       </c>
       <c r="J15">
-        <v>0.9851558723731911</v>
+        <v>0.9916800031357565</v>
       </c>
       <c r="K15">
-        <v>0.9963953718232618</v>
+        <v>1.005438384334869</v>
       </c>
       <c r="L15">
-        <v>0.9802886404229297</v>
+        <v>0.9869013784710654</v>
       </c>
       <c r="M15">
-        <v>0.9922868407669667</v>
+        <v>1.001052481723163</v>
       </c>
       <c r="N15">
-        <v>0.9865549067109193</v>
+        <v>0.9983620569472421</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9632456230032229</v>
+        <v>0.9668225907104439</v>
       </c>
       <c r="D16">
-        <v>0.9887308560488445</v>
+        <v>0.9952514204696697</v>
       </c>
       <c r="E16">
-        <v>0.9736073779638066</v>
+        <v>0.9771398608893543</v>
       </c>
       <c r="F16">
-        <v>0.9853974477653709</v>
+        <v>0.9914393834083924</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026746846954475</v>
+        <v>1.035732145719975</v>
       </c>
       <c r="J16">
-        <v>0.9929156538908994</v>
+        <v>0.9963360835629033</v>
       </c>
       <c r="K16">
-        <v>1.003269317652955</v>
+        <v>1.009670012972928</v>
       </c>
       <c r="L16">
-        <v>0.9884319558672637</v>
+        <v>0.9918965714169941</v>
       </c>
       <c r="M16">
-        <v>0.999997988140602</v>
+        <v>1.005927804054445</v>
       </c>
       <c r="N16">
-        <v>0.994325708008442</v>
+        <v>1.000073283650107</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9688953035420396</v>
+        <v>0.970546981666759</v>
       </c>
       <c r="D17">
-        <v>0.9932950389492358</v>
+        <v>0.9982203112598725</v>
       </c>
       <c r="E17">
-        <v>0.9789658906444527</v>
+        <v>0.980598314493597</v>
       </c>
       <c r="F17">
-        <v>0.9904818984275772</v>
+        <v>0.9948139672401614</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028784550828682</v>
+        <v>1.037061170390684</v>
       </c>
       <c r="J17">
-        <v>0.9976035925906219</v>
+        <v>0.9991860183056702</v>
       </c>
       <c r="K17">
-        <v>1.007421660715618</v>
+        <v>1.012259616988401</v>
       </c>
       <c r="L17">
-        <v>0.9933530570264258</v>
+        <v>0.9949552978805677</v>
       </c>
       <c r="M17">
-        <v>1.004658898309568</v>
+        <v>1.008913541541907</v>
       </c>
       <c r="N17">
-        <v>0.9990203041188321</v>
+        <v>1.001120234389088</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9721189515962387</v>
+        <v>0.9726880628251597</v>
       </c>
       <c r="D18">
-        <v>0.995900700390329</v>
+        <v>0.9999279038201661</v>
       </c>
       <c r="E18">
-        <v>0.9820249147168036</v>
+        <v>0.9825876403509807</v>
       </c>
       <c r="F18">
-        <v>0.9933850650601859</v>
+        <v>0.9967552908947904</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029945775009509</v>
+        <v>1.037823519476931</v>
       </c>
       <c r="J18">
-        <v>1.000278287273631</v>
+        <v>1.00082412676631</v>
       </c>
       <c r="K18">
-        <v>1.009790570248657</v>
+        <v>1.013747881854115</v>
       </c>
       <c r="L18">
-        <v>0.9961613067805759</v>
+        <v>0.9967138587115855</v>
       </c>
       <c r="M18">
-        <v>1.007318966236926</v>
+        <v>1.010630268280709</v>
       </c>
       <c r="N18">
-        <v>1.001698797175083</v>
+        <v>1.001721819734682</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9732064991956673</v>
+        <v>0.9734129614165092</v>
       </c>
       <c r="D19">
-        <v>0.9967799784905603</v>
+        <v>1.000506171433802</v>
       </c>
       <c r="E19">
-        <v>0.983057169979669</v>
+        <v>0.983261345828053</v>
       </c>
       <c r="F19">
-        <v>0.9943648215674785</v>
+        <v>0.9974127784746343</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030337272877519</v>
+        <v>1.038081335930668</v>
       </c>
       <c r="J19">
-        <v>1.001180594759569</v>
+        <v>1.001378686374923</v>
       </c>
       <c r="K19">
-        <v>1.010589682889382</v>
+        <v>1.01425167686535</v>
       </c>
       <c r="L19">
-        <v>0.9971087581316322</v>
+        <v>0.997309270814571</v>
       </c>
       <c r="M19">
-        <v>1.008216469700675</v>
+        <v>1.011211536556005</v>
       </c>
       <c r="N19">
-        <v>1.002602386041147</v>
+        <v>1.001925444445961</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9682966933996653</v>
+        <v>0.9701506635019765</v>
       </c>
       <c r="D20">
-        <v>0.9928112934382988</v>
+        <v>0.9979042984191734</v>
       </c>
       <c r="E20">
-        <v>0.9783979706496959</v>
+        <v>0.9802301766943295</v>
       </c>
       <c r="F20">
-        <v>0.9899429609447499</v>
+        <v>0.9944547315027437</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028568797222609</v>
+        <v>1.036919920740485</v>
       </c>
       <c r="J20">
-        <v>0.997106901407697</v>
+        <v>0.9988827788313611</v>
       </c>
       <c r="K20">
-        <v>1.006981736443007</v>
+        <v>1.011984098582341</v>
       </c>
       <c r="L20">
-        <v>0.9928316073743154</v>
+        <v>0.9946297966065062</v>
       </c>
       <c r="M20">
-        <v>1.004164986878215</v>
+        <v>1.008595793668045</v>
       </c>
       <c r="N20">
-        <v>0.9985229075774561</v>
+        <v>1.001008855745185</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9514476808933363</v>
+        <v>0.9591646968589824</v>
       </c>
       <c r="D21">
-        <v>0.9792105327713035</v>
+        <v>0.9891530865621482</v>
       </c>
       <c r="E21">
-        <v>0.962428545746026</v>
+        <v>0.9700366254653429</v>
       </c>
       <c r="F21">
-        <v>0.9747949322578604</v>
+        <v>0.9845101737013129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02248265023461</v>
+        <v>1.032988729951247</v>
       </c>
       <c r="J21">
-        <v>0.9831255955924859</v>
+        <v>0.9904748167459629</v>
       </c>
       <c r="K21">
-        <v>0.9945967703246159</v>
+        <v>1.004342912764182</v>
       </c>
       <c r="L21">
-        <v>0.9781584815828291</v>
+        <v>0.9856088023724506</v>
       </c>
       <c r="M21">
-        <v>0.9902700909773209</v>
+        <v>0.9997910704244349</v>
       </c>
       <c r="N21">
-        <v>0.9845217467043095</v>
+        <v>0.9979189885974052</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9400625698173218</v>
+        <v>0.9519366312093338</v>
       </c>
       <c r="D22">
-        <v>0.9700387157418158</v>
+        <v>0.9834052066965541</v>
       </c>
       <c r="E22">
-        <v>0.9516554542536071</v>
+        <v>0.9633418450175597</v>
       </c>
       <c r="F22">
-        <v>0.9645836043837202</v>
+        <v>0.9779817620998497</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018358852759007</v>
+        <v>1.030387507926955</v>
       </c>
       <c r="J22">
-        <v>0.9736790751501916</v>
+        <v>0.9849415596272026</v>
       </c>
       <c r="K22">
-        <v>0.9862280307875123</v>
+        <v>0.999312736986832</v>
       </c>
       <c r="L22">
-        <v>0.9682495668005802</v>
+        <v>0.9796762475827417</v>
       </c>
       <c r="M22">
-        <v>0.9808909021732601</v>
+        <v>0.9940023980779056</v>
       </c>
       <c r="N22">
-        <v>0.9750618111194559</v>
+        <v>0.9958842293355916</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9461813154354227</v>
+        <v>0.9558008375607886</v>
       </c>
       <c r="D23">
-        <v>0.9749659788255809</v>
+        <v>0.9864770619410739</v>
       </c>
       <c r="E23">
-        <v>0.9574434723785522</v>
+        <v>0.9669197665606225</v>
       </c>
       <c r="F23">
-        <v>0.9700689921681626</v>
+        <v>0.9814704744024599</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020576012681996</v>
+        <v>1.031779474561057</v>
       </c>
       <c r="J23">
-        <v>0.9787557280316527</v>
+        <v>0.987899769380028</v>
       </c>
       <c r="K23">
-        <v>0.9907254833404495</v>
+        <v>1.002002108568702</v>
       </c>
       <c r="L23">
-        <v>0.9735742495268424</v>
+        <v>0.9828475451803617</v>
       </c>
       <c r="M23">
-        <v>0.9859304699220632</v>
+        <v>0.9970966046941243</v>
       </c>
       <c r="N23">
-        <v>0.9801456734303088</v>
+        <v>0.9969721601842517</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9685673997097822</v>
+        <v>0.9703298389214832</v>
       </c>
       <c r="D24">
-        <v>0.9930300508442962</v>
+        <v>0.9980471652335655</v>
       </c>
       <c r="E24">
-        <v>0.9786547934257583</v>
+        <v>0.9803966082814701</v>
       </c>
       <c r="F24">
-        <v>0.9901866755086161</v>
+        <v>0.9946171378116971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028666370945329</v>
+        <v>1.036983784939269</v>
       </c>
       <c r="J24">
-        <v>0.9973315180737047</v>
+        <v>0.9990198742142677</v>
       </c>
       <c r="K24">
-        <v>1.007180682277671</v>
+        <v>1.012108661848682</v>
       </c>
       <c r="L24">
-        <v>0.9930674188271336</v>
+        <v>0.9947769552363738</v>
       </c>
       <c r="M24">
-        <v>1.004388344003191</v>
+        <v>1.008739446598867</v>
       </c>
       <c r="N24">
-        <v>0.9987478432248934</v>
+        <v>1.001059210923758</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9917656964711066</v>
+        <v>0.9859753014254824</v>
       </c>
       <c r="D25">
-        <v>1.011800223832668</v>
+        <v>1.010537363711667</v>
       </c>
       <c r="E25">
-        <v>1.000691618163813</v>
+        <v>0.9949514454734567</v>
       </c>
       <c r="F25">
-        <v>1.011109217017005</v>
+        <v>1.00882433172578</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036994579294137</v>
+        <v>1.042523715644609</v>
       </c>
       <c r="J25">
-        <v>1.016573391399139</v>
+        <v>1.010984049661977</v>
       </c>
       <c r="K25">
-        <v>1.024218077227487</v>
+        <v>1.022974273674403</v>
       </c>
       <c r="L25">
-        <v>1.013279207130369</v>
+        <v>1.007628642590808</v>
       </c>
       <c r="M25">
-        <v>1.023537490198727</v>
+        <v>1.021287188528713</v>
       </c>
       <c r="N25">
-        <v>1.018017042217524</v>
+        <v>1.005449123967068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.997638945726654</v>
+        <v>1.044539588753954</v>
       </c>
       <c r="D2">
-        <v>1.019865407409877</v>
+        <v>1.050253013928409</v>
       </c>
       <c r="E2">
-        <v>1.005830513319727</v>
+        <v>1.048203787235186</v>
       </c>
       <c r="F2">
-        <v>1.019448361006781</v>
+        <v>1.057995675739932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046598229364678</v>
+        <v>1.039531495334753</v>
       </c>
       <c r="J2">
-        <v>1.019890505585813</v>
+        <v>1.049604130714789</v>
       </c>
       <c r="K2">
-        <v>1.03105475270964</v>
+        <v>1.053007805597117</v>
       </c>
       <c r="L2">
-        <v>1.017209213097643</v>
+        <v>1.050964286196767</v>
       </c>
       <c r="M2">
-        <v>1.030643238630326</v>
+        <v>1.060729119545004</v>
       </c>
       <c r="N2">
-        <v>1.008709353592372</v>
+        <v>1.020145131673962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00570136964449</v>
+        <v>1.046100966506257</v>
       </c>
       <c r="D3">
-        <v>1.02631966145274</v>
+        <v>1.051505264049348</v>
       </c>
       <c r="E3">
-        <v>1.013364907928772</v>
+        <v>1.049715425970514</v>
       </c>
       <c r="F3">
-        <v>1.026807956845701</v>
+        <v>1.05946515882987</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049380859330467</v>
+        <v>1.039945920172026</v>
       </c>
       <c r="J3">
-        <v>1.026037807101181</v>
+        <v>1.050809779199649</v>
       </c>
       <c r="K3">
-        <v>1.036626498564453</v>
+        <v>1.054071331433928</v>
       </c>
       <c r="L3">
-        <v>1.023829591204361</v>
+        <v>1.052286112823378</v>
       </c>
       <c r="M3">
-        <v>1.037108941000568</v>
+        <v>1.06201088600449</v>
       </c>
       <c r="N3">
-        <v>1.010954316179802</v>
+        <v>1.020568724389414</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010748798015798</v>
+        <v>1.047109321428878</v>
       </c>
       <c r="D4">
-        <v>1.030362276823593</v>
+        <v>1.052313610395426</v>
       </c>
       <c r="E4">
-        <v>1.018087780885591</v>
+        <v>1.050691973350411</v>
       </c>
       <c r="F4">
-        <v>1.031421836682438</v>
+        <v>1.060414398154055</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051106712072252</v>
+        <v>1.040211526267952</v>
       </c>
       <c r="J4">
-        <v>1.029881488424671</v>
+        <v>1.051587598333353</v>
       </c>
       <c r="K4">
-        <v>1.040107562083198</v>
+        <v>1.054757007822976</v>
       </c>
       <c r="L4">
-        <v>1.027972695771941</v>
+        <v>1.0531393426588</v>
       </c>
       <c r="M4">
-        <v>1.041155260657589</v>
+        <v>1.062838149795622</v>
       </c>
       <c r="N4">
-        <v>1.012355332491849</v>
+        <v>1.020841451451857</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012832627525051</v>
+        <v>1.04753277412096</v>
       </c>
       <c r="D5">
-        <v>1.032031615197999</v>
+        <v>1.052652980788161</v>
       </c>
       <c r="E5">
-        <v>1.020038981051354</v>
+        <v>1.051102143319062</v>
       </c>
       <c r="F5">
-        <v>1.033328110090525</v>
+        <v>1.060813079879312</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051815266402329</v>
+        <v>1.040322578430404</v>
       </c>
       <c r="J5">
-        <v>1.031467127758463</v>
+        <v>1.05191404640866</v>
       </c>
       <c r="K5">
-        <v>1.041542920737468</v>
+        <v>1.055044674982014</v>
       </c>
       <c r="L5">
-        <v>1.029682730651573</v>
+        <v>1.053497550325911</v>
       </c>
       <c r="M5">
-        <v>1.042825323368353</v>
+        <v>1.063185430159601</v>
       </c>
       <c r="N5">
-        <v>1.01293261997886</v>
+        <v>1.020955781566558</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013180344466696</v>
+        <v>1.047603847014526</v>
       </c>
       <c r="D6">
-        <v>1.032310185133235</v>
+        <v>1.052709935885507</v>
       </c>
       <c r="E6">
-        <v>1.020364644874066</v>
+        <v>1.051170991182768</v>
       </c>
       <c r="F6">
-        <v>1.033646280467663</v>
+        <v>1.060879998332781</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051933263559325</v>
+        <v>1.040341188970159</v>
       </c>
       <c r="J6">
-        <v>1.031731640517747</v>
+        <v>1.051968826608854</v>
       </c>
       <c r="K6">
-        <v>1.041782322581842</v>
+        <v>1.055092941079095</v>
       </c>
       <c r="L6">
-        <v>1.029968046336094</v>
+        <v>1.053557666454705</v>
       </c>
       <c r="M6">
-        <v>1.043103967536055</v>
+        <v>1.063243710874946</v>
       </c>
       <c r="N6">
-        <v>1.01302888106848</v>
+        <v>1.020974959152141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010776788897192</v>
+        <v>1.04711498141885</v>
       </c>
       <c r="D7">
-        <v>1.030384698876917</v>
+        <v>1.052318146872097</v>
       </c>
       <c r="E7">
-        <v>1.018113984934964</v>
+        <v>1.050697455506933</v>
       </c>
       <c r="F7">
-        <v>1.031447437018637</v>
+        <v>1.060419726836076</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051116245471132</v>
+        <v>1.040213012540363</v>
       </c>
       <c r="J7">
-        <v>1.029902792342035</v>
+        <v>1.051591962489105</v>
       </c>
       <c r="K7">
-        <v>1.040126849670015</v>
+        <v>1.054760853960834</v>
       </c>
       <c r="L7">
-        <v>1.027995667542145</v>
+        <v>1.053144130963428</v>
       </c>
       <c r="M7">
-        <v>1.041177695595656</v>
+        <v>1.062842792133689</v>
       </c>
       <c r="N7">
-        <v>1.012363091380122</v>
+        <v>1.020842980407648</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000400337380111</v>
+        <v>1.045067675562221</v>
       </c>
       <c r="D8">
-        <v>1.022075499922273</v>
+        <v>1.050676624184095</v>
       </c>
       <c r="E8">
-        <v>1.008409730960734</v>
+        <v>1.048714985819223</v>
       </c>
       <c r="F8">
-        <v>1.02196759512594</v>
+        <v>1.058492633571165</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047554659574955</v>
+        <v>1.039672082831048</v>
       </c>
       <c r="J8">
-        <v>1.021996933071822</v>
+        <v>1.050012069277105</v>
       </c>
       <c r="K8">
-        <v>1.032964522037159</v>
+        <v>1.053367749764966</v>
       </c>
       <c r="L8">
-        <v>1.019476979448902</v>
+        <v>1.051411439216589</v>
       </c>
       <c r="M8">
-        <v>1.032858001172387</v>
+        <v>1.061162742919995</v>
       </c>
       <c r="N8">
-        <v>1.00947915501793</v>
+        <v>1.020288571185299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9806927785449787</v>
+        <v>1.041444605585405</v>
       </c>
       <c r="D9">
-        <v>1.006317010128928</v>
+        <v>1.047768862295522</v>
       </c>
       <c r="E9">
-        <v>0.9900322675845813</v>
+        <v>1.045209100231216</v>
       </c>
       <c r="F9">
-        <v>1.004021734363206</v>
+        <v>1.055084122421749</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040661835458503</v>
+        <v>1.038699199823196</v>
       </c>
       <c r="J9">
-        <v>1.006946243384239</v>
+        <v>1.047210025093734</v>
       </c>
       <c r="K9">
-        <v>1.019308422967806</v>
+        <v>1.050893520501972</v>
       </c>
       <c r="L9">
-        <v>1.003289161320629</v>
+        <v>1.048341926517304</v>
       </c>
       <c r="M9">
-        <v>1.017049896994866</v>
+        <v>1.058185676811884</v>
       </c>
       <c r="N9">
-        <v>1.003968686856112</v>
+        <v>1.019301053341025</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9663973438154584</v>
+        <v>1.039018220121151</v>
       </c>
       <c r="D10">
-        <v>0.9949125562997211</v>
+        <v>1.045819710376649</v>
       </c>
       <c r="E10">
-        <v>0.9767451370417602</v>
+        <v>1.042862877743305</v>
       </c>
       <c r="F10">
-        <v>0.991054266583662</v>
+        <v>1.05280271653045</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035580171751104</v>
+        <v>1.038037183017026</v>
       </c>
       <c r="J10">
-        <v>0.9960106482970196</v>
+        <v>1.045329378886133</v>
       </c>
       <c r="K10">
-        <v>1.009374277693081</v>
+        <v>1.049230587297231</v>
       </c>
       <c r="L10">
-        <v>0.9915473546285375</v>
+        <v>1.046284133941128</v>
       </c>
       <c r="M10">
-        <v>1.005586939573157</v>
+        <v>1.056189335954531</v>
       </c>
       <c r="N10">
-        <v>0.9999537073233191</v>
+        <v>1.018635430165579</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9598787255662652</v>
+        <v>1.037964820721998</v>
       </c>
       <c r="D11">
-        <v>0.9897213357112389</v>
+        <v>1.044973084492009</v>
       </c>
       <c r="E11">
-        <v>0.9706984890821135</v>
+        <v>1.041844688488678</v>
       </c>
       <c r="F11">
-        <v>0.9851557169175453</v>
+        <v>1.051812578439176</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033245099800707</v>
+        <v>1.037747295489037</v>
       </c>
       <c r="J11">
-        <v>0.9910213853759582</v>
+        <v>1.044511941080483</v>
       </c>
       <c r="K11">
-        <v>1.004839731189103</v>
+        <v>1.048507238997456</v>
       </c>
       <c r="L11">
-        <v>0.9861949842661853</v>
+        <v>1.045390259191386</v>
       </c>
       <c r="M11">
-        <v>1.000363111318145</v>
+        <v>1.055322035248509</v>
       </c>
       <c r="N11">
-        <v>0.9981199322103981</v>
+        <v>1.018345444525067</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9574025670946996</v>
+        <v>1.037573114935938</v>
       </c>
       <c r="D12">
-        <v>0.9877510546578425</v>
+        <v>1.044658206320643</v>
       </c>
       <c r="E12">
-        <v>0.9684036282588159</v>
+        <v>1.041466137567472</v>
       </c>
       <c r="F12">
-        <v>0.9829175392635385</v>
+        <v>1.051444445460449</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032355569512736</v>
+        <v>1.037639129402256</v>
       </c>
       <c r="J12">
-        <v>0.9891259195190291</v>
+        <v>1.044207832590384</v>
       </c>
       <c r="K12">
-        <v>1.003116748745361</v>
+        <v>1.048238053468194</v>
       </c>
       <c r="L12">
-        <v>0.9841622765150049</v>
+        <v>1.045057798355792</v>
       </c>
       <c r="M12">
-        <v>0.9983794968902689</v>
+        <v>1.054999440564348</v>
       </c>
       <c r="N12">
-        <v>0.9974230319799302</v>
+        <v>1.018237462311262</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9579362912707051</v>
+        <v>1.037657156642264</v>
       </c>
       <c r="D13">
-        <v>0.9881756598994118</v>
+        <v>1.044725767158705</v>
       </c>
       <c r="E13">
-        <v>0.9688981804714346</v>
+        <v>1.041547354039639</v>
       </c>
       <c r="F13">
-        <v>0.9833998531174148</v>
+        <v>1.05152342730522</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032547415038692</v>
+        <v>1.037662353580947</v>
       </c>
       <c r="J13">
-        <v>0.9895344865309421</v>
+        <v>1.044273086567146</v>
       </c>
       <c r="K13">
-        <v>1.003488148024189</v>
+        <v>1.048295817511389</v>
       </c>
       <c r="L13">
-        <v>0.9846003941807056</v>
+        <v>1.045129132218577</v>
       </c>
       <c r="M13">
-        <v>0.9988070197638595</v>
+        <v>1.055068658303768</v>
       </c>
       <c r="N13">
-        <v>0.9975732579628013</v>
+        <v>1.018260637071503</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9596751993303473</v>
+        <v>1.037932450966184</v>
       </c>
       <c r="D14">
-        <v>0.9895593545171359</v>
+        <v>1.044947064847126</v>
       </c>
       <c r="E14">
-        <v>0.9705098225277519</v>
+        <v>1.041813404555231</v>
       </c>
       <c r="F14">
-        <v>0.9849717002862403</v>
+        <v>1.051782155682688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033172035752909</v>
+        <v>1.037738364442566</v>
       </c>
       <c r="J14">
-        <v>0.990865592808802</v>
+        <v>1.044486813134832</v>
       </c>
       <c r="K14">
-        <v>1.004698120458907</v>
+        <v>1.048484998319392</v>
       </c>
       <c r="L14">
-        <v>0.9860278972033806</v>
+        <v>1.04536278682493</v>
       </c>
       <c r="M14">
-        <v>1.000200053722003</v>
+        <v>1.055295378512096</v>
       </c>
       <c r="N14">
-        <v>0.998062656739926</v>
+        <v>1.018336524180578</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9607391506506183</v>
+        <v>1.038102012031634</v>
       </c>
       <c r="D15">
-        <v>0.9904061943122733</v>
+        <v>1.045083359918438</v>
       </c>
       <c r="E15">
-        <v>0.9714961764894927</v>
+        <v>1.041977280347335</v>
       </c>
       <c r="F15">
-        <v>0.9859337641555228</v>
+        <v>1.051941519885602</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033553882739328</v>
+        <v>1.037785132340911</v>
       </c>
       <c r="J15">
-        <v>0.9916800031357565</v>
+        <v>1.044618433819067</v>
       </c>
       <c r="K15">
-        <v>1.005438384334869</v>
+        <v>1.048601492132972</v>
       </c>
       <c r="L15">
-        <v>0.9869013784710654</v>
+        <v>1.045506691078782</v>
       </c>
       <c r="M15">
-        <v>1.001052481723163</v>
+        <v>1.055435009659318</v>
       </c>
       <c r="N15">
-        <v>0.9983620569472421</v>
+        <v>1.018383245038524</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9668225907104439</v>
+        <v>1.039088071637302</v>
       </c>
       <c r="D16">
-        <v>0.9952514204696697</v>
+        <v>1.045875842012158</v>
       </c>
       <c r="E16">
-        <v>0.9771398608893543</v>
+        <v>1.042930403100934</v>
       </c>
       <c r="F16">
-        <v>0.9914393834083924</v>
+        <v>1.052868379973469</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035732145719975</v>
+        <v>1.038056353532878</v>
       </c>
       <c r="J16">
-        <v>0.9963360835629033</v>
+        <v>1.04538356333404</v>
       </c>
       <c r="K16">
-        <v>1.009670012972928</v>
+        <v>1.049278523611234</v>
       </c>
       <c r="L16">
-        <v>0.9918965714169941</v>
+        <v>1.046343396863993</v>
       </c>
       <c r="M16">
-        <v>1.005927804054445</v>
+        <v>1.05624683456203</v>
       </c>
       <c r="N16">
-        <v>1.000073283650107</v>
+        <v>1.018654638064296</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.970546981666759</v>
+        <v>1.039705853873689</v>
       </c>
       <c r="D17">
-        <v>0.9982203112598725</v>
+        <v>1.046372234957257</v>
       </c>
       <c r="E17">
-        <v>0.980598314493597</v>
+        <v>1.043527659425084</v>
       </c>
       <c r="F17">
-        <v>0.9948139672401614</v>
+        <v>1.053449158954435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037061170390684</v>
+        <v>1.038225616091442</v>
       </c>
       <c r="J17">
-        <v>0.9991860183056702</v>
+        <v>1.045862671003018</v>
       </c>
       <c r="K17">
-        <v>1.012259616988401</v>
+        <v>1.049702321933796</v>
       </c>
       <c r="L17">
-        <v>0.9949552978805677</v>
+        <v>1.046867473915764</v>
       </c>
       <c r="M17">
-        <v>1.008913541541907</v>
+        <v>1.056755295571904</v>
       </c>
       <c r="N17">
-        <v>1.001120234389088</v>
+        <v>1.018824400533433</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9726880628251597</v>
+        <v>1.040065930457327</v>
       </c>
       <c r="D18">
-        <v>0.9999279038201661</v>
+        <v>1.046661519359866</v>
       </c>
       <c r="E18">
-        <v>0.9825876403509807</v>
+        <v>1.043875811655792</v>
       </c>
       <c r="F18">
-        <v>0.9967552908947904</v>
+        <v>1.053787698747906</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037823519476931</v>
+        <v>1.038324032693606</v>
       </c>
       <c r="J18">
-        <v>1.00082412676631</v>
+        <v>1.046141827376647</v>
       </c>
       <c r="K18">
-        <v>1.013747881854115</v>
+        <v>1.049949199691011</v>
       </c>
       <c r="L18">
-        <v>0.9967138587115855</v>
+        <v>1.047172886127648</v>
       </c>
       <c r="M18">
-        <v>1.010630268280709</v>
+        <v>1.057051595796093</v>
       </c>
       <c r="N18">
-        <v>1.001721819734682</v>
+        <v>1.018923249897567</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9734129614165092</v>
+        <v>1.040188662619115</v>
       </c>
       <c r="D19">
-        <v>1.000506171433802</v>
+        <v>1.046760115171957</v>
       </c>
       <c r="E19">
-        <v>0.983261345828053</v>
+        <v>1.043994486035524</v>
       </c>
       <c r="F19">
-        <v>0.9974127784746343</v>
+        <v>1.053903095261773</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038081335930668</v>
+        <v>1.038357537506541</v>
       </c>
       <c r="J19">
-        <v>1.001378686374923</v>
+        <v>1.046236962040618</v>
       </c>
       <c r="K19">
-        <v>1.01425167686535</v>
+        <v>1.050033325157027</v>
       </c>
       <c r="L19">
-        <v>0.997309270814571</v>
+        <v>1.047276977775437</v>
       </c>
       <c r="M19">
-        <v>1.011211536556005</v>
+        <v>1.057152579893611</v>
       </c>
       <c r="N19">
-        <v>1.001925444445961</v>
+        <v>1.018956926203197</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9701506635019765</v>
+        <v>1.039639599218208</v>
       </c>
       <c r="D20">
-        <v>0.9979042984191734</v>
+        <v>1.046319002943346</v>
       </c>
       <c r="E20">
-        <v>0.9802301766943295</v>
+        <v>1.043463602025012</v>
       </c>
       <c r="F20">
-        <v>0.9944547315027437</v>
+        <v>1.053386869565389</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036919920740485</v>
+        <v>1.038207488055519</v>
       </c>
       <c r="J20">
-        <v>0.9988827788313611</v>
+        <v>1.045811298279743</v>
       </c>
       <c r="K20">
-        <v>1.011984098582341</v>
+        <v>1.049656885192639</v>
       </c>
       <c r="L20">
-        <v>0.9946297966065062</v>
+        <v>1.046811273722789</v>
       </c>
       <c r="M20">
-        <v>1.008595793668045</v>
+        <v>1.056700771181148</v>
       </c>
       <c r="N20">
-        <v>1.001008855745185</v>
+        <v>1.018806204256478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9591646968589824</v>
+        <v>1.0378513955148</v>
       </c>
       <c r="D21">
-        <v>0.9891530865621482</v>
+        <v>1.044881909403863</v>
       </c>
       <c r="E21">
-        <v>0.9700366254653429</v>
+        <v>1.041735069059873</v>
       </c>
       <c r="F21">
-        <v>0.9845101737013129</v>
+        <v>1.051705976410333</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032988729951247</v>
+        <v>1.037715994665699</v>
       </c>
       <c r="J21">
-        <v>0.9904748167459629</v>
+        <v>1.044423889192697</v>
       </c>
       <c r="K21">
-        <v>1.004342912764182</v>
+        <v>1.048429303201541</v>
       </c>
       <c r="L21">
-        <v>0.9856088023724506</v>
+        <v>1.045293993480082</v>
       </c>
       <c r="M21">
-        <v>0.9997910704244349</v>
+        <v>1.055228627297495</v>
       </c>
       <c r="N21">
-        <v>0.9979189885974052</v>
+        <v>1.018314184760296</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9519366312093338</v>
+        <v>1.03672460818288</v>
       </c>
       <c r="D22">
-        <v>0.9834052066965541</v>
+        <v>1.043976012175838</v>
       </c>
       <c r="E22">
-        <v>0.9633418450175597</v>
+        <v>1.040646240882834</v>
       </c>
       <c r="F22">
-        <v>0.9779817620998497</v>
+        <v>1.050647092904772</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030387507926955</v>
+        <v>1.03740414247952</v>
       </c>
       <c r="J22">
-        <v>0.9849415596272026</v>
+        <v>1.043548813246836</v>
       </c>
       <c r="K22">
-        <v>0.999312736986832</v>
+        <v>1.047654566665618</v>
       </c>
       <c r="L22">
-        <v>0.9796762475827417</v>
+        <v>1.044337491992467</v>
       </c>
       <c r="M22">
-        <v>0.9940023980779056</v>
+        <v>1.054300478342009</v>
       </c>
       <c r="N22">
-        <v>0.9958842293355916</v>
+        <v>1.01800327670258</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9558008375607886</v>
+        <v>1.03732217785497</v>
       </c>
       <c r="D23">
-        <v>0.9864770619410739</v>
+        <v>1.044456470037392</v>
       </c>
       <c r="E23">
-        <v>0.9669197665606225</v>
+        <v>1.041223645384201</v>
       </c>
       <c r="F23">
-        <v>0.9814704744024599</v>
+        <v>1.051208623720339</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031779474561057</v>
+        <v>1.037569730794493</v>
       </c>
       <c r="J23">
-        <v>0.987899769380028</v>
+        <v>1.044012971938334</v>
       </c>
       <c r="K23">
-        <v>1.002002108568702</v>
+        <v>1.048065547367863</v>
       </c>
       <c r="L23">
-        <v>0.9828475451803617</v>
+        <v>1.044844794346861</v>
       </c>
       <c r="M23">
-        <v>0.9970966046941243</v>
+        <v>1.054792752785818</v>
       </c>
       <c r="N23">
-        <v>0.9969721601842517</v>
+        <v>1.018168243518011</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9703298389214832</v>
+        <v>1.039669537665088</v>
       </c>
       <c r="D24">
-        <v>0.9980471652335655</v>
+        <v>1.046343056981632</v>
       </c>
       <c r="E24">
-        <v>0.9803966082814701</v>
+        <v>1.043492547478289</v>
       </c>
       <c r="F24">
-        <v>0.9946171378116971</v>
+        <v>1.053415016135197</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036983784939269</v>
+        <v>1.038215680296868</v>
       </c>
       <c r="J24">
-        <v>0.9990198742142677</v>
+        <v>1.045834512326142</v>
       </c>
       <c r="K24">
-        <v>1.012108661848682</v>
+        <v>1.049677417078665</v>
       </c>
       <c r="L24">
-        <v>0.9947769552363738</v>
+        <v>1.04683666901475</v>
       </c>
       <c r="M24">
-        <v>1.008739446598867</v>
+        <v>1.056725409260798</v>
       </c>
       <c r="N24">
-        <v>1.001059210923758</v>
+        <v>1.018814426896784</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9859753014254824</v>
+        <v>1.042383150477735</v>
       </c>
       <c r="D25">
-        <v>1.010537363711667</v>
+        <v>1.048522432620823</v>
       </c>
       <c r="E25">
-        <v>0.9949514454734567</v>
+        <v>1.046116995506354</v>
       </c>
       <c r="F25">
-        <v>1.00882433172578</v>
+        <v>1.055966864488165</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042523715644609</v>
+        <v>1.038953066451098</v>
       </c>
       <c r="J25">
-        <v>1.010984049661977</v>
+        <v>1.047936609966844</v>
       </c>
       <c r="K25">
-        <v>1.022974273674403</v>
+        <v>1.051535508463988</v>
       </c>
       <c r="L25">
-        <v>1.007628642590808</v>
+        <v>1.049137450530468</v>
       </c>
       <c r="M25">
-        <v>1.021287188528713</v>
+        <v>1.058957335220895</v>
       </c>
       <c r="N25">
-        <v>1.005449123967068</v>
+        <v>1.019557620915198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044539588753954</v>
+        <v>0.9976389457266545</v>
       </c>
       <c r="D2">
-        <v>1.050253013928409</v>
+        <v>1.019865407409878</v>
       </c>
       <c r="E2">
-        <v>1.048203787235186</v>
+        <v>1.005830513319727</v>
       </c>
       <c r="F2">
-        <v>1.057995675739932</v>
+        <v>1.019448361006782</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039531495334753</v>
+        <v>1.046598229364678</v>
       </c>
       <c r="J2">
-        <v>1.049604130714789</v>
+        <v>1.019890505585814</v>
       </c>
       <c r="K2">
-        <v>1.053007805597117</v>
+        <v>1.031054752709641</v>
       </c>
       <c r="L2">
-        <v>1.050964286196767</v>
+        <v>1.017209213097643</v>
       </c>
       <c r="M2">
-        <v>1.060729119545004</v>
+        <v>1.030643238630327</v>
       </c>
       <c r="N2">
-        <v>1.020145131673962</v>
+        <v>1.008709353592372</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046100966506257</v>
+        <v>1.005701369644491</v>
       </c>
       <c r="D3">
-        <v>1.051505264049348</v>
+        <v>1.026319661452741</v>
       </c>
       <c r="E3">
-        <v>1.049715425970514</v>
+        <v>1.013364907928773</v>
       </c>
       <c r="F3">
-        <v>1.05946515882987</v>
+        <v>1.026807956845702</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039945920172026</v>
+        <v>1.049380859330467</v>
       </c>
       <c r="J3">
-        <v>1.050809779199649</v>
+        <v>1.026037807101182</v>
       </c>
       <c r="K3">
-        <v>1.054071331433928</v>
+        <v>1.036626498564454</v>
       </c>
       <c r="L3">
-        <v>1.052286112823378</v>
+        <v>1.023829591204362</v>
       </c>
       <c r="M3">
-        <v>1.06201088600449</v>
+        <v>1.037108941000569</v>
       </c>
       <c r="N3">
-        <v>1.020568724389414</v>
+        <v>1.010954316179802</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047109321428878</v>
+        <v>1.010748798015798</v>
       </c>
       <c r="D4">
-        <v>1.052313610395426</v>
+        <v>1.030362276823594</v>
       </c>
       <c r="E4">
-        <v>1.050691973350411</v>
+        <v>1.018087780885591</v>
       </c>
       <c r="F4">
-        <v>1.060414398154055</v>
+        <v>1.031421836682438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040211526267952</v>
+        <v>1.051106712072252</v>
       </c>
       <c r="J4">
-        <v>1.051587598333353</v>
+        <v>1.029881488424671</v>
       </c>
       <c r="K4">
-        <v>1.054757007822976</v>
+        <v>1.040107562083198</v>
       </c>
       <c r="L4">
-        <v>1.0531393426588</v>
+        <v>1.027972695771942</v>
       </c>
       <c r="M4">
-        <v>1.062838149795622</v>
+        <v>1.041155260657589</v>
       </c>
       <c r="N4">
-        <v>1.020841451451857</v>
+        <v>1.012355332491849</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04753277412096</v>
+        <v>1.01283262752505</v>
       </c>
       <c r="D5">
-        <v>1.052652980788161</v>
+        <v>1.032031615197998</v>
       </c>
       <c r="E5">
-        <v>1.051102143319062</v>
+        <v>1.020038981051352</v>
       </c>
       <c r="F5">
-        <v>1.060813079879312</v>
+        <v>1.033328110090524</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040322578430404</v>
+        <v>1.051815266402329</v>
       </c>
       <c r="J5">
-        <v>1.05191404640866</v>
+        <v>1.031467127758462</v>
       </c>
       <c r="K5">
-        <v>1.055044674982014</v>
+        <v>1.041542920737467</v>
       </c>
       <c r="L5">
-        <v>1.053497550325911</v>
+        <v>1.029682730651571</v>
       </c>
       <c r="M5">
-        <v>1.063185430159601</v>
+        <v>1.042825323368352</v>
       </c>
       <c r="N5">
-        <v>1.020955781566558</v>
+        <v>1.01293261997886</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047603847014526</v>
+        <v>1.013180344466696</v>
       </c>
       <c r="D6">
-        <v>1.052709935885507</v>
+        <v>1.032310185133236</v>
       </c>
       <c r="E6">
-        <v>1.051170991182768</v>
+        <v>1.020364644874067</v>
       </c>
       <c r="F6">
-        <v>1.060879998332781</v>
+        <v>1.033646280467663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040341188970159</v>
+        <v>1.051933263559325</v>
       </c>
       <c r="J6">
-        <v>1.051968826608854</v>
+        <v>1.031731640517747</v>
       </c>
       <c r="K6">
-        <v>1.055092941079095</v>
+        <v>1.041782322581842</v>
       </c>
       <c r="L6">
-        <v>1.053557666454705</v>
+        <v>1.029968046336095</v>
       </c>
       <c r="M6">
-        <v>1.063243710874946</v>
+        <v>1.043103967536055</v>
       </c>
       <c r="N6">
-        <v>1.020974959152141</v>
+        <v>1.01302888106848</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04711498141885</v>
+        <v>1.01077678889719</v>
       </c>
       <c r="D7">
-        <v>1.052318146872097</v>
+        <v>1.030384698876915</v>
       </c>
       <c r="E7">
-        <v>1.050697455506933</v>
+        <v>1.018113984934963</v>
       </c>
       <c r="F7">
-        <v>1.060419726836076</v>
+        <v>1.031447437018636</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040213012540363</v>
+        <v>1.051116245471131</v>
       </c>
       <c r="J7">
-        <v>1.051591962489105</v>
+        <v>1.029902792342033</v>
       </c>
       <c r="K7">
-        <v>1.054760853960834</v>
+        <v>1.040126849670014</v>
       </c>
       <c r="L7">
-        <v>1.053144130963428</v>
+        <v>1.027995667542143</v>
       </c>
       <c r="M7">
-        <v>1.062842792133689</v>
+        <v>1.041177695595654</v>
       </c>
       <c r="N7">
-        <v>1.020842980407648</v>
+        <v>1.012363091380122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045067675562221</v>
+        <v>1.000400337380112</v>
       </c>
       <c r="D8">
-        <v>1.050676624184095</v>
+        <v>1.022075499922274</v>
       </c>
       <c r="E8">
-        <v>1.048714985819223</v>
+        <v>1.008409730960736</v>
       </c>
       <c r="F8">
-        <v>1.058492633571165</v>
+        <v>1.021967595125941</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039672082831048</v>
+        <v>1.047554659574955</v>
       </c>
       <c r="J8">
-        <v>1.050012069277105</v>
+        <v>1.021996933071823</v>
       </c>
       <c r="K8">
-        <v>1.053367749764966</v>
+        <v>1.03296452203716</v>
       </c>
       <c r="L8">
-        <v>1.051411439216589</v>
+        <v>1.019476979448904</v>
       </c>
       <c r="M8">
-        <v>1.061162742919995</v>
+        <v>1.032858001172388</v>
       </c>
       <c r="N8">
-        <v>1.020288571185299</v>
+        <v>1.00947915501793</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041444605585405</v>
+        <v>0.9806927785449786</v>
       </c>
       <c r="D9">
-        <v>1.047768862295522</v>
+        <v>1.006317010128928</v>
       </c>
       <c r="E9">
-        <v>1.045209100231216</v>
+        <v>0.9900322675845816</v>
       </c>
       <c r="F9">
-        <v>1.055084122421749</v>
+        <v>1.004021734363206</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038699199823196</v>
+        <v>1.040661835458503</v>
       </c>
       <c r="J9">
-        <v>1.047210025093734</v>
+        <v>1.006946243384239</v>
       </c>
       <c r="K9">
-        <v>1.050893520501972</v>
+        <v>1.019308422967806</v>
       </c>
       <c r="L9">
-        <v>1.048341926517304</v>
+        <v>1.003289161320629</v>
       </c>
       <c r="M9">
-        <v>1.058185676811884</v>
+        <v>1.017049896994866</v>
       </c>
       <c r="N9">
-        <v>1.019301053341025</v>
+        <v>1.003968686856112</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039018220121151</v>
+        <v>0.9663973438154579</v>
       </c>
       <c r="D10">
-        <v>1.045819710376649</v>
+        <v>0.9949125562997209</v>
       </c>
       <c r="E10">
-        <v>1.042862877743305</v>
+        <v>0.9767451370417597</v>
       </c>
       <c r="F10">
-        <v>1.05280271653045</v>
+        <v>0.9910542665836617</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038037183017026</v>
+        <v>1.035580171751104</v>
       </c>
       <c r="J10">
-        <v>1.045329378886133</v>
+        <v>0.996010648297019</v>
       </c>
       <c r="K10">
-        <v>1.049230587297231</v>
+        <v>1.009374277693081</v>
       </c>
       <c r="L10">
-        <v>1.046284133941128</v>
+        <v>0.9915473546285367</v>
       </c>
       <c r="M10">
-        <v>1.056189335954531</v>
+        <v>1.005586939573157</v>
       </c>
       <c r="N10">
-        <v>1.018635430165579</v>
+        <v>0.9999537073233191</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037964820721998</v>
+        <v>0.9598787255662643</v>
       </c>
       <c r="D11">
-        <v>1.044973084492009</v>
+        <v>0.989721335711238</v>
       </c>
       <c r="E11">
-        <v>1.041844688488678</v>
+        <v>0.9706984890821125</v>
       </c>
       <c r="F11">
-        <v>1.051812578439176</v>
+        <v>0.9851557169175442</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037747295489037</v>
+        <v>1.033245099800707</v>
       </c>
       <c r="J11">
-        <v>1.044511941080483</v>
+        <v>0.9910213853759574</v>
       </c>
       <c r="K11">
-        <v>1.048507238997456</v>
+        <v>1.004839731189102</v>
       </c>
       <c r="L11">
-        <v>1.045390259191386</v>
+        <v>0.9861949842661845</v>
       </c>
       <c r="M11">
-        <v>1.055322035248509</v>
+        <v>1.000363111318143</v>
       </c>
       <c r="N11">
-        <v>1.018345444525067</v>
+        <v>0.9981199322103976</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037573114935938</v>
+        <v>0.9574025670946988</v>
       </c>
       <c r="D12">
-        <v>1.044658206320643</v>
+        <v>0.9877510546578416</v>
       </c>
       <c r="E12">
-        <v>1.041466137567472</v>
+        <v>0.968403628258815</v>
       </c>
       <c r="F12">
-        <v>1.051444445460449</v>
+        <v>0.9829175392635378</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037639129402256</v>
+        <v>1.032355569512735</v>
       </c>
       <c r="J12">
-        <v>1.044207832590384</v>
+        <v>0.9891259195190283</v>
       </c>
       <c r="K12">
-        <v>1.048238053468194</v>
+        <v>1.00311674874536</v>
       </c>
       <c r="L12">
-        <v>1.045057798355792</v>
+        <v>0.9841622765150037</v>
       </c>
       <c r="M12">
-        <v>1.054999440564348</v>
+        <v>0.9983794968902684</v>
       </c>
       <c r="N12">
-        <v>1.018237462311262</v>
+        <v>0.99742303197993</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037657156642264</v>
+        <v>0.9579362912707072</v>
       </c>
       <c r="D13">
-        <v>1.044725767158705</v>
+        <v>0.9881756598994138</v>
       </c>
       <c r="E13">
-        <v>1.041547354039639</v>
+        <v>0.9688981804714366</v>
       </c>
       <c r="F13">
-        <v>1.05152342730522</v>
+        <v>0.983399853117417</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037662353580947</v>
+        <v>1.032547415038693</v>
       </c>
       <c r="J13">
-        <v>1.044273086567146</v>
+        <v>0.989534486530944</v>
       </c>
       <c r="K13">
-        <v>1.048295817511389</v>
+        <v>1.003488148024191</v>
       </c>
       <c r="L13">
-        <v>1.045129132218577</v>
+        <v>0.9846003941807073</v>
       </c>
       <c r="M13">
-        <v>1.055068658303768</v>
+        <v>0.9988070197638615</v>
       </c>
       <c r="N13">
-        <v>1.018260637071503</v>
+        <v>0.9975732579628018</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037932450966184</v>
+        <v>0.9596751993303452</v>
       </c>
       <c r="D14">
-        <v>1.044947064847126</v>
+        <v>0.9895593545171337</v>
       </c>
       <c r="E14">
-        <v>1.041813404555231</v>
+        <v>0.9705098225277499</v>
       </c>
       <c r="F14">
-        <v>1.051782155682688</v>
+        <v>0.9849717002862383</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037738364442566</v>
+        <v>1.033172035752908</v>
       </c>
       <c r="J14">
-        <v>1.044486813134832</v>
+        <v>0.9908655928088003</v>
       </c>
       <c r="K14">
-        <v>1.048484998319392</v>
+        <v>1.004698120458905</v>
       </c>
       <c r="L14">
-        <v>1.04536278682493</v>
+        <v>0.9860278972033789</v>
       </c>
       <c r="M14">
-        <v>1.055295378512096</v>
+        <v>1.000200053722</v>
       </c>
       <c r="N14">
-        <v>1.018336524180578</v>
+        <v>0.9980626567399254</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038102012031634</v>
+        <v>0.9607391506506192</v>
       </c>
       <c r="D15">
-        <v>1.045083359918438</v>
+        <v>0.9904061943122739</v>
       </c>
       <c r="E15">
-        <v>1.041977280347335</v>
+        <v>0.9714961764894936</v>
       </c>
       <c r="F15">
-        <v>1.051941519885602</v>
+        <v>0.9859337641555238</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037785132340911</v>
+        <v>1.033553882739328</v>
       </c>
       <c r="J15">
-        <v>1.044618433819067</v>
+        <v>0.9916800031357574</v>
       </c>
       <c r="K15">
-        <v>1.048601492132972</v>
+        <v>1.005438384334869</v>
       </c>
       <c r="L15">
-        <v>1.045506691078782</v>
+        <v>0.9869013784710661</v>
       </c>
       <c r="M15">
-        <v>1.055435009659318</v>
+        <v>1.001052481723164</v>
       </c>
       <c r="N15">
-        <v>1.018383245038524</v>
+        <v>0.9983620569472423</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039088071637302</v>
+        <v>0.9668225907104473</v>
       </c>
       <c r="D16">
-        <v>1.045875842012158</v>
+        <v>0.9952514204696729</v>
       </c>
       <c r="E16">
-        <v>1.042930403100934</v>
+        <v>0.9771398608893577</v>
       </c>
       <c r="F16">
-        <v>1.052868379973469</v>
+        <v>0.9914393834083964</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038056353532878</v>
+        <v>1.035732145719977</v>
       </c>
       <c r="J16">
-        <v>1.04538356333404</v>
+        <v>0.9963360835629067</v>
       </c>
       <c r="K16">
-        <v>1.049278523611234</v>
+        <v>1.009670012972931</v>
       </c>
       <c r="L16">
-        <v>1.046343396863993</v>
+        <v>0.9918965714169975</v>
       </c>
       <c r="M16">
-        <v>1.05624683456203</v>
+        <v>1.005927804054449</v>
       </c>
       <c r="N16">
-        <v>1.018654638064296</v>
+        <v>1.000073283650108</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039705853873689</v>
+        <v>0.9705469816667583</v>
       </c>
       <c r="D17">
-        <v>1.046372234957257</v>
+        <v>0.998220311259872</v>
       </c>
       <c r="E17">
-        <v>1.043527659425084</v>
+        <v>0.9805983144935959</v>
       </c>
       <c r="F17">
-        <v>1.053449158954435</v>
+        <v>0.9948139672401609</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038225616091442</v>
+        <v>1.037061170390684</v>
       </c>
       <c r="J17">
-        <v>1.045862671003018</v>
+        <v>0.9991860183056694</v>
       </c>
       <c r="K17">
-        <v>1.049702321933796</v>
+        <v>1.012259616988401</v>
       </c>
       <c r="L17">
-        <v>1.046867473915764</v>
+        <v>0.994955297880567</v>
       </c>
       <c r="M17">
-        <v>1.056755295571904</v>
+        <v>1.008913541541907</v>
       </c>
       <c r="N17">
-        <v>1.018824400533433</v>
+        <v>1.001120234389088</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040065930457327</v>
+        <v>0.9726880628251611</v>
       </c>
       <c r="D18">
-        <v>1.046661519359866</v>
+        <v>0.9999279038201673</v>
       </c>
       <c r="E18">
-        <v>1.043875811655792</v>
+        <v>0.9825876403509816</v>
       </c>
       <c r="F18">
-        <v>1.053787698747906</v>
+        <v>0.9967552908947915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038324032693606</v>
+        <v>1.037823519476931</v>
       </c>
       <c r="J18">
-        <v>1.046141827376647</v>
+        <v>1.000824126766312</v>
       </c>
       <c r="K18">
-        <v>1.049949199691011</v>
+        <v>1.013747881854117</v>
       </c>
       <c r="L18">
-        <v>1.047172886127648</v>
+        <v>0.9967138587115867</v>
       </c>
       <c r="M18">
-        <v>1.057051595796093</v>
+        <v>1.01063026828071</v>
       </c>
       <c r="N18">
-        <v>1.018923249897567</v>
+        <v>1.001721819734682</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040188662619115</v>
+        <v>0.9734129614165095</v>
       </c>
       <c r="D19">
-        <v>1.046760115171957</v>
+        <v>1.000506171433802</v>
       </c>
       <c r="E19">
-        <v>1.043994486035524</v>
+        <v>0.9832613458280536</v>
       </c>
       <c r="F19">
-        <v>1.053903095261773</v>
+        <v>0.9974127784746344</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038357537506541</v>
+        <v>1.038081335930668</v>
       </c>
       <c r="J19">
-        <v>1.046236962040618</v>
+        <v>1.001378686374923</v>
       </c>
       <c r="K19">
-        <v>1.050033325157027</v>
+        <v>1.01425167686535</v>
       </c>
       <c r="L19">
-        <v>1.047276977775437</v>
+        <v>0.9973092708145714</v>
       </c>
       <c r="M19">
-        <v>1.057152579893611</v>
+        <v>1.011211536556005</v>
       </c>
       <c r="N19">
-        <v>1.018956926203197</v>
+        <v>1.001925444445961</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039639599218208</v>
+        <v>0.9701506635019772</v>
       </c>
       <c r="D20">
-        <v>1.046319002943346</v>
+        <v>0.9979042984191736</v>
       </c>
       <c r="E20">
-        <v>1.043463602025012</v>
+        <v>0.9802301766943302</v>
       </c>
       <c r="F20">
-        <v>1.053386869565389</v>
+        <v>0.9944547315027443</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038207488055519</v>
+        <v>1.036919920740485</v>
       </c>
       <c r="J20">
-        <v>1.045811298279743</v>
+        <v>0.9988827788313617</v>
       </c>
       <c r="K20">
-        <v>1.049656885192639</v>
+        <v>1.011984098582342</v>
       </c>
       <c r="L20">
-        <v>1.046811273722789</v>
+        <v>0.9946297966065066</v>
       </c>
       <c r="M20">
-        <v>1.056700771181148</v>
+        <v>1.008595793668045</v>
       </c>
       <c r="N20">
-        <v>1.018806204256478</v>
+        <v>1.001008855745185</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0378513955148</v>
+        <v>0.9591646968589804</v>
       </c>
       <c r="D21">
-        <v>1.044881909403863</v>
+        <v>0.9891530865621464</v>
       </c>
       <c r="E21">
-        <v>1.041735069059873</v>
+        <v>0.9700366254653405</v>
       </c>
       <c r="F21">
-        <v>1.051705976410333</v>
+        <v>0.9845101737013108</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037715994665699</v>
+        <v>1.032988729951246</v>
       </c>
       <c r="J21">
-        <v>1.044423889192697</v>
+        <v>0.9904748167459608</v>
       </c>
       <c r="K21">
-        <v>1.048429303201541</v>
+        <v>1.00434291276418</v>
       </c>
       <c r="L21">
-        <v>1.045293993480082</v>
+        <v>0.9856088023724482</v>
       </c>
       <c r="M21">
-        <v>1.055228627297495</v>
+        <v>0.999791070424433</v>
       </c>
       <c r="N21">
-        <v>1.018314184760296</v>
+        <v>0.9979189885974045</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03672460818288</v>
+        <v>0.9519366312093324</v>
       </c>
       <c r="D22">
-        <v>1.043976012175838</v>
+        <v>0.9834052066965527</v>
       </c>
       <c r="E22">
-        <v>1.040646240882834</v>
+        <v>0.9633418450175578</v>
       </c>
       <c r="F22">
-        <v>1.050647092904772</v>
+        <v>0.9779817620998477</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03740414247952</v>
+        <v>1.030387507926954</v>
       </c>
       <c r="J22">
-        <v>1.043548813246836</v>
+        <v>0.9849415596272011</v>
       </c>
       <c r="K22">
-        <v>1.047654566665618</v>
+        <v>0.9993127369868308</v>
       </c>
       <c r="L22">
-        <v>1.044337491992467</v>
+        <v>0.9796762475827399</v>
       </c>
       <c r="M22">
-        <v>1.054300478342009</v>
+        <v>0.9940023980779038</v>
       </c>
       <c r="N22">
-        <v>1.01800327670258</v>
+        <v>0.9958842293355912</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03732217785497</v>
+        <v>0.9558008375607914</v>
       </c>
       <c r="D23">
-        <v>1.044456470037392</v>
+        <v>0.9864770619410764</v>
       </c>
       <c r="E23">
-        <v>1.041223645384201</v>
+        <v>0.9669197665606251</v>
       </c>
       <c r="F23">
-        <v>1.051208623720339</v>
+        <v>0.9814704744024626</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037569730794493</v>
+        <v>1.031779474561058</v>
       </c>
       <c r="J23">
-        <v>1.044012971938334</v>
+        <v>0.9878997693800307</v>
       </c>
       <c r="K23">
-        <v>1.048065547367863</v>
+        <v>1.002002108568704</v>
       </c>
       <c r="L23">
-        <v>1.044844794346861</v>
+        <v>0.9828475451803643</v>
       </c>
       <c r="M23">
-        <v>1.054792752785818</v>
+        <v>0.997096604694127</v>
       </c>
       <c r="N23">
-        <v>1.018168243518011</v>
+        <v>0.9969721601842525</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039669537665088</v>
+        <v>0.9703298389214831</v>
       </c>
       <c r="D24">
-        <v>1.046343056981632</v>
+        <v>0.9980471652335654</v>
       </c>
       <c r="E24">
-        <v>1.043492547478289</v>
+        <v>0.98039660828147</v>
       </c>
       <c r="F24">
-        <v>1.053415016135197</v>
+        <v>0.9946171378116971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038215680296868</v>
+        <v>1.036983784939269</v>
       </c>
       <c r="J24">
-        <v>1.045834512326142</v>
+        <v>0.9990198742142676</v>
       </c>
       <c r="K24">
-        <v>1.049677417078665</v>
+        <v>1.012108661848682</v>
       </c>
       <c r="L24">
-        <v>1.04683666901475</v>
+        <v>0.9947769552363736</v>
       </c>
       <c r="M24">
-        <v>1.056725409260798</v>
+        <v>1.008739446598867</v>
       </c>
       <c r="N24">
-        <v>1.018814426896784</v>
+        <v>1.001059210923758</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042383150477735</v>
+        <v>0.985975301425482</v>
       </c>
       <c r="D25">
-        <v>1.048522432620823</v>
+        <v>1.010537363711666</v>
       </c>
       <c r="E25">
-        <v>1.046116995506354</v>
+        <v>0.9949514454734558</v>
       </c>
       <c r="F25">
-        <v>1.055966864488165</v>
+        <v>1.008824331725779</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038953066451098</v>
+        <v>1.042523715644608</v>
       </c>
       <c r="J25">
-        <v>1.047936609966844</v>
+        <v>1.010984049661977</v>
       </c>
       <c r="K25">
-        <v>1.051535508463988</v>
+        <v>1.022974273674403</v>
       </c>
       <c r="L25">
-        <v>1.049137450530468</v>
+        <v>1.007628642590808</v>
       </c>
       <c r="M25">
-        <v>1.058957335220895</v>
+        <v>1.021287188528712</v>
       </c>
       <c r="N25">
-        <v>1.019557620915198</v>
+        <v>1.005449123967068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9976389457266545</v>
+        <v>1.020209177870415</v>
       </c>
       <c r="D2">
-        <v>1.019865407409878</v>
+        <v>1.037047790285211</v>
       </c>
       <c r="E2">
-        <v>1.005830513319727</v>
+        <v>1.028254570638938</v>
       </c>
       <c r="F2">
-        <v>1.019448361006782</v>
+        <v>1.039761425696157</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046598229364678</v>
+        <v>1.051033214833008</v>
       </c>
       <c r="J2">
-        <v>1.019890505585814</v>
+        <v>1.041801791448403</v>
       </c>
       <c r="K2">
-        <v>1.031054752709641</v>
+        <v>1.048014035566098</v>
       </c>
       <c r="L2">
-        <v>1.017209213097643</v>
+        <v>1.039333822975996</v>
       </c>
       <c r="M2">
-        <v>1.030643238630327</v>
+        <v>1.050693278105872</v>
       </c>
       <c r="N2">
-        <v>1.008709353592372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017231888393863</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048692673956708</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045020343966565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005701369644491</v>
+        <v>1.024419696725112</v>
       </c>
       <c r="D3">
-        <v>1.026319661452741</v>
+        <v>1.039886976900638</v>
       </c>
       <c r="E3">
-        <v>1.013364907928773</v>
+        <v>1.031983748707637</v>
       </c>
       <c r="F3">
-        <v>1.026807956845702</v>
+        <v>1.042690579454726</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049380859330467</v>
+        <v>1.052162334154541</v>
       </c>
       <c r="J3">
-        <v>1.026037807101182</v>
+        <v>1.044266090818684</v>
       </c>
       <c r="K3">
-        <v>1.036626498564454</v>
+        <v>1.050033718426868</v>
       </c>
       <c r="L3">
-        <v>1.023829591204362</v>
+        <v>1.042223115039911</v>
       </c>
       <c r="M3">
-        <v>1.037108941000569</v>
+        <v>1.05280487994081</v>
       </c>
       <c r="N3">
-        <v>1.010954316179802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018107445022937</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050363844638494</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046445770654113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010748798015798</v>
+        <v>1.027093750970189</v>
       </c>
       <c r="D4">
-        <v>1.030362276823594</v>
+        <v>1.041694513777706</v>
       </c>
       <c r="E4">
-        <v>1.018087780885591</v>
+        <v>1.034357321266498</v>
       </c>
       <c r="F4">
-        <v>1.031421836682438</v>
+        <v>1.044558535985365</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051106712072252</v>
+        <v>1.052871556115179</v>
       </c>
       <c r="J4">
-        <v>1.029881488424671</v>
+        <v>1.04582890122002</v>
       </c>
       <c r="K4">
-        <v>1.040107562083198</v>
+        <v>1.051314476001048</v>
       </c>
       <c r="L4">
-        <v>1.027972695771942</v>
+        <v>1.044058039961167</v>
       </c>
       <c r="M4">
-        <v>1.041155260657589</v>
+        <v>1.054147353163343</v>
       </c>
       <c r="N4">
-        <v>1.012355332491849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018662275959784</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051426307147128</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047352247561233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01283262752505</v>
+        <v>1.028211018147038</v>
       </c>
       <c r="D5">
-        <v>1.032031615197998</v>
+        <v>1.042452866002655</v>
       </c>
       <c r="E5">
-        <v>1.020038981051352</v>
+        <v>1.035350778244484</v>
       </c>
       <c r="F5">
-        <v>1.033328110090524</v>
+        <v>1.045341456267527</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051815266402329</v>
+        <v>1.053167874776731</v>
       </c>
       <c r="J5">
-        <v>1.031467127758462</v>
+        <v>1.046483178555069</v>
       </c>
       <c r="K5">
-        <v>1.041542920737467</v>
+        <v>1.051852111477711</v>
       </c>
       <c r="L5">
-        <v>1.029682730651571</v>
+        <v>1.044826092540651</v>
       </c>
       <c r="M5">
-        <v>1.042825323368352</v>
+        <v>1.054710124402503</v>
       </c>
       <c r="N5">
-        <v>1.01293261997886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018895182959869</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051871696098596</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047739490825364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013180344466696</v>
+        <v>1.028403758833076</v>
       </c>
       <c r="D6">
-        <v>1.032310185133236</v>
+        <v>1.042586316007718</v>
       </c>
       <c r="E6">
-        <v>1.020364644874067</v>
+        <v>1.035522852751436</v>
       </c>
       <c r="F6">
-        <v>1.033646280467663</v>
+        <v>1.045477412666282</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051933263559325</v>
+        <v>1.053221213824026</v>
       </c>
       <c r="J6">
-        <v>1.031731640517747</v>
+        <v>1.04659829438243</v>
       </c>
       <c r="K6">
-        <v>1.041782322581842</v>
+        <v>1.051948479270311</v>
       </c>
       <c r="L6">
-        <v>1.029968046336095</v>
+        <v>1.044960321146478</v>
       </c>
       <c r="M6">
-        <v>1.043103967536055</v>
+        <v>1.054809112103019</v>
       </c>
       <c r="N6">
-        <v>1.01302888106848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01893704814905</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051950037011733</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047816283505522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01077678889719</v>
+        <v>1.027124459737898</v>
       </c>
       <c r="D7">
-        <v>1.030384698876915</v>
+        <v>1.04172224330926</v>
       </c>
       <c r="E7">
-        <v>1.018113984934963</v>
+        <v>1.034386296348163</v>
       </c>
       <c r="F7">
-        <v>1.031447437018636</v>
+        <v>1.044582155511988</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051116245471131</v>
+        <v>1.052886010945654</v>
       </c>
       <c r="J7">
-        <v>1.029902792342033</v>
+        <v>1.045853032477033</v>
       </c>
       <c r="K7">
-        <v>1.040126849670014</v>
+        <v>1.051339061563821</v>
       </c>
       <c r="L7">
-        <v>1.027995667542143</v>
+        <v>1.044083825082107</v>
       </c>
       <c r="M7">
-        <v>1.041177695595654</v>
+        <v>1.054167885627694</v>
       </c>
       <c r="N7">
-        <v>1.012363091380122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018673305845048</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051442556974317</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047389539179344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000400337380112</v>
+        <v>1.021662847580742</v>
       </c>
       <c r="D8">
-        <v>1.022075499922274</v>
+        <v>1.038035702775212</v>
       </c>
       <c r="E8">
-        <v>1.008409730960736</v>
+        <v>1.029543121116102</v>
       </c>
       <c r="F8">
-        <v>1.021967595125941</v>
+        <v>1.040773733120498</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047554659574955</v>
+        <v>1.05143259886558</v>
       </c>
       <c r="J8">
-        <v>1.021996933071823</v>
+        <v>1.042660789754835</v>
       </c>
       <c r="K8">
-        <v>1.03296452203716</v>
+        <v>1.048723972599415</v>
       </c>
       <c r="L8">
-        <v>1.019476979448904</v>
+        <v>1.040337246651222</v>
       </c>
       <c r="M8">
-        <v>1.032858001172388</v>
+        <v>1.051428332866813</v>
       </c>
       <c r="N8">
-        <v>1.00947915501793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017540396504533</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049274413773503</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045545020602265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9806927785449786</v>
+        <v>1.01160819340336</v>
       </c>
       <c r="D9">
-        <v>1.006317010128928</v>
+        <v>1.031274810762587</v>
       </c>
       <c r="E9">
-        <v>0.9900322675845816</v>
+        <v>1.020667064518974</v>
       </c>
       <c r="F9">
-        <v>1.004021734363206</v>
+        <v>1.033822396785767</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040661835458503</v>
+        <v>1.048685695709554</v>
       </c>
       <c r="J9">
-        <v>1.006946243384239</v>
+        <v>1.036757592064906</v>
       </c>
       <c r="K9">
-        <v>1.019308422967806</v>
+        <v>1.043880065894116</v>
       </c>
       <c r="L9">
-        <v>1.003289161320629</v>
+        <v>1.033433501572034</v>
       </c>
       <c r="M9">
-        <v>1.017049896994866</v>
+        <v>1.046389568505675</v>
       </c>
       <c r="N9">
-        <v>1.003968686856112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015438069176211</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045286606662724</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042116955544699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9663973438154579</v>
+        <v>1.004694864022987</v>
       </c>
       <c r="D10">
-        <v>0.9949125562997209</v>
+        <v>1.026684057891332</v>
       </c>
       <c r="E10">
-        <v>0.9767451370417597</v>
+        <v>1.014605006187322</v>
       </c>
       <c r="F10">
-        <v>0.9910542665836617</v>
+        <v>1.029168915029106</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035580171751104</v>
+        <v>1.046788834312003</v>
       </c>
       <c r="J10">
-        <v>0.996010648297019</v>
+        <v>1.032723441034665</v>
       </c>
       <c r="K10">
-        <v>1.009374277693081</v>
+        <v>1.040587676890651</v>
       </c>
       <c r="L10">
-        <v>0.9915473546285367</v>
+        <v>1.028715476447061</v>
       </c>
       <c r="M10">
-        <v>1.005586939573157</v>
+        <v>1.043030757592641</v>
       </c>
       <c r="N10">
-        <v>0.9999537073233191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014012507570507</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042679523186419</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039805757082638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9598787255662643</v>
+        <v>1.002329591461726</v>
       </c>
       <c r="D11">
-        <v>0.989721335711238</v>
+        <v>1.025352782104364</v>
       </c>
       <c r="E11">
-        <v>0.9706984890821125</v>
+        <v>1.012617584235165</v>
       </c>
       <c r="F11">
-        <v>0.9851557169175442</v>
+        <v>1.028227627074498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033245099800707</v>
+        <v>1.046370333745479</v>
       </c>
       <c r="J11">
-        <v>0.9910213853759574</v>
+        <v>1.031605776814194</v>
       </c>
       <c r="K11">
-        <v>1.004839731189102</v>
+        <v>1.039811912696985</v>
       </c>
       <c r="L11">
-        <v>0.9861949842661845</v>
+        <v>1.027305410666661</v>
       </c>
       <c r="M11">
-        <v>1.000363111318143</v>
+        <v>1.042636147415326</v>
       </c>
       <c r="N11">
-        <v>0.9981199322103976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013722293017823</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042801277762569</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039289916769149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9574025670946988</v>
+        <v>1.00169765866482</v>
       </c>
       <c r="D12">
-        <v>0.9877510546578416</v>
+        <v>1.02510363754549</v>
       </c>
       <c r="E12">
-        <v>0.968403628258815</v>
+        <v>1.012125369423133</v>
       </c>
       <c r="F12">
-        <v>0.9829175392635378</v>
+        <v>1.028274594797214</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032355569512735</v>
+        <v>1.046369421464293</v>
       </c>
       <c r="J12">
-        <v>0.9891259195190283</v>
+        <v>1.031430343903063</v>
       </c>
       <c r="K12">
-        <v>1.00311674874536</v>
+        <v>1.039765193047507</v>
       </c>
       <c r="L12">
-        <v>0.9841622765150037</v>
+        <v>1.027023895966851</v>
       </c>
       <c r="M12">
-        <v>0.9983794968902684</v>
+        <v>1.042879431929478</v>
       </c>
       <c r="N12">
-        <v>0.99742303197993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013743738057335</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043318572137856</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039256884824449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9579362912707072</v>
+        <v>1.002379941506581</v>
       </c>
       <c r="D13">
-        <v>0.9881756598994138</v>
+        <v>1.025694385878651</v>
       </c>
       <c r="E13">
-        <v>0.9688981804714366</v>
+        <v>1.01277122248728</v>
       </c>
       <c r="F13">
-        <v>0.983399853117417</v>
+        <v>1.029114362115953</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032547415038693</v>
+        <v>1.046707702366556</v>
       </c>
       <c r="J13">
-        <v>0.989534486530944</v>
+        <v>1.031991664407526</v>
       </c>
       <c r="K13">
-        <v>1.003488148024191</v>
+        <v>1.040302901085564</v>
       </c>
       <c r="L13">
-        <v>0.9846003941807073</v>
+        <v>1.027614542556641</v>
       </c>
       <c r="M13">
-        <v>0.9988070197638615</v>
+        <v>1.043662018889499</v>
       </c>
       <c r="N13">
-        <v>0.9975732579628018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014017748095376</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044212814809539</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03963458019374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9596751993303452</v>
+        <v>1.003452404223189</v>
       </c>
       <c r="D14">
-        <v>0.9895593545171337</v>
+        <v>1.02648833988058</v>
       </c>
       <c r="E14">
-        <v>0.9705098225277499</v>
+        <v>1.013738508053537</v>
       </c>
       <c r="F14">
-        <v>0.9849717002862383</v>
+        <v>1.030060038344472</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033172035752908</v>
+        <v>1.047097701286773</v>
       </c>
       <c r="J14">
-        <v>0.9908655928088003</v>
+        <v>1.032717710988573</v>
       </c>
       <c r="K14">
-        <v>1.004698120458905</v>
+        <v>1.040943773078816</v>
       </c>
       <c r="L14">
-        <v>0.9860278972033789</v>
+        <v>1.028422540493081</v>
       </c>
       <c r="M14">
-        <v>1.000200053722</v>
+        <v>1.044452746799765</v>
       </c>
       <c r="N14">
-        <v>0.9980626567399254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014323855124739</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045010503770296</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.0400891082481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9607391506506192</v>
+        <v>1.004007522491276</v>
       </c>
       <c r="D15">
-        <v>0.9904061943122739</v>
+        <v>1.026875235667579</v>
       </c>
       <c r="E15">
-        <v>0.9714961764894936</v>
+        <v>1.01423042346487</v>
       </c>
       <c r="F15">
-        <v>0.9859337641555238</v>
+        <v>1.030481071318658</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033553882739328</v>
+        <v>1.0472727584124</v>
       </c>
       <c r="J15">
-        <v>0.9916800031357574</v>
+        <v>1.03306444297251</v>
       </c>
       <c r="K15">
-        <v>1.005438384334869</v>
+        <v>1.041238303245115</v>
       </c>
       <c r="L15">
-        <v>0.9869013784710661</v>
+        <v>1.028818408212166</v>
       </c>
       <c r="M15">
-        <v>1.001052481723164</v>
+        <v>1.044781309730809</v>
       </c>
       <c r="N15">
-        <v>0.9983620569472423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014457616999853</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045307597247773</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04030318065153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9668225907104473</v>
+        <v>1.006805579581788</v>
       </c>
       <c r="D16">
-        <v>0.9952514204696729</v>
+        <v>1.028710924479204</v>
       </c>
       <c r="E16">
-        <v>0.9771398608893577</v>
+        <v>1.016670659801319</v>
       </c>
       <c r="F16">
-        <v>0.9914393834083964</v>
+        <v>1.032323104412077</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035732145719977</v>
+        <v>1.048025503715928</v>
       </c>
       <c r="J16">
-        <v>0.9963360835629067</v>
+        <v>1.034675830583173</v>
       </c>
       <c r="K16">
-        <v>1.009670012972931</v>
+        <v>1.042545232992044</v>
       </c>
       <c r="L16">
-        <v>0.9918965714169975</v>
+        <v>1.030709491872427</v>
       </c>
       <c r="M16">
-        <v>1.005927804054449</v>
+        <v>1.046097251939618</v>
       </c>
       <c r="N16">
-        <v>1.000073283650108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015012352105689</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046309156665749</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041230357079448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9705469816667583</v>
+        <v>1.008392515647787</v>
       </c>
       <c r="D17">
-        <v>0.998220311259872</v>
+        <v>1.029705322959091</v>
       </c>
       <c r="E17">
-        <v>0.9805983144935959</v>
+        <v>1.018039226852469</v>
       </c>
       <c r="F17">
-        <v>0.9948139672401609</v>
+        <v>1.033237234642735</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037061170390684</v>
+        <v>1.048397192012886</v>
       </c>
       <c r="J17">
-        <v>0.9991860183056694</v>
+        <v>1.035531958788296</v>
       </c>
       <c r="K17">
-        <v>1.012259616988401</v>
+        <v>1.043211813454525</v>
       </c>
       <c r="L17">
-        <v>0.994955297880567</v>
+        <v>1.031738186998713</v>
       </c>
       <c r="M17">
-        <v>1.008913541541907</v>
+        <v>1.046686554853923</v>
       </c>
       <c r="N17">
-        <v>1.001120234389088</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015277610978874</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046646482188313</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041704216018184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9726880628251611</v>
+        <v>1.009065858127669</v>
       </c>
       <c r="D18">
-        <v>0.9999279038201673</v>
+        <v>1.030037103333964</v>
       </c>
       <c r="E18">
-        <v>0.9825876403509816</v>
+        <v>1.018589086781206</v>
       </c>
       <c r="F18">
-        <v>0.9967552908947915</v>
+        <v>1.033381461015826</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037823519476931</v>
+        <v>1.048458373614473</v>
       </c>
       <c r="J18">
-        <v>1.000824126766312</v>
+        <v>1.035790689821797</v>
       </c>
       <c r="K18">
-        <v>1.013747881854117</v>
+        <v>1.043356745537412</v>
       </c>
       <c r="L18">
-        <v>0.9967138587115867</v>
+        <v>1.032094481675324</v>
       </c>
       <c r="M18">
-        <v>1.01063026828071</v>
+        <v>1.046647833524558</v>
       </c>
       <c r="N18">
-        <v>1.001721819734682</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01530538483624</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04637934594446</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041795134697535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9734129614165095</v>
+        <v>1.008936796574859</v>
       </c>
       <c r="D19">
-        <v>1.000506171433802</v>
+        <v>1.029794879079787</v>
       </c>
       <c r="E19">
-        <v>0.9832613458280536</v>
+        <v>1.018421523297531</v>
       </c>
       <c r="F19">
-        <v>0.9974127784746344</v>
+        <v>1.032840626879247</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038081335930668</v>
+        <v>1.048258101877979</v>
       </c>
       <c r="J19">
-        <v>1.001378686374923</v>
+        <v>1.035533702888194</v>
       </c>
       <c r="K19">
-        <v>1.01425167686535</v>
+        <v>1.043056500884758</v>
       </c>
       <c r="L19">
-        <v>0.9973092708145714</v>
+        <v>1.031866796649782</v>
       </c>
       <c r="M19">
-        <v>1.011211536556005</v>
+        <v>1.046053946510837</v>
       </c>
       <c r="N19">
-        <v>1.001925444445961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015136480586475</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045586016200878</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041589204946281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9701506635019772</v>
+        <v>1.006533129582616</v>
       </c>
       <c r="D20">
-        <v>0.9979042984191736</v>
+        <v>1.027921813063899</v>
       </c>
       <c r="E20">
-        <v>0.9802301766943302</v>
+        <v>1.016219862861716</v>
       </c>
       <c r="F20">
-        <v>0.9944547315027443</v>
+        <v>1.030412883059888</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036919920740485</v>
+        <v>1.047313841052373</v>
       </c>
       <c r="J20">
-        <v>0.9988827788313617</v>
+        <v>1.033814512418411</v>
       </c>
       <c r="K20">
-        <v>1.011984098582342</v>
+        <v>1.041490838379466</v>
       </c>
       <c r="L20">
-        <v>0.9946297966065066</v>
+        <v>1.029983377931041</v>
       </c>
       <c r="M20">
-        <v>1.008595793668045</v>
+        <v>1.043941238741363</v>
       </c>
       <c r="N20">
-        <v>1.001008855745185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014406161803305</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043389573549375</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040486137780326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9591646968589804</v>
+        <v>1.001199760215406</v>
       </c>
       <c r="D21">
-        <v>0.9891530865621464</v>
+        <v>1.024343629442588</v>
       </c>
       <c r="E21">
-        <v>0.9700366254653405</v>
+        <v>1.011539020451434</v>
       </c>
       <c r="F21">
-        <v>0.9845101737013108</v>
+        <v>1.026713854482099</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032988729951246</v>
+        <v>1.045790377832363</v>
       </c>
       <c r="J21">
-        <v>0.9904748167459608</v>
+        <v>1.030647405450396</v>
       </c>
       <c r="K21">
-        <v>1.00434291276418</v>
+        <v>1.038878029219497</v>
       </c>
       <c r="L21">
-        <v>0.9856088023724482</v>
+        <v>1.026305031267915</v>
       </c>
       <c r="M21">
-        <v>0.999791070424433</v>
+        <v>1.041206203258635</v>
       </c>
       <c r="N21">
-        <v>0.9979189885974045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013266871818227</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04118433608098</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038642023228544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9519366312093324</v>
+        <v>0.9977984174247432</v>
       </c>
       <c r="D22">
-        <v>0.9834052066965527</v>
+        <v>1.02207541544563</v>
       </c>
       <c r="E22">
-        <v>0.9633418450175578</v>
+        <v>1.008563887080478</v>
       </c>
       <c r="F22">
-        <v>0.9779817620998477</v>
+        <v>1.024403708982882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030387507926954</v>
+        <v>1.044818669230187</v>
       </c>
       <c r="J22">
-        <v>0.9849415596272011</v>
+        <v>1.028635545107192</v>
       </c>
       <c r="K22">
-        <v>0.9993127369868308</v>
+        <v>1.037221882342003</v>
       </c>
       <c r="L22">
-        <v>0.9796762475827399</v>
+        <v>1.023967579531791</v>
       </c>
       <c r="M22">
-        <v>0.9940023980779038</v>
+        <v>1.039506745047713</v>
       </c>
       <c r="N22">
-        <v>0.9958842293355912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012545596684616</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039839328873971</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037457632693217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9558008375607914</v>
+        <v>0.9995925024184886</v>
       </c>
       <c r="D23">
-        <v>0.9864770619410764</v>
+        <v>1.023264699452294</v>
       </c>
       <c r="E23">
-        <v>0.9669197665606251</v>
+        <v>1.010130635973308</v>
       </c>
       <c r="F23">
-        <v>0.9814704744024626</v>
+        <v>1.02561912721652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031779474561058</v>
+        <v>1.045325940517666</v>
       </c>
       <c r="J23">
-        <v>0.9878997693800307</v>
+        <v>1.02969093737524</v>
       </c>
       <c r="K23">
-        <v>1.002002108568704</v>
+        <v>1.038086472378379</v>
       </c>
       <c r="L23">
-        <v>0.9828475451803643</v>
+        <v>1.025195813204598</v>
       </c>
       <c r="M23">
-        <v>0.997096604694127</v>
+        <v>1.040398124155116</v>
       </c>
       <c r="N23">
-        <v>0.9969721601842525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012921210340629</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040544795973875</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038059338522428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9703298389214831</v>
+        <v>1.006529710347082</v>
       </c>
       <c r="D24">
-        <v>0.9980471652335654</v>
+        <v>1.027887643885522</v>
       </c>
       <c r="E24">
-        <v>0.98039660828147</v>
+        <v>1.016206677403288</v>
       </c>
       <c r="F24">
-        <v>0.9946171378116971</v>
+        <v>1.030344185643501</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036983784939269</v>
+        <v>1.04728160191161</v>
       </c>
       <c r="J24">
-        <v>0.9990198742142676</v>
+        <v>1.033778700850979</v>
       </c>
       <c r="K24">
-        <v>1.012108661848682</v>
+        <v>1.041442102839984</v>
       </c>
       <c r="L24">
-        <v>0.9947769552363736</v>
+        <v>1.029955040160234</v>
       </c>
       <c r="M24">
-        <v>1.008739446598867</v>
+        <v>1.043858584812345</v>
       </c>
       <c r="N24">
-        <v>1.001059210923758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014380097869238</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043283513211866</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040424443310807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.985975301425482</v>
+        <v>1.014284547672255</v>
       </c>
       <c r="D25">
-        <v>1.010537363711666</v>
+        <v>1.033080751774685</v>
       </c>
       <c r="E25">
-        <v>0.9949514454734558</v>
+        <v>1.023027331230741</v>
       </c>
       <c r="F25">
-        <v>1.008824331725779</v>
+        <v>1.035668367893985</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042523715644608</v>
+        <v>1.049433932398746</v>
       </c>
       <c r="J25">
-        <v>1.010984049661977</v>
+        <v>1.038340560728712</v>
       </c>
       <c r="K25">
-        <v>1.022974273674403</v>
+        <v>1.045186353440516</v>
       </c>
       <c r="L25">
-        <v>1.007628642590808</v>
+        <v>1.035278393178628</v>
       </c>
       <c r="M25">
-        <v>1.021287188528712</v>
+        <v>1.047737108037109</v>
       </c>
       <c r="N25">
-        <v>1.005449123967068</v>
+        <v>1.016006490820982</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046353086056708</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043068940180188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020209177870415</v>
+        <v>1.018913735432018</v>
       </c>
       <c r="D2">
-        <v>1.037047790285211</v>
+        <v>1.035233511540787</v>
       </c>
       <c r="E2">
-        <v>1.028254570638938</v>
+        <v>1.026967098104534</v>
       </c>
       <c r="F2">
-        <v>1.039761425696157</v>
+        <v>1.03845444086648</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051033214833008</v>
+        <v>1.050226712074301</v>
       </c>
       <c r="J2">
-        <v>1.041801791448403</v>
+        <v>1.040543090278084</v>
       </c>
       <c r="K2">
-        <v>1.048014035566098</v>
+        <v>1.046222876817237</v>
       </c>
       <c r="L2">
-        <v>1.039333822975996</v>
+        <v>1.038063099916247</v>
       </c>
       <c r="M2">
-        <v>1.050693278105872</v>
+        <v>1.049402830113757</v>
       </c>
       <c r="N2">
-        <v>1.017231888393863</v>
+        <v>1.017553088819386</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048692673956708</v>
+        <v>1.047671381626873</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045020343966565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043762562028126</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024122080429854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024419696725112</v>
+        <v>1.022883830766838</v>
       </c>
       <c r="D3">
-        <v>1.039886976900638</v>
+        <v>1.037813283230507</v>
       </c>
       <c r="E3">
-        <v>1.031983748707637</v>
+        <v>1.030455698871258</v>
       </c>
       <c r="F3">
-        <v>1.042690579454726</v>
+        <v>1.041188250090622</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052162334154541</v>
+        <v>1.051211541320498</v>
       </c>
       <c r="J3">
-        <v>1.044266090818684</v>
+        <v>1.042769520317368</v>
       </c>
       <c r="K3">
-        <v>1.050033718426868</v>
+        <v>1.047984159330362</v>
       </c>
       <c r="L3">
-        <v>1.042223115039911</v>
+        <v>1.040713176838989</v>
       </c>
       <c r="M3">
-        <v>1.05280487994081</v>
+        <v>1.051319907481338</v>
       </c>
       <c r="N3">
-        <v>1.018107445022937</v>
+        <v>1.018176164883294</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050363844638494</v>
+        <v>1.049188603373782</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046445770654113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045005003189582</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024509603504637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027093750970189</v>
+        <v>1.025407315534129</v>
       </c>
       <c r="D4">
-        <v>1.041694513777706</v>
+        <v>1.039457471767377</v>
       </c>
       <c r="E4">
-        <v>1.034357321266498</v>
+        <v>1.032678372695915</v>
       </c>
       <c r="F4">
-        <v>1.044558535985365</v>
+        <v>1.042933428371273</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052871556115179</v>
+        <v>1.051829956607225</v>
       </c>
       <c r="J4">
-        <v>1.04582890122002</v>
+        <v>1.044182696255956</v>
       </c>
       <c r="K4">
-        <v>1.051314476001048</v>
+        <v>1.049101907502529</v>
       </c>
       <c r="L4">
-        <v>1.044058039961167</v>
+        <v>1.042397769149596</v>
       </c>
       <c r="M4">
-        <v>1.054147353163343</v>
+        <v>1.052539892154859</v>
       </c>
       <c r="N4">
-        <v>1.018662275959784</v>
+        <v>1.018571512186033</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051426307147128</v>
+        <v>1.050154127362516</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047352247561233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045796302824827</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024753103966414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028211018147038</v>
+        <v>1.02646199709231</v>
       </c>
       <c r="D5">
-        <v>1.042452866002655</v>
+        <v>1.040147828621766</v>
       </c>
       <c r="E5">
-        <v>1.035350778244484</v>
+        <v>1.033609059455064</v>
       </c>
       <c r="F5">
-        <v>1.045341456267527</v>
+        <v>1.043665273776802</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053167874776731</v>
+        <v>1.052088426597969</v>
       </c>
       <c r="J5">
-        <v>1.046483178555069</v>
+        <v>1.04477463546388</v>
       </c>
       <c r="K5">
-        <v>1.051852111477711</v>
+        <v>1.04957162338169</v>
       </c>
       <c r="L5">
-        <v>1.044826092540651</v>
+        <v>1.043103224668699</v>
       </c>
       <c r="M5">
-        <v>1.054710124402503</v>
+        <v>1.053051660021124</v>
       </c>
       <c r="N5">
-        <v>1.018895182959869</v>
+        <v>1.01873760922864</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051871696098596</v>
+        <v>1.050559151874989</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047739490825364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046136234635278</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024855500950327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028403758833076</v>
+        <v>1.026643772988626</v>
       </c>
       <c r="D6">
-        <v>1.042586316007718</v>
+        <v>1.040269479934174</v>
       </c>
       <c r="E6">
-        <v>1.035522852751436</v>
+        <v>1.033770137490299</v>
       </c>
       <c r="F6">
-        <v>1.045477412666282</v>
+        <v>1.043792347599256</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053221213824026</v>
+        <v>1.052135121567053</v>
       </c>
       <c r="J6">
-        <v>1.04659829438243</v>
+        <v>1.044878830801234</v>
       </c>
       <c r="K6">
-        <v>1.051948479270311</v>
+        <v>1.049656205544002</v>
       </c>
       <c r="L6">
-        <v>1.044960321146478</v>
+        <v>1.043226487317312</v>
       </c>
       <c r="M6">
-        <v>1.054809112103019</v>
+        <v>1.053141777678066</v>
       </c>
       <c r="N6">
-        <v>1.01893704814905</v>
+        <v>1.018767492449026</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051950037011733</v>
+        <v>1.050630472977465</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047816283505522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046205564758243</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024874707653516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027124459737898</v>
+        <v>1.02544584863562</v>
       </c>
       <c r="D7">
-        <v>1.04172224330926</v>
+        <v>1.039490487629352</v>
       </c>
       <c r="E7">
-        <v>1.034386296348163</v>
+        <v>1.032715130605231</v>
       </c>
       <c r="F7">
-        <v>1.044582155511988</v>
+        <v>1.042961601306555</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052886010945654</v>
+        <v>1.051848255770559</v>
       </c>
       <c r="J7">
-        <v>1.045853032477033</v>
+        <v>1.044214447020897</v>
       </c>
       <c r="K7">
-        <v>1.051339061563821</v>
+        <v>1.049131711694892</v>
       </c>
       <c r="L7">
-        <v>1.044083825082107</v>
+        <v>1.04243124286952</v>
       </c>
       <c r="M7">
-        <v>1.054167885627694</v>
+        <v>1.052564921666541</v>
       </c>
       <c r="N7">
-        <v>1.018673305845048</v>
+        <v>1.018608629998208</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051442556974317</v>
+        <v>1.05017393628185</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047389539179344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045839287211488</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024762781950745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021662847580742</v>
+        <v>1.020314424842268</v>
       </c>
       <c r="D8">
-        <v>1.038035702775212</v>
+        <v>1.036154258664189</v>
       </c>
       <c r="E8">
-        <v>1.029543121116102</v>
+        <v>1.028202497372489</v>
       </c>
       <c r="F8">
-        <v>1.040773733120498</v>
+        <v>1.03941798445118</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05143259886558</v>
+        <v>1.050591958041205</v>
       </c>
       <c r="J8">
-        <v>1.042660789754835</v>
+        <v>1.04134932294543</v>
       </c>
       <c r="K8">
-        <v>1.048723972599415</v>
+        <v>1.046865793397821</v>
       </c>
       <c r="L8">
-        <v>1.040337246651222</v>
+        <v>1.039013532507145</v>
       </c>
       <c r="M8">
-        <v>1.051428332866813</v>
+        <v>1.050089228511731</v>
       </c>
       <c r="N8">
-        <v>1.017540396504533</v>
+        <v>1.017861686486166</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049274413773503</v>
+        <v>1.048214614402876</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045545020602265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044242119894502</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024269982283484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01160819340336</v>
+        <v>1.010852860138274</v>
       </c>
       <c r="D9">
-        <v>1.031274810762587</v>
+        <v>1.030025682985271</v>
       </c>
       <c r="E9">
-        <v>1.020667064518974</v>
+        <v>1.019918131510267</v>
       </c>
       <c r="F9">
-        <v>1.033822396785767</v>
+        <v>1.032944606241205</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048685695709554</v>
+        <v>1.048197853542369</v>
       </c>
       <c r="J9">
-        <v>1.036757592064906</v>
+        <v>1.036028111998406</v>
       </c>
       <c r="K9">
-        <v>1.043880065894116</v>
+        <v>1.04264969872976</v>
       </c>
       <c r="L9">
-        <v>1.033433501572034</v>
+        <v>1.03269611017725</v>
       </c>
       <c r="M9">
-        <v>1.046389568505675</v>
+        <v>1.045524872913462</v>
       </c>
       <c r="N9">
-        <v>1.015438069176211</v>
+        <v>1.01638005439409</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045286606662724</v>
+        <v>1.044602262263308</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042116955544699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041257679680004</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023326971941868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004694864022987</v>
+        <v>1.00439897941003</v>
       </c>
       <c r="D10">
-        <v>1.026684057891332</v>
+        <v>1.025905433794993</v>
       </c>
       <c r="E10">
-        <v>1.014605006187322</v>
+        <v>1.014312228395239</v>
       </c>
       <c r="F10">
-        <v>1.029168915029106</v>
+        <v>1.028650843724079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046788834312003</v>
+        <v>1.046567481644431</v>
       </c>
       <c r="J10">
-        <v>1.032723441034665</v>
+        <v>1.032439146048199</v>
       </c>
       <c r="K10">
-        <v>1.040587676890651</v>
+        <v>1.039822197068578</v>
       </c>
       <c r="L10">
-        <v>1.028715476447061</v>
+        <v>1.028427791582143</v>
       </c>
       <c r="M10">
-        <v>1.043030757592641</v>
+        <v>1.042521374844577</v>
       </c>
       <c r="N10">
-        <v>1.014012507570507</v>
+        <v>1.015503178197048</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042679523186419</v>
+        <v>1.042276406886421</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039805757082638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039276865855233</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022696495228961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002329591461726</v>
+        <v>1.002198681084198</v>
       </c>
       <c r="D11">
-        <v>1.025352782104364</v>
+        <v>1.024729347994626</v>
       </c>
       <c r="E11">
-        <v>1.012617584235165</v>
+        <v>1.012488167117174</v>
       </c>
       <c r="F11">
-        <v>1.028227627074498</v>
+        <v>1.027831503506248</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046370333745479</v>
+        <v>1.046233438258551</v>
       </c>
       <c r="J11">
-        <v>1.031605776814194</v>
+        <v>1.031480277546609</v>
       </c>
       <c r="K11">
-        <v>1.039811912696985</v>
+        <v>1.039199502441498</v>
       </c>
       <c r="L11">
-        <v>1.027305410666661</v>
+        <v>1.027178356032005</v>
       </c>
       <c r="M11">
-        <v>1.042636147415326</v>
+        <v>1.042246975616353</v>
       </c>
       <c r="N11">
-        <v>1.013722293017823</v>
+        <v>1.015540728001945</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042801277762569</v>
+        <v>1.042493447636422</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039289916769149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038872462356175</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022636367184782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00169765866482</v>
+        <v>1.001589798208108</v>
       </c>
       <c r="D12">
-        <v>1.02510363754549</v>
+        <v>1.024499729540536</v>
       </c>
       <c r="E12">
-        <v>1.012125369423133</v>
+        <v>1.012018775265788</v>
       </c>
       <c r="F12">
-        <v>1.028274594797214</v>
+        <v>1.027894654651029</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046369421464293</v>
+        <v>1.046237754752203</v>
       </c>
       <c r="J12">
-        <v>1.031430343903063</v>
+        <v>1.031327026986167</v>
       </c>
       <c r="K12">
-        <v>1.039765193047507</v>
+        <v>1.03917213876331</v>
       </c>
       <c r="L12">
-        <v>1.027023895966851</v>
+        <v>1.026919280941311</v>
       </c>
       <c r="M12">
-        <v>1.042879431929478</v>
+        <v>1.042506263751815</v>
       </c>
       <c r="N12">
-        <v>1.013743738057335</v>
+        <v>1.01565631115645</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043318572137856</v>
+        <v>1.043023499684522</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039256884824449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038853115941134</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022687247479731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002379941506581</v>
+        <v>1.002169834414141</v>
       </c>
       <c r="D13">
-        <v>1.025694385878651</v>
+        <v>1.024993691783137</v>
       </c>
       <c r="E13">
-        <v>1.01277122248728</v>
+        <v>1.012563561722356</v>
       </c>
       <c r="F13">
-        <v>1.029114362115953</v>
+        <v>1.028659438116126</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046707702366556</v>
+        <v>1.046511760352222</v>
       </c>
       <c r="J13">
-        <v>1.031991664407526</v>
+        <v>1.031790359754805</v>
       </c>
       <c r="K13">
-        <v>1.040302901085564</v>
+        <v>1.039614740938642</v>
       </c>
       <c r="L13">
-        <v>1.027614542556641</v>
+        <v>1.027410718625085</v>
       </c>
       <c r="M13">
-        <v>1.043662018889499</v>
+        <v>1.043215159981423</v>
       </c>
       <c r="N13">
-        <v>1.014017748095376</v>
+        <v>1.015809306706957</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044212814809539</v>
+        <v>1.043859561491431</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03963458019374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039163320850149</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022832628702388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003452404223189</v>
+        <v>1.003115389095029</v>
       </c>
       <c r="D14">
-        <v>1.02648833988058</v>
+        <v>1.025668656959694</v>
       </c>
       <c r="E14">
-        <v>1.013738508053537</v>
+        <v>1.013405328583934</v>
       </c>
       <c r="F14">
-        <v>1.030060038344472</v>
+        <v>1.029512505110333</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047097701286773</v>
+        <v>1.046826499148465</v>
       </c>
       <c r="J14">
-        <v>1.032717710988573</v>
+        <v>1.032394605823074</v>
       </c>
       <c r="K14">
-        <v>1.040943773078816</v>
+        <v>1.040138565033737</v>
       </c>
       <c r="L14">
-        <v>1.028422540493081</v>
+        <v>1.028095435174717</v>
       </c>
       <c r="M14">
-        <v>1.044452746799765</v>
+        <v>1.043914792534251</v>
       </c>
       <c r="N14">
-        <v>1.014323855124739</v>
+        <v>1.015935214295535</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045010503770296</v>
+        <v>1.044585294242018</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.0400891082481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03953522443849</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02297785985171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004007522491276</v>
+        <v>1.003612680054017</v>
       </c>
       <c r="D15">
-        <v>1.026875235667579</v>
+        <v>1.026001422613754</v>
       </c>
       <c r="E15">
-        <v>1.01423042346487</v>
+        <v>1.013840013525577</v>
       </c>
       <c r="F15">
-        <v>1.030481071318658</v>
+        <v>1.029891334253596</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.0472727584124</v>
+        <v>1.046968400367585</v>
       </c>
       <c r="J15">
-        <v>1.03306444297251</v>
+        <v>1.032685751536518</v>
       </c>
       <c r="K15">
-        <v>1.041238303245115</v>
+        <v>1.040379801911993</v>
       </c>
       <c r="L15">
-        <v>1.028818408212166</v>
+        <v>1.028435058721359</v>
       </c>
       <c r="M15">
-        <v>1.044781309730809</v>
+        <v>1.044201809471453</v>
       </c>
       <c r="N15">
-        <v>1.014457616999853</v>
+        <v>1.015980423044454</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045307597247773</v>
+        <v>1.044849560927109</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04030318065153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.0397121847376</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023037730298233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006805579581788</v>
+        <v>1.006166291784431</v>
       </c>
       <c r="D16">
-        <v>1.028710924479204</v>
+        <v>1.027605505630968</v>
       </c>
       <c r="E16">
-        <v>1.016670659801319</v>
+        <v>1.016037994886621</v>
       </c>
       <c r="F16">
-        <v>1.032323104412077</v>
+        <v>1.031553049336729</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048025503715928</v>
+        <v>1.04758589141435</v>
       </c>
       <c r="J16">
-        <v>1.034675830583173</v>
+        <v>1.03406136755861</v>
       </c>
       <c r="K16">
-        <v>1.042545232992044</v>
+        <v>1.041458333894156</v>
       </c>
       <c r="L16">
-        <v>1.030709491872427</v>
+        <v>1.030087747186816</v>
       </c>
       <c r="M16">
-        <v>1.046097251939618</v>
+        <v>1.045339976656495</v>
       </c>
       <c r="N16">
-        <v>1.015012352105689</v>
+        <v>1.016141494721498</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046309156665749</v>
+        <v>1.045710590109085</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041230357079448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040478174113976</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023267090421386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008392515647787</v>
+        <v>1.007643981987215</v>
       </c>
       <c r="D17">
-        <v>1.029705322959091</v>
+        <v>1.028492929860108</v>
       </c>
       <c r="E17">
-        <v>1.018039226852469</v>
+        <v>1.017298057785665</v>
       </c>
       <c r="F17">
-        <v>1.033237234642735</v>
+        <v>1.032384389888981</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048397192012886</v>
+        <v>1.047898738260305</v>
       </c>
       <c r="J17">
-        <v>1.035531958788296</v>
+        <v>1.034811549660862</v>
       </c>
       <c r="K17">
-        <v>1.043211813454525</v>
+        <v>1.04201916141877</v>
       </c>
       <c r="L17">
-        <v>1.031738186998713</v>
+        <v>1.031009438140007</v>
       </c>
       <c r="M17">
-        <v>1.046686554853923</v>
+        <v>1.045847468930906</v>
       </c>
       <c r="N17">
-        <v>1.015277610978874</v>
+        <v>1.016229638479499</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046646482188313</v>
+        <v>1.045983185111236</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041704216018184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040877509242306</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023368809573738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009065858127669</v>
+        <v>1.008301678861874</v>
       </c>
       <c r="D18">
-        <v>1.030037103333964</v>
+        <v>1.028806532313776</v>
       </c>
       <c r="E18">
-        <v>1.018589086781206</v>
+        <v>1.017832205209436</v>
       </c>
       <c r="F18">
-        <v>1.033381461015826</v>
+        <v>1.032514633419207</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048458373614473</v>
+        <v>1.047955300050244</v>
       </c>
       <c r="J18">
-        <v>1.035790689821797</v>
+        <v>1.035054686232284</v>
       </c>
       <c r="K18">
-        <v>1.043356745537412</v>
+        <v>1.042145887120966</v>
       </c>
       <c r="L18">
-        <v>1.032094481675324</v>
+        <v>1.031350070539886</v>
       </c>
       <c r="M18">
-        <v>1.046647833524558</v>
+        <v>1.045794770509843</v>
       </c>
       <c r="N18">
-        <v>1.01530538483624</v>
+        <v>1.016213766543043</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04637934594446</v>
+        <v>1.045704860666084</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041795134697535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040954420224449</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023356325202053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008936796574859</v>
+        <v>1.008229222165137</v>
       </c>
       <c r="D19">
-        <v>1.029794879079787</v>
+        <v>1.02861710232977</v>
       </c>
       <c r="E19">
-        <v>1.018421523297531</v>
+        <v>1.017720646555459</v>
       </c>
       <c r="F19">
-        <v>1.032840626879247</v>
+        <v>1.032014336620693</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048258101877979</v>
+        <v>1.047792643278991</v>
       </c>
       <c r="J19">
-        <v>1.035533702888194</v>
+        <v>1.034852072182379</v>
       </c>
       <c r="K19">
-        <v>1.043056500884758</v>
+        <v>1.041897500670426</v>
       </c>
       <c r="L19">
-        <v>1.031866796649782</v>
+        <v>1.031177409978916</v>
       </c>
       <c r="M19">
-        <v>1.046053946510837</v>
+        <v>1.045240724207506</v>
       </c>
       <c r="N19">
-        <v>1.015136480586475</v>
+        <v>1.01609468573272</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045586016200878</v>
+        <v>1.044942823537515</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041589204946281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04078578191935</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023248928438278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006533129582616</v>
+        <v>1.006082996247359</v>
       </c>
       <c r="D20">
-        <v>1.027921813063899</v>
+        <v>1.026994414147617</v>
       </c>
       <c r="E20">
-        <v>1.016219862861716</v>
+        <v>1.015774213543029</v>
       </c>
       <c r="F20">
-        <v>1.030412883059888</v>
+        <v>1.029779285245821</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047313841052373</v>
+        <v>1.047004321600892</v>
       </c>
       <c r="J20">
-        <v>1.033814512418411</v>
+        <v>1.033381425849788</v>
       </c>
       <c r="K20">
-        <v>1.041490838379466</v>
+        <v>1.040578645144008</v>
       </c>
       <c r="L20">
-        <v>1.029983377931041</v>
+        <v>1.029545249704141</v>
       </c>
       <c r="M20">
-        <v>1.043941238741363</v>
+        <v>1.043317961178918</v>
       </c>
       <c r="N20">
-        <v>1.014406161803305</v>
+        <v>1.015669049785445</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043389573549375</v>
+        <v>1.04289631714062</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040486137780326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03985760928584</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022869224479179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001199760215406</v>
+        <v>1.00126382355275</v>
       </c>
       <c r="D21">
-        <v>1.024343629442588</v>
+        <v>1.023901245570435</v>
       </c>
       <c r="E21">
-        <v>1.011539020451434</v>
+        <v>1.011602344150489</v>
       </c>
       <c r="F21">
-        <v>1.026713854482099</v>
+        <v>1.026459155237348</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045790377832363</v>
+        <v>1.045773513251784</v>
       </c>
       <c r="J21">
-        <v>1.030647405450396</v>
+        <v>1.030708799692517</v>
       </c>
       <c r="K21">
-        <v>1.038878029219497</v>
+        <v>1.038443521821784</v>
       </c>
       <c r="L21">
-        <v>1.026305031267915</v>
+        <v>1.026367190766998</v>
       </c>
       <c r="M21">
-        <v>1.041206203258635</v>
+        <v>1.040956010643189</v>
       </c>
       <c r="N21">
-        <v>1.013266871818227</v>
+        <v>1.015346340225357</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04118433608098</v>
+        <v>1.040986325561406</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038642023228544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03835156667108</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022390734410101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9977984174247432</v>
+        <v>0.9981906905737815</v>
       </c>
       <c r="D22">
-        <v>1.02207541544563</v>
+        <v>1.021942636308255</v>
       </c>
       <c r="E22">
-        <v>1.008563887080478</v>
+        <v>1.008951217911904</v>
       </c>
       <c r="F22">
-        <v>1.024403708982882</v>
+        <v>1.024391126353543</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044818669230187</v>
+        <v>1.044988967929058</v>
       </c>
       <c r="J22">
-        <v>1.028635545107192</v>
+        <v>1.029010501852099</v>
       </c>
       <c r="K22">
-        <v>1.037221882342003</v>
+        <v>1.037091587787285</v>
       </c>
       <c r="L22">
-        <v>1.023967579531791</v>
+        <v>1.024347410858942</v>
       </c>
       <c r="M22">
-        <v>1.039506745047713</v>
+        <v>1.039494396436355</v>
       </c>
       <c r="N22">
-        <v>1.012545596684616</v>
+        <v>1.015137355921521</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039839328873971</v>
+        <v>1.039829555766997</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037457632693217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037380973266981</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022088289486036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9995925024184886</v>
+        <v>0.9997945229310359</v>
       </c>
       <c r="D23">
-        <v>1.023264699452294</v>
+        <v>1.022955347373921</v>
       </c>
       <c r="E23">
-        <v>1.010130635973308</v>
+        <v>1.010330224969267</v>
       </c>
       <c r="F23">
-        <v>1.02561912721652</v>
+        <v>1.025467828834189</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045325940517666</v>
+        <v>1.045388185083441</v>
       </c>
       <c r="J23">
-        <v>1.02969093737524</v>
+        <v>1.02988430693596</v>
       </c>
       <c r="K23">
-        <v>1.038086472378379</v>
+        <v>1.037782759755554</v>
       </c>
       <c r="L23">
-        <v>1.025195813204598</v>
+        <v>1.025391641494505</v>
       </c>
       <c r="M23">
-        <v>1.040398124155116</v>
+        <v>1.040249566928635</v>
       </c>
       <c r="N23">
-        <v>1.012921210340629</v>
+        <v>1.015197376591906</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040544795973875</v>
+        <v>1.040427222887305</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038059338522428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037859123742107</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022238783992233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006529710347082</v>
+        <v>1.006086205435095</v>
       </c>
       <c r="D24">
-        <v>1.027887643885522</v>
+        <v>1.026966162754099</v>
       </c>
       <c r="E24">
-        <v>1.016206677403288</v>
+        <v>1.015767580755254</v>
       </c>
       <c r="F24">
-        <v>1.030344185643501</v>
+        <v>1.029715201881632</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04728160191161</v>
+        <v>1.04697669661806</v>
       </c>
       <c r="J24">
-        <v>1.033778700850979</v>
+        <v>1.033351968140267</v>
       </c>
       <c r="K24">
-        <v>1.041442102839984</v>
+        <v>1.040535712213221</v>
       </c>
       <c r="L24">
-        <v>1.029955040160234</v>
+        <v>1.029523344691983</v>
       </c>
       <c r="M24">
-        <v>1.043858584812345</v>
+        <v>1.043239834746168</v>
       </c>
       <c r="N24">
-        <v>1.014380097869238</v>
+        <v>1.01564780850392</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043283513211866</v>
+        <v>1.042793815737227</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040424443310807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039797347280161</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022849556162731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014284547672255</v>
+        <v>1.013355406230488</v>
       </c>
       <c r="D25">
-        <v>1.033080751774685</v>
+        <v>1.031651914583295</v>
       </c>
       <c r="E25">
-        <v>1.023027331230741</v>
+        <v>1.022105379106348</v>
       </c>
       <c r="F25">
-        <v>1.035668367893985</v>
+        <v>1.034653635395563</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049433932398746</v>
+        <v>1.048843963472811</v>
       </c>
       <c r="J25">
-        <v>1.038340560728712</v>
+        <v>1.037441518098585</v>
       </c>
       <c r="K25">
-        <v>1.045186353440516</v>
+        <v>1.043777970878353</v>
       </c>
       <c r="L25">
-        <v>1.035278393178628</v>
+        <v>1.034369962371502</v>
       </c>
       <c r="M25">
-        <v>1.047737108037109</v>
+        <v>1.046736802968353</v>
       </c>
       <c r="N25">
-        <v>1.016006490820982</v>
+        <v>1.016745499586122</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046353086056708</v>
+        <v>1.045561417597931</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043068940180188</v>
+        <v>1.042086600151179</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023583786726007</v>
       </c>
     </row>
   </sheetData>
